--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2658FD65-2E98-45CF-81FD-080A324FAF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39FE5EF-E375-48E9-99ED-FC91F32FF686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="718">
   <si>
     <t>SearchID</t>
   </si>
@@ -3992,18 +3992,9 @@
     <t>Gert Van Hoey</t>
   </si>
   <si>
-    <t>presence</t>
-  </si>
-  <si>
     <t>Scyliorhinus canicula</t>
   </si>
   <si>
-    <t>20 individuals from trawls</t>
-  </si>
-  <si>
-    <t>Plastic present in 3 of 20 individuals</t>
-  </si>
-  <si>
     <t xml:space="preserve">Video survey; Norwegian Mareano program </t>
   </si>
   <si>
@@ -4020,9 +4011,6 @@
   </si>
   <si>
     <t>Density</t>
-  </si>
-  <si>
-    <t>number of litter items</t>
   </si>
   <si>
     <t>stern trawlers targeting gadoids</t>
@@ -4063,12 +4051,6 @@
   </si>
   <si>
     <t>A hurdle Bayesian spatial model fitted to observers’ catch and effort data showed that the probability of occurrence and abundance of the species increased with fishing effort and decreased in sandy bottoms. Moreover, abundance increased with upwelling intensity and decreased with continental runoff and along the fishing season.</t>
-  </si>
-  <si>
-    <t>Together, these studies reported effects of protection pertaining to increased population density, survival, body size and phenotypic diversity, changes in emigration and interaction with surrounding fisheries, and alteration of selection pressure on morphological and behavioral traits.</t>
-  </si>
-  <si>
-    <t>Homarus gammarus + additionally: Gadus morhua, labrids (Ctenolabrus rupestris and Symphodus melops) and anadromous brown trout (Salmo trutta)</t>
   </si>
   <si>
     <t>Roses otter trawl fishing vessel using a commercial bottom trawl net with a cod-end with a square mesh size of 40 mm.</t>
@@ -4207,9 +4189,6 @@
   </si>
   <si>
     <t>Impact of fishery as factor mentioned, fishery data (VMS) used, but does not appear as structuring factor for the fish assemblages. Some assemblages characterizded by higher fishing effort than others, but the impact trend, magnitude not investigated</t>
-  </si>
-  <si>
-    <t>Our results showed four spatially distinct and temporally stable assemblages of the Strait of Sicily. These have a clear spatial distribution, different species composition and biodiversity values and are driven primarily by environmental gradients (i.e., mainly depth and, to a lesser extent, surface salinity). The demersal assemblages were subsequently grouped in homogeneous areas characterized by specific communities of commercial and non-commercial species and response to trawling impacts.</t>
   </si>
   <si>
     <t>Biogeochemical parameters and fluxes</t>
@@ -4566,9 +4545,6 @@
     <t>Presence</t>
   </si>
   <si>
-    <t>VMS_AIS_fishery catch</t>
-  </si>
-  <si>
     <t>No real impact of fishery, only determination of linkage between fishery activity, primary prodution and fish production (based on catches)</t>
   </si>
   <si>
@@ -4693,9 +4669,6 @@
     <t>the number of diggers and estimated average catches</t>
   </si>
   <si>
-    <t>Social media videos to harvest catch data</t>
-  </si>
-  <si>
     <t>Scuba diving_three replicate belt-transects of 25×5m (125m2)</t>
   </si>
   <si>
@@ -4772,18 +4745,6 @@
       </rPr>
       <t>2.9% of individuals).</t>
     </r>
-  </si>
-  <si>
-    <t>Stock analyses</t>
-  </si>
-  <si>
-    <t>Environmental relation (NAOO index)</t>
-  </si>
-  <si>
-    <t>Fishery a factor that affect distribution, but not quantified</t>
-  </si>
-  <si>
-    <t>The results indicate that nitrogen loadings are too high and that they need to be reduced in order to get the optimal cod stock level.</t>
   </si>
   <si>
     <t xml:space="preserve">We used the Speirs et al. (2010) discrete-time length-structuredmodel of the North Sea fish community </t>
@@ -5168,18 +5129,6 @@
       </rPr>
       <t>97 cm) cod, respectively</t>
     </r>
-  </si>
-  <si>
-    <t>Commercial trawling presencewas considered in the interpretation of the results</t>
-  </si>
-  <si>
-    <t>scuba diving and anchoring (with negative effects)</t>
-  </si>
-  <si>
-    <t>occurrence</t>
-  </si>
-  <si>
-    <t>Tursiops truncatus</t>
   </si>
   <si>
     <t xml:space="preserve">number </t>
@@ -5967,10 +5916,10 @@
   <dimension ref="A1:AZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5:AY69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4"/>
@@ -5991,7 +5940,7 @@
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>11</v>
@@ -6290,7 +6239,7 @@
         <v>526</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="AB3" s="21">
         <v>2</v>
@@ -6338,10 +6287,10 @@
         <v>211</v>
       </c>
       <c r="AU3" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>199</v>
@@ -6427,7 +6376,7 @@
         <v>526</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="AB4" s="21">
         <v>2</v>
@@ -6475,10 +6424,10 @@
         <v>211</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="AW4" s="21" t="s">
         <v>199</v>
@@ -6551,77 +6500,8 @@
       <c r="S5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>3</v>
-      </c>
       <c r="AG5" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="AH5" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI5" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM5" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="AN5" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP5" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="AR5" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS5" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU5" s="21" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV5" s="21" t="s">
-        <v>534</v>
-      </c>
-      <c r="AW5" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX5" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY5" s="21" t="s">
-        <v>537</v>
       </c>
       <c r="AZ5" s="21" t="s">
         <v>533</v>
@@ -6701,10 +6581,10 @@
         <v>215</v>
       </c>
       <c r="Z6" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA6" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB6" s="21">
         <v>2</v>
@@ -6734,13 +6614,13 @@
         <v>150</v>
       </c>
       <c r="AM6" s="21" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="AN6" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR6" s="21" t="s">
         <v>164</v>
@@ -6752,10 +6632,10 @@
         <v>175</v>
       </c>
       <c r="AU6" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV6" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW6" s="21" t="s">
         <v>199</v>
@@ -6764,7 +6644,7 @@
         <v>208</v>
       </c>
       <c r="AY6" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ6" s="21" t="s">
         <v>533</v>
@@ -6844,10 +6724,10 @@
         <v>215</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB7" s="21">
         <v>2</v>
@@ -6877,13 +6757,13 @@
         <v>150</v>
       </c>
       <c r="AM7" s="21" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AN7" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP7" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR7" s="21" t="s">
         <v>164</v>
@@ -6895,10 +6775,10 @@
         <v>175</v>
       </c>
       <c r="AU7" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV7" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW7" s="21" t="s">
         <v>199</v>
@@ -6907,7 +6787,7 @@
         <v>207</v>
       </c>
       <c r="AY7" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ7" s="21" t="s">
         <v>533</v>
@@ -6987,10 +6867,10 @@
         <v>215</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA8" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB8" s="21">
         <v>2</v>
@@ -7020,13 +6900,13 @@
         <v>150</v>
       </c>
       <c r="AM8" s="21" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AN8" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP8" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR8" s="21" t="s">
         <v>164</v>
@@ -7038,10 +6918,10 @@
         <v>175</v>
       </c>
       <c r="AU8" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV8" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW8" s="21" t="s">
         <v>199</v>
@@ -7050,7 +6930,7 @@
         <v>207</v>
       </c>
       <c r="AY8" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ8" s="21" t="s">
         <v>533</v>
@@ -7130,10 +7010,10 @@
         <v>215</v>
       </c>
       <c r="Z9" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB9" s="21">
         <v>2</v>
@@ -7163,13 +7043,13 @@
         <v>150</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="AN9" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR9" s="21" t="s">
         <v>164</v>
@@ -7181,10 +7061,10 @@
         <v>175</v>
       </c>
       <c r="AU9" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV9" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW9" s="21" t="s">
         <v>199</v>
@@ -7193,7 +7073,7 @@
         <v>208</v>
       </c>
       <c r="AY9" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ9" s="21" t="s">
         <v>533</v>
@@ -7273,10 +7153,10 @@
         <v>215</v>
       </c>
       <c r="Z10" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB10" s="21">
         <v>2</v>
@@ -7306,13 +7186,13 @@
         <v>134</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN10" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP10" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR10" s="21" t="s">
         <v>164</v>
@@ -7324,10 +7204,10 @@
         <v>175</v>
       </c>
       <c r="AU10" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV10" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW10" s="21" t="s">
         <v>199</v>
@@ -7336,7 +7216,7 @@
         <v>208</v>
       </c>
       <c r="AY10" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>533</v>
@@ -7416,10 +7296,10 @@
         <v>215</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB11" s="21">
         <v>2</v>
@@ -7449,13 +7329,13 @@
         <v>141</v>
       </c>
       <c r="AM11" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN11" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP11" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR11" s="21" t="s">
         <v>164</v>
@@ -7467,10 +7347,10 @@
         <v>175</v>
       </c>
       <c r="AU11" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV11" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW11" s="21" t="s">
         <v>199</v>
@@ -7479,7 +7359,7 @@
         <v>208</v>
       </c>
       <c r="AY11" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ11" s="21" t="s">
         <v>533</v>
@@ -7559,10 +7439,10 @@
         <v>215</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AB12" s="21">
         <v>2</v>
@@ -7574,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="AF12" s="21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AG12" s="22" t="s">
         <v>414</v>
@@ -7592,13 +7472,13 @@
         <v>113</v>
       </c>
       <c r="AM12" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN12" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP12" s="21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AR12" s="21" t="s">
         <v>164</v>
@@ -7610,10 +7490,10 @@
         <v>175</v>
       </c>
       <c r="AU12" s="21" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AV12" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AW12" s="21" t="s">
         <v>199</v>
@@ -7622,7 +7502,7 @@
         <v>208</v>
       </c>
       <c r="AY12" s="21" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AZ12" s="21" t="s">
         <v>533</v>
@@ -7702,7 +7582,7 @@
         <v>69</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AB13" s="21">
         <v>2</v>
@@ -7729,16 +7609,16 @@
         <v>113</v>
       </c>
       <c r="AM13" s="21" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AN13" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP13" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AQ13" s="23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AR13" s="21" t="s">
         <v>164</v>
@@ -7750,10 +7630,10 @@
         <v>176</v>
       </c>
       <c r="AU13" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV13" s="21" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="AW13" s="21" t="s">
         <v>199</v>
@@ -7762,7 +7642,7 @@
         <v>207</v>
       </c>
       <c r="AY13" s="24" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AZ13" s="21" t="s">
         <v>533</v>
@@ -7826,27 +7706,10 @@
       <c r="S14" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="AG14" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="AI14" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM14" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="AY14" s="25" t="s">
-        <v>558</v>
-      </c>
+      <c r="AY14" s="25"/>
       <c r="AZ14" s="21" t="s">
         <v>533</v>
       </c>
@@ -7925,10 +7788,10 @@
         <v>215</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB15" s="21">
         <v>2</v>
@@ -7949,13 +7812,13 @@
         <v>117</v>
       </c>
       <c r="AM15" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AN15" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP15" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR15" s="21" t="s">
         <v>164</v>
@@ -7964,10 +7827,10 @@
         <v>239</v>
       </c>
       <c r="AU15" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV15" s="21" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="AW15" s="21" t="s">
         <v>205</v>
@@ -7976,7 +7839,7 @@
         <v>208</v>
       </c>
       <c r="AY15" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AZ15" s="21" t="s">
         <v>533</v>
@@ -8056,10 +7919,10 @@
         <v>215</v>
       </c>
       <c r="Z16" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA16" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB16" s="21">
         <v>2</v>
@@ -8080,13 +7943,13 @@
         <v>117</v>
       </c>
       <c r="AM16" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AN16" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP16" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR16" s="21" t="s">
         <v>164</v>
@@ -8095,10 +7958,10 @@
         <v>239</v>
       </c>
       <c r="AU16" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV16" s="21" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="AW16" s="21" t="s">
         <v>205</v>
@@ -8107,7 +7970,7 @@
         <v>210</v>
       </c>
       <c r="AY16" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AZ16" s="21" t="s">
         <v>533</v>
@@ -8187,10 +8050,10 @@
         <v>215</v>
       </c>
       <c r="Z17" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA17" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB17" s="21">
         <v>2</v>
@@ -8211,13 +8074,13 @@
         <v>117</v>
       </c>
       <c r="AM17" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AN17" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP17" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR17" s="21" t="s">
         <v>164</v>
@@ -8226,10 +8089,10 @@
         <v>239</v>
       </c>
       <c r="AU17" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV17" s="21" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AW17" s="21" t="s">
         <v>200</v>
@@ -8238,7 +8101,7 @@
         <v>208</v>
       </c>
       <c r="AY17" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AZ17" s="21" t="s">
         <v>533</v>
@@ -8318,10 +8181,10 @@
         <v>215</v>
       </c>
       <c r="Z18" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB18" s="21">
         <v>2</v>
@@ -8342,13 +8205,13 @@
         <v>117</v>
       </c>
       <c r="AM18" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AN18" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP18" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR18" s="21" t="s">
         <v>164</v>
@@ -8357,10 +8220,10 @@
         <v>239</v>
       </c>
       <c r="AU18" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV18" s="21" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="AW18" s="21" t="s">
         <v>199</v>
@@ -8369,7 +8232,7 @@
         <v>208</v>
       </c>
       <c r="AY18" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AZ18" s="21" t="s">
         <v>533</v>
@@ -8449,10 +8312,10 @@
         <v>215</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB19" s="21">
         <v>2</v>
@@ -8473,13 +8336,13 @@
         <v>117</v>
       </c>
       <c r="AM19" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AN19" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP19" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR19" s="21" t="s">
         <v>164</v>
@@ -8488,10 +8351,10 @@
         <v>239</v>
       </c>
       <c r="AU19" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="AW19" s="21" t="s">
         <v>206</v>
@@ -8500,7 +8363,7 @@
         <v>208</v>
       </c>
       <c r="AY19" s="26" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AZ19" s="21" t="s">
         <v>533</v>
@@ -8574,7 +8437,7 @@
         <v>80</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AB20" s="21">
         <v>2</v>
@@ -8601,16 +8464,16 @@
         <v>232</v>
       </c>
       <c r="AP20" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR20" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AU20" s="27" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AV20" s="21" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AW20" s="21" t="s">
         <v>203</v>
@@ -8619,7 +8482,7 @@
         <v>208</v>
       </c>
       <c r="AY20" s="28" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AZ20" s="21" t="s">
         <v>533</v>
@@ -8683,42 +8546,13 @@
       <c r="S21" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T21" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="X21" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="21" t="s">
-        <v>216</v>
-      </c>
       <c r="AF21" s="26" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="AG21" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="AH21" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI21" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM21" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="AY21" s="25" t="s">
-        <v>572</v>
-      </c>
+      <c r="AY21" s="25"/>
       <c r="AZ21" s="21" t="s">
         <v>533</v>
       </c>
@@ -8794,10 +8628,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="AB22" s="21">
         <v>2</v>
@@ -8821,13 +8655,13 @@
         <v>141</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AN22" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP22" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR22" s="21" t="s">
         <v>164</v>
@@ -8839,10 +8673,10 @@
         <v>176</v>
       </c>
       <c r="AU22" s="21" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -8851,7 +8685,7 @@
         <v>208</v>
       </c>
       <c r="AY22" s="29" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="AZ22" s="21" t="s">
         <v>533</v>
@@ -8931,7 +8765,7 @@
         <v>218</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AB23" s="21">
         <v>2</v>
@@ -8952,19 +8786,19 @@
         <v>116</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="AW23" s="21" t="s">
         <v>213</v>
@@ -8973,7 +8807,7 @@
         <v>208</v>
       </c>
       <c r="AY23" s="30" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="AZ23" s="21" t="s">
         <v>533</v>
@@ -9053,10 +8887,10 @@
         <v>69</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB24" s="21">
         <v>2</v>
@@ -9080,13 +8914,13 @@
         <v>145</v>
       </c>
       <c r="AM24" s="21" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP24" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR24" s="21" t="s">
         <v>164</v>
@@ -9098,13 +8932,13 @@
         <v>176</v>
       </c>
       <c r="AV24" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW24" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY24" s="21" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AZ24" s="21" t="s">
         <v>533</v>
@@ -9184,10 +9018,10 @@
         <v>69</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB25" s="21">
         <v>2</v>
@@ -9211,13 +9045,13 @@
         <v>145</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR25" s="21" t="s">
         <v>164</v>
@@ -9229,13 +9063,13 @@
         <v>176</v>
       </c>
       <c r="AV25" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW25" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY25" s="21" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AZ25" s="21" t="s">
         <v>533</v>
@@ -9315,10 +9149,10 @@
         <v>69</v>
       </c>
       <c r="Z26" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA26" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB26" s="21">
         <v>2</v>
@@ -9342,13 +9176,13 @@
         <v>145</v>
       </c>
       <c r="AM26" s="21" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP26" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR26" s="21" t="s">
         <v>164</v>
@@ -9360,13 +9194,13 @@
         <v>175</v>
       </c>
       <c r="AV26" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW26" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY26" s="21" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AZ26" s="21" t="s">
         <v>533</v>
@@ -9446,10 +9280,10 @@
         <v>69</v>
       </c>
       <c r="Z27" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA27" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB27" s="21">
         <v>2</v>
@@ -9473,13 +9307,13 @@
         <v>145</v>
       </c>
       <c r="AM27" s="21" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="AN27" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP27" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR27" s="21" t="s">
         <v>164</v>
@@ -9488,13 +9322,13 @@
         <v>170</v>
       </c>
       <c r="AV27" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW27" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY27" s="21" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AZ27" s="21" t="s">
         <v>533</v>
@@ -9574,10 +9408,10 @@
         <v>69</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB28" s="21">
         <v>2</v>
@@ -9601,13 +9435,13 @@
         <v>145</v>
       </c>
       <c r="AM28" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN28" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP28" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR28" s="21" t="s">
         <v>164</v>
@@ -9619,13 +9453,13 @@
         <v>176</v>
       </c>
       <c r="AV28" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW28" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY28" s="23" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AZ28" s="21" t="s">
         <v>533</v>
@@ -9705,10 +9539,10 @@
         <v>69</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB29" s="21">
         <v>2</v>
@@ -9732,13 +9566,13 @@
         <v>145</v>
       </c>
       <c r="AM29" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN29" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP29" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR29" s="21" t="s">
         <v>164</v>
@@ -9750,13 +9584,13 @@
         <v>175</v>
       </c>
       <c r="AV29" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW29" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY29" s="23" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="AZ29" s="21" t="s">
         <v>533</v>
@@ -9836,10 +9670,10 @@
         <v>69</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB30" s="21">
         <v>2</v>
@@ -9863,13 +9697,13 @@
         <v>145</v>
       </c>
       <c r="AM30" s="21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN30" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP30" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR30" s="21" t="s">
         <v>164</v>
@@ -9878,13 +9712,13 @@
         <v>170</v>
       </c>
       <c r="AV30" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW30" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY30" s="31" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="AZ30" s="21" t="s">
         <v>533</v>
@@ -9964,10 +9798,10 @@
         <v>69</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA31" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB31" s="21">
         <v>2</v>
@@ -9991,13 +9825,13 @@
         <v>145</v>
       </c>
       <c r="AM31" s="21" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="AN31" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP31" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR31" s="21" t="s">
         <v>164</v>
@@ -10009,13 +9843,13 @@
         <v>176</v>
       </c>
       <c r="AV31" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW31" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY31" s="23" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AZ31" s="21" t="s">
         <v>533</v>
@@ -10095,10 +9929,10 @@
         <v>69</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA32" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB32" s="21">
         <v>2</v>
@@ -10122,13 +9956,13 @@
         <v>145</v>
       </c>
       <c r="AM32" s="21" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="AN32" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP32" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR32" s="21" t="s">
         <v>164</v>
@@ -10140,13 +9974,13 @@
         <v>175</v>
       </c>
       <c r="AV32" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW32" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY32" s="32" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AZ32" s="21" t="s">
         <v>533</v>
@@ -10226,10 +10060,10 @@
         <v>69</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA33" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB33" s="21">
         <v>2</v>
@@ -10253,13 +10087,13 @@
         <v>145</v>
       </c>
       <c r="AM33" s="21" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="AN33" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP33" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR33" s="21" t="s">
         <v>164</v>
@@ -10268,13 +10102,13 @@
         <v>170</v>
       </c>
       <c r="AV33" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW33" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY33" s="31" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AZ33" s="21" t="s">
         <v>533</v>
@@ -10354,10 +10188,10 @@
         <v>69</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA34" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB34" s="21">
         <v>2</v>
@@ -10381,13 +10215,13 @@
         <v>145</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR34" s="21" t="s">
         <v>164</v>
@@ -10399,13 +10233,13 @@
         <v>176</v>
       </c>
       <c r="AV34" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW34" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY34" s="32" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="AZ34" s="21" t="s">
         <v>533</v>
@@ -10485,10 +10319,10 @@
         <v>69</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA35" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB35" s="21">
         <v>2</v>
@@ -10512,13 +10346,13 @@
         <v>145</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR35" s="21" t="s">
         <v>164</v>
@@ -10530,13 +10364,13 @@
         <v>175</v>
       </c>
       <c r="AV35" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW35" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY35" s="32" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="AZ35" s="21" t="s">
         <v>533</v>
@@ -10616,10 +10450,10 @@
         <v>69</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB36" s="21">
         <v>2</v>
@@ -10643,13 +10477,13 @@
         <v>145</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR36" s="21" t="s">
         <v>164</v>
@@ -10658,13 +10492,13 @@
         <v>170</v>
       </c>
       <c r="AV36" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW36" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY36" s="31" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="AZ36" s="21" t="s">
         <v>533</v>
@@ -10744,10 +10578,10 @@
         <v>69</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB37" s="21">
         <v>2</v>
@@ -10771,13 +10605,13 @@
         <v>145</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR37" s="21" t="s">
         <v>164</v>
@@ -10789,13 +10623,13 @@
         <v>175</v>
       </c>
       <c r="AV37" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW37" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY37" s="32" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AZ37" s="21" t="s">
         <v>533</v>
@@ -10875,10 +10709,10 @@
         <v>69</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB38" s="21">
         <v>2</v>
@@ -10902,13 +10736,13 @@
         <v>145</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR38" s="21" t="s">
         <v>164</v>
@@ -10917,13 +10751,13 @@
         <v>170</v>
       </c>
       <c r="AV38" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW38" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY38" s="31" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="AZ38" s="21" t="s">
         <v>533</v>
@@ -11003,10 +10837,10 @@
         <v>69</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB39" s="21">
         <v>2</v>
@@ -11030,13 +10864,13 @@
         <v>145</v>
       </c>
       <c r="AM39" s="21" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="AN39" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP39" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR39" s="21" t="s">
         <v>164</v>
@@ -11045,13 +10879,13 @@
         <v>170</v>
       </c>
       <c r="AV39" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW39" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY39" s="21" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AZ39" s="21" t="s">
         <v>533</v>
@@ -11131,10 +10965,10 @@
         <v>69</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="AB40" s="21">
         <v>2</v>
@@ -11158,13 +10992,13 @@
         <v>145</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="AN40" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AR40" s="21" t="s">
         <v>164</v>
@@ -11176,13 +11010,13 @@
         <v>175</v>
       </c>
       <c r="AV40" s="21" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AW40" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY40" s="21" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AZ40" s="21" t="s">
         <v>533</v>
@@ -11262,7 +11096,7 @@
         <v>216</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AB41" s="21">
         <v>2</v>
@@ -11286,7 +11120,7 @@
         <v>132</v>
       </c>
       <c r="AM41" s="21" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="AN41" s="21" t="s">
         <v>232</v>
@@ -11295,7 +11129,7 @@
         <v>162</v>
       </c>
       <c r="AP41" s="21" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AR41" s="21" t="s">
         <v>164</v>
@@ -11307,16 +11141,16 @@
         <v>175</v>
       </c>
       <c r="AU41" s="21" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AV41" s="21" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="AW41" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY41" s="33" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AZ41" s="21" t="s">
         <v>533</v>
@@ -11380,23 +11214,8 @@
       <c r="S42" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T42" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="W42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y42" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA42" s="21" t="s">
-        <v>603</v>
-      </c>
       <c r="AF42" s="21" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="AG42" s="22" t="s">
         <v>263</v>
@@ -11479,7 +11298,7 @@
         <v>216</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="AB43" s="21">
         <v>2</v>
@@ -11503,16 +11322,16 @@
         <v>130</v>
       </c>
       <c r="AM43" s="21" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="AN43" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP43" s="21" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="AR43" s="21" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AS43" s="21" t="s">
         <v>239</v>
@@ -11521,10 +11340,10 @@
         <v>175</v>
       </c>
       <c r="AU43" s="21" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="AV43" s="21" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="AW43" s="21" t="s">
         <v>237</v>
@@ -11533,7 +11352,7 @@
         <v>208</v>
       </c>
       <c r="AY43" s="34" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AZ43" s="21" t="s">
         <v>533</v>
@@ -11607,10 +11426,10 @@
         <v>69</v>
       </c>
       <c r="Z44" s="35" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="AA44" s="21" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AB44" s="21">
         <v>2</v>
@@ -11634,13 +11453,13 @@
         <v>150</v>
       </c>
       <c r="AM44" s="21" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="AN44" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP44" s="21" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AR44" s="21" t="s">
         <v>164</v>
@@ -11652,7 +11471,7 @@
         <v>181</v>
       </c>
       <c r="AV44" s="21" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AW44" s="21" t="s">
         <v>113</v>
@@ -11661,7 +11480,7 @@
         <v>210</v>
       </c>
       <c r="AY44" s="35" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="AZ44" s="21" t="s">
         <v>533</v>
@@ -11741,7 +11560,7 @@
         <v>216</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AB45" s="21">
         <v>2</v>
@@ -11765,22 +11584,22 @@
         <v>130</v>
       </c>
       <c r="AM45" s="36" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="AN45" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP45" s="21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AR45" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AU45" s="37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AV45" s="21" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="AW45" s="21" t="s">
         <v>203</v>
@@ -11789,7 +11608,7 @@
         <v>208</v>
       </c>
       <c r="AY45" s="35" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="AZ45" s="21" t="s">
         <v>533</v>
@@ -11869,7 +11688,7 @@
         <v>72</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AB46" s="21">
         <v>2</v>
@@ -11893,7 +11712,7 @@
         <v>133</v>
       </c>
       <c r="AM46" s="36" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AN46" s="21" t="s">
         <v>232</v>
@@ -11902,7 +11721,7 @@
         <v>160</v>
       </c>
       <c r="AP46" s="21" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="AR46" s="21" t="s">
         <v>165</v>
@@ -11911,16 +11730,16 @@
         <v>113</v>
       </c>
       <c r="AU46" s="21" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="AV46" s="21" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AW46" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY46" s="38" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="AZ46" s="21" t="s">
         <v>533</v>
@@ -11984,12 +11803,6 @@
       <c r="S47" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z47" s="21" t="s">
-        <v>627</v>
-      </c>
       <c r="AG47" s="22" t="s">
         <v>332</v>
       </c>
@@ -12071,10 +11884,10 @@
         <v>72</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="AA48" s="35" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AB48" s="21">
         <v>2</v>
@@ -12095,19 +11908,19 @@
         <v>117</v>
       </c>
       <c r="AM48" s="36" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AN48" s="21" t="s">
         <v>232</v>
       </c>
       <c r="AP48" s="21" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="AR48" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AV48" s="21" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="AW48" s="21" t="s">
         <v>199</v>
@@ -12116,7 +11929,7 @@
         <v>207</v>
       </c>
       <c r="AY48" s="21" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="AZ48" s="21" t="s">
         <v>533</v>
@@ -12196,10 +12009,10 @@
         <v>216</v>
       </c>
       <c r="Z49" s="38" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="AA49" s="21" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="AB49" s="21">
         <v>2</v>
@@ -12223,13 +12036,13 @@
         <v>136</v>
       </c>
       <c r="AM49" s="36" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="AN49" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP49" s="21" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="AR49" s="21" t="s">
         <v>164</v>
@@ -12238,10 +12051,10 @@
         <v>239</v>
       </c>
       <c r="AU49" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV49" s="21" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="AW49" s="21" t="s">
         <v>199</v>
@@ -12250,7 +12063,7 @@
         <v>208</v>
       </c>
       <c r="AY49" s="38" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="AZ49" s="21" t="s">
         <v>533</v>
@@ -12330,10 +12143,10 @@
         <v>216</v>
       </c>
       <c r="Z50" s="38" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="AA50" s="21" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="AB50" s="21">
         <v>2</v>
@@ -12357,13 +12170,13 @@
         <v>136</v>
       </c>
       <c r="AM50" s="36" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="AN50" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP50" s="21" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="AR50" s="21" t="s">
         <v>164</v>
@@ -12372,10 +12185,10 @@
         <v>239</v>
       </c>
       <c r="AU50" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV50" s="21" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="AW50" s="21" t="s">
         <v>205</v>
@@ -12384,7 +12197,7 @@
         <v>208</v>
       </c>
       <c r="AY50" s="38" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="AZ50" s="21" t="s">
         <v>533</v>
@@ -12464,10 +12277,10 @@
         <v>216</v>
       </c>
       <c r="Z51" s="38" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="AB51" s="21">
         <v>2</v>
@@ -12491,13 +12304,13 @@
         <v>140</v>
       </c>
       <c r="AM51" s="36" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="AN51" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP51" s="21" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="AR51" s="21" t="s">
         <v>164</v>
@@ -12506,10 +12319,10 @@
         <v>239</v>
       </c>
       <c r="AU51" s="21" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AV51" s="21" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="AW51" s="21" t="s">
         <v>205</v>
@@ -12518,7 +12331,7 @@
         <v>210</v>
       </c>
       <c r="AY51" s="38" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AZ51" s="21" t="s">
         <v>533</v>
@@ -12598,10 +12411,10 @@
         <v>69</v>
       </c>
       <c r="Z52" s="21" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="AA52" s="21" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AB52" s="21">
         <v>2</v>
@@ -12625,13 +12438,13 @@
         <v>133</v>
       </c>
       <c r="AM52" s="36" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="AN52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP52" s="21" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="AR52" s="21" t="s">
         <v>165</v>
@@ -12640,10 +12453,10 @@
         <v>113</v>
       </c>
       <c r="AU52" s="21" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="AV52" s="21" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="AW52" s="21" t="s">
         <v>199</v>
@@ -12652,7 +12465,7 @@
         <v>208</v>
       </c>
       <c r="AY52" s="38" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="AZ52" s="21" t="s">
         <v>533</v>
@@ -12732,10 +12545,10 @@
         <v>69</v>
       </c>
       <c r="Z53" s="21" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="AA53" s="21" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AB53" s="21">
         <v>2</v>
@@ -12759,13 +12572,13 @@
         <v>133</v>
       </c>
       <c r="AM53" s="36" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="AN53" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP53" s="21" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="AR53" s="21" t="s">
         <v>165</v>
@@ -12774,10 +12587,10 @@
         <v>113</v>
       </c>
       <c r="AU53" s="21" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="AV53" s="21" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="AW53" s="21" t="s">
         <v>237</v>
@@ -12786,7 +12599,7 @@
         <v>208</v>
       </c>
       <c r="AY53" s="39" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="AZ53" s="21" t="s">
         <v>533</v>
@@ -12850,17 +12663,8 @@
       <c r="S54" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="T54" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA54" s="21" t="s">
-        <v>647</v>
-      </c>
       <c r="AG54" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="AQ54" s="21" t="s">
-        <v>648</v>
       </c>
       <c r="AZ54" s="21" t="s">
         <v>533</v>
@@ -12924,24 +12728,10 @@
       <c r="S55" t="s">
         <v>84</v>
       </c>
-      <c r="T55" t="s">
-        <v>24</v>
-      </c>
-      <c r="V55" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>215</v>
-      </c>
       <c r="AG55" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="AI55" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY55" s="15" t="s">
-        <v>649</v>
-      </c>
+      <c r="AY55" s="15"/>
       <c r="AZ55" t="s">
         <v>533</v>
       </c>
@@ -13004,20 +12794,8 @@
       <c r="S56" t="s">
         <v>84</v>
       </c>
-      <c r="T56" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>80</v>
-      </c>
       <c r="AG56" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>111</v>
-      </c>
-      <c r="AY56" t="s">
-        <v>650</v>
       </c>
       <c r="AZ56" t="s">
         <v>533</v>
@@ -13097,10 +12875,10 @@
         <v>80</v>
       </c>
       <c r="Z57" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="AA57" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="AB57">
         <v>2</v>
@@ -13121,7 +12899,7 @@
         <v>117</v>
       </c>
       <c r="AM57" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="AN57" t="s">
         <v>232</v>
@@ -13130,7 +12908,7 @@
         <v>160</v>
       </c>
       <c r="AP57" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="AR57" t="s">
         <v>164</v>
@@ -13139,13 +12917,13 @@
         <v>239</v>
       </c>
       <c r="AV57" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="AW57" t="s">
         <v>200</v>
       </c>
       <c r="AY57" s="16" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="AZ57" t="s">
         <v>533</v>
@@ -13222,10 +13000,10 @@
         <v>216</v>
       </c>
       <c r="Z58" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="AA58" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="AB58">
         <v>2</v>
@@ -13255,13 +13033,13 @@
         <v>148</v>
       </c>
       <c r="AM58" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="AN58" t="s">
         <v>233</v>
       </c>
       <c r="AP58" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
@@ -13270,10 +13048,10 @@
         <v>168</v>
       </c>
       <c r="AU58" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AV58" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="AW58" t="s">
         <v>199</v>
@@ -13282,7 +13060,7 @@
         <v>207</v>
       </c>
       <c r="AY58" s="18" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="AZ58" t="s">
         <v>533</v>
@@ -13362,10 +13140,10 @@
         <v>216</v>
       </c>
       <c r="Z59" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="AA59" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="AB59">
         <v>2</v>
@@ -13395,13 +13173,13 @@
         <v>148</v>
       </c>
       <c r="AM59" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="AN59" t="s">
         <v>233</v>
       </c>
       <c r="AP59" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR59" t="s">
         <v>164</v>
@@ -13410,10 +13188,10 @@
         <v>168</v>
       </c>
       <c r="AU59" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AV59" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="AW59" t="s">
         <v>205</v>
@@ -13422,7 +13200,7 @@
         <v>210</v>
       </c>
       <c r="AY59" s="17" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="AZ59" t="s">
         <v>533</v>
@@ -13502,10 +13280,10 @@
         <v>216</v>
       </c>
       <c r="Z60" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="AA60" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="AB60">
         <v>2</v>
@@ -13535,13 +13313,13 @@
         <v>148</v>
       </c>
       <c r="AM60" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="AN60" t="s">
         <v>233</v>
       </c>
       <c r="AP60" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR60" t="s">
         <v>164</v>
@@ -13550,10 +13328,10 @@
         <v>168</v>
       </c>
       <c r="AU60" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="AV60" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW60" t="s">
         <v>206</v>
@@ -13562,7 +13340,7 @@
         <v>210</v>
       </c>
       <c r="AY60" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="AZ60" t="s">
         <v>533</v>
@@ -13642,10 +13420,10 @@
         <v>113</v>
       </c>
       <c r="Z61" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="AA61" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -13672,7 +13450,7 @@
         <v>233</v>
       </c>
       <c r="AP61" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR61" t="s">
         <v>164</v>
@@ -13681,10 +13459,10 @@
         <v>239</v>
       </c>
       <c r="AU61" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AV61" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW61" t="s">
         <v>206</v>
@@ -13693,7 +13471,7 @@
         <v>209</v>
       </c>
       <c r="AY61" s="19" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="AZ61" t="s">
         <v>533</v>
@@ -13773,10 +13551,10 @@
         <v>113</v>
       </c>
       <c r="Z62" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="AA62" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AB62">
         <v>2</v>
@@ -13803,13 +13581,13 @@
         <v>141</v>
       </c>
       <c r="AM62" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="AN62" t="s">
         <v>233</v>
       </c>
       <c r="AP62" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR62" t="s">
         <v>164</v>
@@ -13818,10 +13596,10 @@
         <v>239</v>
       </c>
       <c r="AU62" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AV62" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW62" t="s">
         <v>206</v>
@@ -13830,7 +13608,7 @@
         <v>208</v>
       </c>
       <c r="AY62" s="19" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="AZ62" t="s">
         <v>533</v>
@@ -13910,10 +13688,10 @@
         <v>113</v>
       </c>
       <c r="Z63" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="AA63" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AB63">
         <v>2</v>
@@ -13940,13 +13718,13 @@
         <v>141</v>
       </c>
       <c r="AM63" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="AN63" t="s">
         <v>233</v>
       </c>
       <c r="AP63" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR63" t="s">
         <v>164</v>
@@ -13955,10 +13733,10 @@
         <v>239</v>
       </c>
       <c r="AU63" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AV63" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW63" t="s">
         <v>206</v>
@@ -13967,7 +13745,7 @@
         <v>208</v>
       </c>
       <c r="AY63" s="19" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="AZ63" t="s">
         <v>533</v>
@@ -14047,10 +13825,10 @@
         <v>113</v>
       </c>
       <c r="Z64" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="AA64" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AB64">
         <v>2</v>
@@ -14080,7 +13858,7 @@
         <v>233</v>
       </c>
       <c r="AP64" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR64" t="s">
         <v>164</v>
@@ -14089,10 +13867,10 @@
         <v>239</v>
       </c>
       <c r="AU64" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AV64" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW64" t="s">
         <v>206</v>
@@ -14101,7 +13879,7 @@
         <v>210</v>
       </c>
       <c r="AY64" s="19" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="AZ64" t="s">
         <v>533</v>
@@ -14181,10 +13959,10 @@
         <v>113</v>
       </c>
       <c r="Z65" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="AA65" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="AB65">
         <v>2</v>
@@ -14214,7 +13992,7 @@
         <v>233</v>
       </c>
       <c r="AP65" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="AR65" t="s">
         <v>164</v>
@@ -14223,10 +14001,10 @@
         <v>239</v>
       </c>
       <c r="AU65" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="AV65" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="AW65" t="s">
         <v>206</v>
@@ -14235,7 +14013,7 @@
         <v>210</v>
       </c>
       <c r="AY65" s="19" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="AZ65" t="s">
         <v>533</v>
@@ -14312,13 +14090,13 @@
         <v>58</v>
       </c>
       <c r="Y66" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="Z66" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="AA66" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="AB66">
         <v>2</v>
@@ -14342,13 +14120,13 @@
         <v>134</v>
       </c>
       <c r="AM66" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="AN66" t="s">
         <v>233</v>
       </c>
       <c r="AP66" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="AR66" t="s">
         <v>164</v>
@@ -14357,19 +14135,19 @@
         <v>239</v>
       </c>
       <c r="AU66" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="AV66" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="AW66" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="AX66" t="s">
         <v>208</v>
       </c>
       <c r="AY66" s="20" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="AZ66" t="s">
         <v>533</v>
@@ -14449,10 +14227,10 @@
         <v>113</v>
       </c>
       <c r="Z67" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="AA67" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -14476,7 +14254,7 @@
         <v>132</v>
       </c>
       <c r="AM67" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="AN67" t="s">
         <v>232</v>
@@ -14485,7 +14263,7 @@
         <v>162</v>
       </c>
       <c r="AP67" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="AR67" t="s">
         <v>164</v>
@@ -14494,7 +14272,7 @@
         <v>239</v>
       </c>
       <c r="AV67" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="AW67" t="s">
         <v>199</v>
@@ -14503,7 +14281,7 @@
         <v>208</v>
       </c>
       <c r="AY67" s="14" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="AZ67" t="s">
         <v>533</v>
@@ -14583,10 +14361,10 @@
         <v>70</v>
       </c>
       <c r="Z68" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="AA68" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="AB68">
         <v>2</v>
@@ -14610,7 +14388,7 @@
         <v>138</v>
       </c>
       <c r="AM68" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="AN68" t="s">
         <v>232</v>
@@ -14619,7 +14397,7 @@
         <v>160</v>
       </c>
       <c r="AP68" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="AR68" t="s">
         <v>164</v>
@@ -14628,7 +14406,7 @@
         <v>170</v>
       </c>
       <c r="AV68" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="AW68" t="s">
         <v>237</v>
@@ -14637,7 +14415,7 @@
         <v>207</v>
       </c>
       <c r="AY68" s="13" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="AZ68" t="s">
         <v>533</v>
@@ -14701,68 +14479,8 @@
       <c r="S69" t="s">
         <v>84</v>
       </c>
-      <c r="T69" t="s">
-        <v>31</v>
-      </c>
-      <c r="U69" t="s">
-        <v>46</v>
-      </c>
-      <c r="V69" t="s">
-        <v>55</v>
-      </c>
-      <c r="W69" t="s">
-        <v>46</v>
-      </c>
-      <c r="X69" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB69">
-        <v>2</v>
-      </c>
-      <c r="AC69">
-        <v>2</v>
-      </c>
-      <c r="AD69">
-        <v>3</v>
-      </c>
       <c r="AG69" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>696</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>694</v>
-      </c>
-      <c r="AV69" t="s">
-        <v>695</v>
-      </c>
-      <c r="AW69" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX69" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY69" t="s">
-        <v>693</v>
       </c>
       <c r="AZ69" t="s">
         <v>533</v>
@@ -14842,10 +14560,10 @@
         <v>113</v>
       </c>
       <c r="Z70" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="AA70" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="AB70">
         <v>2</v>
@@ -14869,7 +14587,7 @@
         <v>137</v>
       </c>
       <c r="AM70" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="AN70" t="s">
         <v>232</v>
@@ -14878,7 +14596,7 @@
         <v>162</v>
       </c>
       <c r="AP70" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="AR70" t="s">
         <v>164</v>
@@ -14887,10 +14605,10 @@
         <v>171</v>
       </c>
       <c r="AU70" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="AV70" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="AW70" t="s">
         <v>199</v>
@@ -14899,7 +14617,7 @@
         <v>207</v>
       </c>
       <c r="AY70" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="AZ70" t="s">
         <v>533</v>
@@ -14979,10 +14697,10 @@
         <v>113</v>
       </c>
       <c r="Z71" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="AA71" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="AB71">
         <v>2</v>
@@ -15006,7 +14724,7 @@
         <v>137</v>
       </c>
       <c r="AM71" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="AN71" t="s">
         <v>232</v>
@@ -15015,7 +14733,7 @@
         <v>162</v>
       </c>
       <c r="AP71" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="AR71" t="s">
         <v>164</v>
@@ -15024,10 +14742,10 @@
         <v>171</v>
       </c>
       <c r="AU71" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="AV71" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="AW71" t="s">
         <v>199</v>
@@ -15036,7 +14754,7 @@
         <v>208</v>
       </c>
       <c r="AY71" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="AZ71" t="s">
         <v>533</v>
@@ -18020,7 +17738,7 @@
         <v>134</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AB23" t="s">
         <v>193</v>
@@ -18138,15 +17856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -18260,6 +17969,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -18267,14 +17985,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18290,16 +18000,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\WMR\Projects\SEAwise\SEAwise GitHub\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39FE5EF-E375-48E9-99ED-FC91F32FF686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D4ADA-AD66-4F30-8153-D9FAC64BB09C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="711">
   <si>
     <t>SearchID</t>
   </si>
@@ -4546,24 +4546,6 @@
   </si>
   <si>
     <t>No real impact of fishery, only determination of linkage between fishery activity, primary prodution and fish production (based on catches)</t>
-  </si>
-  <si>
-    <t>From the present study we conclude that survival rates of discarded flatfish in the trawl fishery in the Western Baltic may vary between 0% and 100% and that this variation seems to follow a seasonal pattern.</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>delayed mortality</t>
-  </si>
-  <si>
-    <t>Cage experiments and RAMP test on fish species</t>
-  </si>
-  <si>
-    <t>otter trawl with a 120mm BACOMA codend</t>
-  </si>
-  <si>
-    <t>Delayed mortality</t>
   </si>
   <si>
     <t>Sea-bottom contact in general</t>
@@ -5186,9 +5168,6 @@
   </si>
   <si>
     <t>Lamna nasus</t>
-  </si>
-  <si>
-    <t>Pleuronectes platessa _ Platichthys flesus _ Limanda limanda</t>
   </si>
   <si>
     <t>Pleuronectes platessa</t>
@@ -5919,7 +5898,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5:AY69"/>
+      <selection pane="bottomRight" activeCell="AY75" sqref="AY75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4"/>
@@ -6239,7 +6218,7 @@
         <v>526</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AB3" s="21">
         <v>2</v>
@@ -6290,7 +6269,7 @@
         <v>547</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>199</v>
@@ -6376,7 +6355,7 @@
         <v>526</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AB4" s="21">
         <v>2</v>
@@ -6427,7 +6406,7 @@
         <v>547</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AW4" s="21" t="s">
         <v>199</v>
@@ -6614,7 +6593,7 @@
         <v>150</v>
       </c>
       <c r="AM6" s="21" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AN6" s="21" t="s">
         <v>233</v>
@@ -7043,7 +7022,7 @@
         <v>150</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="AN9" s="21" t="s">
         <v>233</v>
@@ -7633,7 +7612,7 @@
         <v>551</v>
       </c>
       <c r="AV13" s="21" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="AW13" s="21" t="s">
         <v>199</v>
@@ -7830,7 +7809,7 @@
         <v>551</v>
       </c>
       <c r="AV15" s="21" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AW15" s="21" t="s">
         <v>205</v>
@@ -7961,7 +7940,7 @@
         <v>551</v>
       </c>
       <c r="AV16" s="21" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="AW16" s="21" t="s">
         <v>205</v>
@@ -8628,10 +8607,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AB22" s="21">
         <v>2</v>
@@ -8676,7 +8655,7 @@
         <v>567</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -8786,19 +8765,19 @@
         <v>116</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AW23" s="21" t="s">
         <v>213</v>
@@ -8914,7 +8893,7 @@
         <v>145</v>
       </c>
       <c r="AM24" s="21" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>159</v>
@@ -9045,7 +9024,7 @@
         <v>145</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>159</v>
@@ -9176,7 +9155,7 @@
         <v>145</v>
       </c>
       <c r="AM26" s="21" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>159</v>
@@ -9307,7 +9286,7 @@
         <v>145</v>
       </c>
       <c r="AM27" s="21" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AN27" s="21" t="s">
         <v>159</v>
@@ -9825,7 +9804,7 @@
         <v>145</v>
       </c>
       <c r="AM31" s="21" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="AN31" s="21" t="s">
         <v>159</v>
@@ -9956,7 +9935,7 @@
         <v>145</v>
       </c>
       <c r="AM32" s="21" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="AN32" s="21" t="s">
         <v>159</v>
@@ -10087,7 +10066,7 @@
         <v>145</v>
       </c>
       <c r="AM33" s="21" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="AN33" s="21" t="s">
         <v>159</v>
@@ -10215,7 +10194,7 @@
         <v>145</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>159</v>
@@ -10346,7 +10325,7 @@
         <v>145</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>159</v>
@@ -10477,7 +10456,7 @@
         <v>145</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>159</v>
@@ -10605,7 +10584,7 @@
         <v>145</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>159</v>
@@ -10736,7 +10715,7 @@
         <v>145</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>159</v>
@@ -10864,7 +10843,7 @@
         <v>145</v>
       </c>
       <c r="AM39" s="21" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AN39" s="21" t="s">
         <v>159</v>
@@ -10992,7 +10971,7 @@
         <v>145</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AN40" s="21" t="s">
         <v>159</v>
@@ -11120,7 +11099,7 @@
         <v>132</v>
       </c>
       <c r="AM41" s="21" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AN41" s="21" t="s">
         <v>232</v>
@@ -11279,81 +11258,13 @@
       <c r="R43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V43" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W43" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X43" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y43" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z43" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="AB43" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="21">
-        <v>3</v>
+      <c r="S43" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="AG43" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="AH43" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI43" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ43" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM43" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="AN43" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP43" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="AR43" s="21" t="s">
-        <v>598</v>
-      </c>
-      <c r="AS43" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT43" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU43" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="AV43" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="AW43" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX43" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY43" s="34" t="s">
-        <v>597</v>
-      </c>
+      <c r="AY43" s="34"/>
       <c r="AZ43" s="21" t="s">
         <v>533</v>
       </c>
@@ -11426,10 +11337,10 @@
         <v>69</v>
       </c>
       <c r="Z44" s="35" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AA44" s="21" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="AB44" s="21">
         <v>2</v>
@@ -11453,13 +11364,13 @@
         <v>150</v>
       </c>
       <c r="AM44" s="21" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AN44" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP44" s="21" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AR44" s="21" t="s">
         <v>164</v>
@@ -11471,7 +11382,7 @@
         <v>181</v>
       </c>
       <c r="AV44" s="21" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AW44" s="21" t="s">
         <v>113</v>
@@ -11480,7 +11391,7 @@
         <v>210</v>
       </c>
       <c r="AY44" s="35" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="AZ44" s="21" t="s">
         <v>533</v>
@@ -11560,7 +11471,7 @@
         <v>216</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AB45" s="21">
         <v>2</v>
@@ -11584,7 +11495,7 @@
         <v>130</v>
       </c>
       <c r="AM45" s="36" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="AN45" s="21" t="s">
         <v>233</v>
@@ -11596,10 +11507,10 @@
         <v>164</v>
       </c>
       <c r="AU45" s="37" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AV45" s="21" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AW45" s="21" t="s">
         <v>203</v>
@@ -11608,7 +11519,7 @@
         <v>208</v>
       </c>
       <c r="AY45" s="35" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="AZ45" s="21" t="s">
         <v>533</v>
@@ -11688,7 +11599,7 @@
         <v>72</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="AB46" s="21">
         <v>2</v>
@@ -11712,7 +11623,7 @@
         <v>133</v>
       </c>
       <c r="AM46" s="36" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AN46" s="21" t="s">
         <v>232</v>
@@ -11721,7 +11632,7 @@
         <v>160</v>
       </c>
       <c r="AP46" s="21" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AR46" s="21" t="s">
         <v>165</v>
@@ -11730,16 +11641,16 @@
         <v>113</v>
       </c>
       <c r="AU46" s="21" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AV46" s="21" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AW46" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY46" s="38" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AZ46" s="21" t="s">
         <v>533</v>
@@ -11884,10 +11795,10 @@
         <v>72</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AA48" s="35" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AB48" s="21">
         <v>2</v>
@@ -11908,19 +11819,19 @@
         <v>117</v>
       </c>
       <c r="AM48" s="36" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AN48" s="21" t="s">
         <v>232</v>
       </c>
       <c r="AP48" s="21" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AR48" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AV48" s="21" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="AW48" s="21" t="s">
         <v>199</v>
@@ -11929,7 +11840,7 @@
         <v>207</v>
       </c>
       <c r="AY48" s="21" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AZ48" s="21" t="s">
         <v>533</v>
@@ -12009,10 +11920,10 @@
         <v>216</v>
       </c>
       <c r="Z49" s="38" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AA49" s="21" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AB49" s="21">
         <v>2</v>
@@ -12036,13 +11947,13 @@
         <v>136</v>
       </c>
       <c r="AM49" s="36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AN49" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP49" s="21" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AR49" s="21" t="s">
         <v>164</v>
@@ -12054,7 +11965,7 @@
         <v>551</v>
       </c>
       <c r="AV49" s="21" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AW49" s="21" t="s">
         <v>199</v>
@@ -12063,7 +11974,7 @@
         <v>208</v>
       </c>
       <c r="AY49" s="38" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="AZ49" s="21" t="s">
         <v>533</v>
@@ -12143,10 +12054,10 @@
         <v>216</v>
       </c>
       <c r="Z50" s="38" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AA50" s="21" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AB50" s="21">
         <v>2</v>
@@ -12170,13 +12081,13 @@
         <v>136</v>
       </c>
       <c r="AM50" s="36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AN50" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP50" s="21" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AR50" s="21" t="s">
         <v>164</v>
@@ -12188,7 +12099,7 @@
         <v>551</v>
       </c>
       <c r="AV50" s="21" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AW50" s="21" t="s">
         <v>205</v>
@@ -12197,7 +12108,7 @@
         <v>208</v>
       </c>
       <c r="AY50" s="38" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AZ50" s="21" t="s">
         <v>533</v>
@@ -12277,10 +12188,10 @@
         <v>216</v>
       </c>
       <c r="Z51" s="38" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AB51" s="21">
         <v>2</v>
@@ -12304,13 +12215,13 @@
         <v>140</v>
       </c>
       <c r="AM51" s="36" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="AN51" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP51" s="21" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AR51" s="21" t="s">
         <v>164</v>
@@ -12322,7 +12233,7 @@
         <v>551</v>
       </c>
       <c r="AV51" s="21" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AW51" s="21" t="s">
         <v>205</v>
@@ -12331,7 +12242,7 @@
         <v>210</v>
       </c>
       <c r="AY51" s="38" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AZ51" s="21" t="s">
         <v>533</v>
@@ -12411,10 +12322,10 @@
         <v>69</v>
       </c>
       <c r="Z52" s="21" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AA52" s="21" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AB52" s="21">
         <v>2</v>
@@ -12438,13 +12349,13 @@
         <v>133</v>
       </c>
       <c r="AM52" s="36" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AN52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP52" s="21" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AR52" s="21" t="s">
         <v>165</v>
@@ -12453,10 +12364,10 @@
         <v>113</v>
       </c>
       <c r="AU52" s="21" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AV52" s="21" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AW52" s="21" t="s">
         <v>199</v>
@@ -12465,7 +12376,7 @@
         <v>208</v>
       </c>
       <c r="AY52" s="38" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AZ52" s="21" t="s">
         <v>533</v>
@@ -12545,10 +12456,10 @@
         <v>69</v>
       </c>
       <c r="Z53" s="21" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AA53" s="21" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AB53" s="21">
         <v>2</v>
@@ -12572,13 +12483,13 @@
         <v>133</v>
       </c>
       <c r="AM53" s="36" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AN53" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP53" s="21" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AR53" s="21" t="s">
         <v>165</v>
@@ -12587,10 +12498,10 @@
         <v>113</v>
       </c>
       <c r="AU53" s="21" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AV53" s="21" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AW53" s="21" t="s">
         <v>237</v>
@@ -12599,7 +12510,7 @@
         <v>208</v>
       </c>
       <c r="AY53" s="39" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AZ53" s="21" t="s">
         <v>533</v>
@@ -12875,10 +12786,10 @@
         <v>80</v>
       </c>
       <c r="Z57" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AA57" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AB57">
         <v>2</v>
@@ -12899,7 +12810,7 @@
         <v>117</v>
       </c>
       <c r="AM57" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="AN57" t="s">
         <v>232</v>
@@ -12908,7 +12819,7 @@
         <v>160</v>
       </c>
       <c r="AP57" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AR57" t="s">
         <v>164</v>
@@ -12917,13 +12828,13 @@
         <v>239</v>
       </c>
       <c r="AV57" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AW57" t="s">
         <v>200</v>
       </c>
       <c r="AY57" s="16" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AZ57" t="s">
         <v>533</v>
@@ -13000,10 +12911,10 @@
         <v>216</v>
       </c>
       <c r="Z58" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AA58" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AB58">
         <v>2</v>
@@ -13033,13 +12944,13 @@
         <v>148</v>
       </c>
       <c r="AM58" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="AN58" t="s">
         <v>233</v>
       </c>
       <c r="AP58" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
@@ -13048,10 +12959,10 @@
         <v>168</v>
       </c>
       <c r="AU58" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AV58" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AW58" t="s">
         <v>199</v>
@@ -13060,7 +12971,7 @@
         <v>207</v>
       </c>
       <c r="AY58" s="18" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AZ58" t="s">
         <v>533</v>
@@ -13140,10 +13051,10 @@
         <v>216</v>
       </c>
       <c r="Z59" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AA59" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AB59">
         <v>2</v>
@@ -13173,13 +13084,13 @@
         <v>148</v>
       </c>
       <c r="AM59" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AN59" t="s">
         <v>233</v>
       </c>
       <c r="AP59" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR59" t="s">
         <v>164</v>
@@ -13188,10 +13099,10 @@
         <v>168</v>
       </c>
       <c r="AU59" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AV59" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AW59" t="s">
         <v>205</v>
@@ -13200,7 +13111,7 @@
         <v>210</v>
       </c>
       <c r="AY59" s="17" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="AZ59" t="s">
         <v>533</v>
@@ -13280,10 +13191,10 @@
         <v>216</v>
       </c>
       <c r="Z60" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AA60" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AB60">
         <v>2</v>
@@ -13313,13 +13224,13 @@
         <v>148</v>
       </c>
       <c r="AM60" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AN60" t="s">
         <v>233</v>
       </c>
       <c r="AP60" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR60" t="s">
         <v>164</v>
@@ -13328,10 +13239,10 @@
         <v>168</v>
       </c>
       <c r="AU60" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AV60" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW60" t="s">
         <v>206</v>
@@ -13340,7 +13251,7 @@
         <v>210</v>
       </c>
       <c r="AY60" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="AZ60" t="s">
         <v>533</v>
@@ -13420,10 +13331,10 @@
         <v>113</v>
       </c>
       <c r="Z61" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AA61" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -13450,7 +13361,7 @@
         <v>233</v>
       </c>
       <c r="AP61" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR61" t="s">
         <v>164</v>
@@ -13459,10 +13370,10 @@
         <v>239</v>
       </c>
       <c r="AU61" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AV61" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW61" t="s">
         <v>206</v>
@@ -13471,7 +13382,7 @@
         <v>209</v>
       </c>
       <c r="AY61" s="19" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AZ61" t="s">
         <v>533</v>
@@ -13551,10 +13462,10 @@
         <v>113</v>
       </c>
       <c r="Z62" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AA62" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AB62">
         <v>2</v>
@@ -13581,13 +13492,13 @@
         <v>141</v>
       </c>
       <c r="AM62" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AN62" t="s">
         <v>233</v>
       </c>
       <c r="AP62" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR62" t="s">
         <v>164</v>
@@ -13596,10 +13507,10 @@
         <v>239</v>
       </c>
       <c r="AU62" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AV62" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW62" t="s">
         <v>206</v>
@@ -13608,7 +13519,7 @@
         <v>208</v>
       </c>
       <c r="AY62" s="19" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AZ62" t="s">
         <v>533</v>
@@ -13688,10 +13599,10 @@
         <v>113</v>
       </c>
       <c r="Z63" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AA63" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AB63">
         <v>2</v>
@@ -13718,13 +13629,13 @@
         <v>141</v>
       </c>
       <c r="AM63" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AN63" t="s">
         <v>233</v>
       </c>
       <c r="AP63" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR63" t="s">
         <v>164</v>
@@ -13733,10 +13644,10 @@
         <v>239</v>
       </c>
       <c r="AU63" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AV63" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW63" t="s">
         <v>206</v>
@@ -13745,7 +13656,7 @@
         <v>208</v>
       </c>
       <c r="AY63" s="19" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AZ63" t="s">
         <v>533</v>
@@ -13825,10 +13736,10 @@
         <v>113</v>
       </c>
       <c r="Z64" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AA64" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AB64">
         <v>2</v>
@@ -13858,7 +13769,7 @@
         <v>233</v>
       </c>
       <c r="AP64" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR64" t="s">
         <v>164</v>
@@ -13867,10 +13778,10 @@
         <v>239</v>
       </c>
       <c r="AU64" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AV64" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW64" t="s">
         <v>206</v>
@@ -13879,7 +13790,7 @@
         <v>210</v>
       </c>
       <c r="AY64" s="19" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AZ64" t="s">
         <v>533</v>
@@ -13959,10 +13870,10 @@
         <v>113</v>
       </c>
       <c r="Z65" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AA65" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AB65">
         <v>2</v>
@@ -13992,7 +13903,7 @@
         <v>233</v>
       </c>
       <c r="AP65" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AR65" t="s">
         <v>164</v>
@@ -14001,10 +13912,10 @@
         <v>239</v>
       </c>
       <c r="AU65" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="AV65" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AW65" t="s">
         <v>206</v>
@@ -14013,7 +13924,7 @@
         <v>210</v>
       </c>
       <c r="AY65" s="19" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AZ65" t="s">
         <v>533</v>
@@ -14090,13 +14001,13 @@
         <v>58</v>
       </c>
       <c r="Y66" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Z66" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="AA66" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AB66">
         <v>2</v>
@@ -14120,13 +14031,13 @@
         <v>134</v>
       </c>
       <c r="AM66" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AN66" t="s">
         <v>233</v>
       </c>
       <c r="AP66" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AR66" t="s">
         <v>164</v>
@@ -14135,19 +14046,19 @@
         <v>239</v>
       </c>
       <c r="AU66" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AV66" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AW66" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AX66" t="s">
         <v>208</v>
       </c>
       <c r="AY66" s="20" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AZ66" t="s">
         <v>533</v>
@@ -14227,10 +14138,10 @@
         <v>113</v>
       </c>
       <c r="Z67" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AA67" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -14254,7 +14165,7 @@
         <v>132</v>
       </c>
       <c r="AM67" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AN67" t="s">
         <v>232</v>
@@ -14263,7 +14174,7 @@
         <v>162</v>
       </c>
       <c r="AP67" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AR67" t="s">
         <v>164</v>
@@ -14272,7 +14183,7 @@
         <v>239</v>
       </c>
       <c r="AV67" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AW67" t="s">
         <v>199</v>
@@ -14281,7 +14192,7 @@
         <v>208</v>
       </c>
       <c r="AY67" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AZ67" t="s">
         <v>533</v>
@@ -14361,10 +14272,10 @@
         <v>70</v>
       </c>
       <c r="Z68" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AA68" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AB68">
         <v>2</v>
@@ -14388,7 +14299,7 @@
         <v>138</v>
       </c>
       <c r="AM68" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AN68" t="s">
         <v>232</v>
@@ -14397,7 +14308,7 @@
         <v>160</v>
       </c>
       <c r="AP68" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AR68" t="s">
         <v>164</v>
@@ -14406,7 +14317,7 @@
         <v>170</v>
       </c>
       <c r="AV68" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AW68" t="s">
         <v>237</v>
@@ -14415,7 +14326,7 @@
         <v>207</v>
       </c>
       <c r="AY68" s="13" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AZ68" t="s">
         <v>533</v>
@@ -14560,10 +14471,10 @@
         <v>113</v>
       </c>
       <c r="Z70" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AA70" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AB70">
         <v>2</v>
@@ -14587,7 +14498,7 @@
         <v>137</v>
       </c>
       <c r="AM70" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AN70" t="s">
         <v>232</v>
@@ -14596,7 +14507,7 @@
         <v>162</v>
       </c>
       <c r="AP70" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AR70" t="s">
         <v>164</v>
@@ -14605,10 +14516,10 @@
         <v>171</v>
       </c>
       <c r="AU70" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AV70" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AW70" t="s">
         <v>199</v>
@@ -14617,7 +14528,7 @@
         <v>207</v>
       </c>
       <c r="AY70" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AZ70" t="s">
         <v>533</v>
@@ -14697,10 +14608,10 @@
         <v>113</v>
       </c>
       <c r="Z71" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AA71" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AB71">
         <v>2</v>
@@ -14724,7 +14635,7 @@
         <v>137</v>
       </c>
       <c r="AM71" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AN71" t="s">
         <v>232</v>
@@ -14733,7 +14644,7 @@
         <v>162</v>
       </c>
       <c r="AP71" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AR71" t="s">
         <v>164</v>
@@ -14742,10 +14653,10 @@
         <v>171</v>
       </c>
       <c r="AU71" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AV71" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AW71" t="s">
         <v>199</v>
@@ -14754,7 +14665,7 @@
         <v>208</v>
       </c>
       <c r="AY71" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AZ71" t="s">
         <v>533</v>
@@ -17856,6 +17767,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17969,22 +17895,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17998,27 +17932,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Werk\WMR\Projects\SEAwise\SEAwise GitHub\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06D4ADA-AD66-4F30-8153-D9FAC64BB09C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EDC4F-FF76-43DF-864D-CBECF31EC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -4148,12 +4148,6 @@
       </rPr>
       <t>), the increase in recruits in the FCA can be considered great news for the population dynamics of fisheries stock enhancement. From an ecological approach, the noticeable increase in many species was the key factor explaining the evolution of the structure and composition of the fish assemblage inside the FCA. Interestingly, the initial recovery of the community entailed a drastic disturbance, although the remaining indicators analyzed in the present study (i.e., species distribution, length–frequency and diversity metrics) showed a clear benefit on the fish assemblage from the cessation of fishing.</t>
     </r>
-  </si>
-  <si>
-    <t>W-statistic</t>
-  </si>
-  <si>
-    <t>nMDS</t>
   </si>
   <si>
     <t>The comparative analysis on the impacts of odontocetes species and fishery on the food web showed that those due to fishing exploitation are greater than those due to cetacean predation. Trawling was estimated to be the most negatively impacting fishing gear considering the mortality rates, consumption flows and negative mixed trophic impacts. On the other hand, the striped dolphin was the main impact on the food web due to its highest consumption flows.</t>
@@ -5222,6 +5216,12 @@
   </si>
   <si>
     <t>Bycatch of Seas</t>
+  </si>
+  <si>
+    <t>Community structure using nMDS</t>
+  </si>
+  <si>
+    <t>Dominance patterns using W-statistic</t>
   </si>
 </sst>
 </file>
@@ -5895,25 +5895,25 @@
   <dimension ref="A1:AZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AY75" sqref="AY75"/>
+      <selection pane="bottomRight" activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
   <cols>
-    <col min="20" max="20" width="18.33203125" customWidth="1"/>
-    <col min="25" max="26" width="32.6640625" customWidth="1"/>
-    <col min="35" max="36" width="17.6640625" customWidth="1"/>
-    <col min="37" max="37" width="18.6640625" customWidth="1"/>
-    <col min="38" max="38" width="19.33203125" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" customWidth="1"/>
-    <col min="40" max="40" width="14.33203125" customWidth="1"/>
-    <col min="41" max="42" width="15.6640625" customWidth="1"/>
-    <col min="43" max="43" width="15.44140625" customWidth="1"/>
-    <col min="47" max="47" width="15.33203125" customWidth="1"/>
-    <col min="48" max="48" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.36328125" customWidth="1"/>
+    <col min="25" max="26" width="32.6328125" customWidth="1"/>
+    <col min="35" max="36" width="17.6328125" customWidth="1"/>
+    <col min="37" max="37" width="18.6328125" customWidth="1"/>
+    <col min="38" max="38" width="19.36328125" customWidth="1"/>
+    <col min="39" max="39" width="17.6328125" customWidth="1"/>
+    <col min="40" max="40" width="14.36328125" customWidth="1"/>
+    <col min="41" max="42" width="15.6328125" customWidth="1"/>
+    <col min="43" max="43" width="15.453125" customWidth="1"/>
+    <col min="47" max="47" width="15.36328125" customWidth="1"/>
+    <col min="48" max="48" width="18.6328125" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5989,7 +5989,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" ht="57.6">
+    <row r="2" spans="1:52" s="2" customFormat="1" ht="58">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>526</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AB3" s="21">
         <v>2</v>
@@ -6269,7 +6269,7 @@
         <v>547</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>199</v>
@@ -6355,7 +6355,7 @@
         <v>526</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AB4" s="21">
         <v>2</v>
@@ -6406,7 +6406,7 @@
         <v>547</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AW4" s="21" t="s">
         <v>199</v>
@@ -6593,7 +6593,7 @@
         <v>150</v>
       </c>
       <c r="AM6" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AN6" s="21" t="s">
         <v>233</v>
@@ -7022,7 +7022,7 @@
         <v>150</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AN9" s="21" t="s">
         <v>233</v>
@@ -7612,7 +7612,7 @@
         <v>551</v>
       </c>
       <c r="AV13" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AW13" s="21" t="s">
         <v>199</v>
@@ -7809,7 +7809,7 @@
         <v>551</v>
       </c>
       <c r="AV15" s="21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AW15" s="21" t="s">
         <v>205</v>
@@ -7940,7 +7940,7 @@
         <v>551</v>
       </c>
       <c r="AV16" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AW16" s="21" t="s">
         <v>205</v>
@@ -8202,7 +8202,7 @@
         <v>551</v>
       </c>
       <c r="AV18" s="21" t="s">
-        <v>559</v>
+        <v>710</v>
       </c>
       <c r="AW18" s="21" t="s">
         <v>199</v>
@@ -8333,7 +8333,7 @@
         <v>551</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>560</v>
+        <v>709</v>
       </c>
       <c r="AW19" s="21" t="s">
         <v>206</v>
@@ -8416,7 +8416,7 @@
         <v>80</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AB20" s="21">
         <v>2</v>
@@ -8449,10 +8449,10 @@
         <v>164</v>
       </c>
       <c r="AU20" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV20" s="21" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AW20" s="21" t="s">
         <v>203</v>
@@ -8461,7 +8461,7 @@
         <v>208</v>
       </c>
       <c r="AY20" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AZ20" s="21" t="s">
         <v>533</v>
@@ -8526,7 +8526,7 @@
         <v>84</v>
       </c>
       <c r="AF21" s="26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG21" s="22" t="s">
         <v>271</v>
@@ -8607,10 +8607,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AB22" s="21">
         <v>2</v>
@@ -8634,7 +8634,7 @@
         <v>141</v>
       </c>
       <c r="AM22" s="21" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AN22" s="21" t="s">
         <v>233</v>
@@ -8652,10 +8652,10 @@
         <v>176</v>
       </c>
       <c r="AU22" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -8664,7 +8664,7 @@
         <v>208</v>
       </c>
       <c r="AY22" s="29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AZ22" s="21" t="s">
         <v>533</v>
@@ -8744,7 +8744,7 @@
         <v>218</v>
       </c>
       <c r="Z23" s="21" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AB23" s="21">
         <v>2</v>
@@ -8765,19 +8765,19 @@
         <v>116</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AW23" s="21" t="s">
         <v>213</v>
@@ -8786,7 +8786,7 @@
         <v>208</v>
       </c>
       <c r="AY23" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AZ23" s="21" t="s">
         <v>533</v>
@@ -8866,10 +8866,10 @@
         <v>69</v>
       </c>
       <c r="Z24" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB24" s="21">
         <v>2</v>
@@ -8893,13 +8893,13 @@
         <v>145</v>
       </c>
       <c r="AM24" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AN24" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP24" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR24" s="21" t="s">
         <v>164</v>
@@ -8911,13 +8911,13 @@
         <v>176</v>
       </c>
       <c r="AV24" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW24" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY24" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AZ24" s="21" t="s">
         <v>533</v>
@@ -8997,10 +8997,10 @@
         <v>69</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB25" s="21">
         <v>2</v>
@@ -9024,13 +9024,13 @@
         <v>145</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR25" s="21" t="s">
         <v>164</v>
@@ -9042,13 +9042,13 @@
         <v>176</v>
       </c>
       <c r="AV25" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW25" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY25" s="21" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AZ25" s="21" t="s">
         <v>533</v>
@@ -9128,10 +9128,10 @@
         <v>69</v>
       </c>
       <c r="Z26" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA26" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB26" s="21">
         <v>2</v>
@@ -9155,13 +9155,13 @@
         <v>145</v>
       </c>
       <c r="AM26" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP26" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR26" s="21" t="s">
         <v>164</v>
@@ -9173,13 +9173,13 @@
         <v>175</v>
       </c>
       <c r="AV26" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW26" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY26" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AZ26" s="21" t="s">
         <v>533</v>
@@ -9259,10 +9259,10 @@
         <v>69</v>
       </c>
       <c r="Z27" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA27" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB27" s="21">
         <v>2</v>
@@ -9286,13 +9286,13 @@
         <v>145</v>
       </c>
       <c r="AM27" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AN27" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP27" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR27" s="21" t="s">
         <v>164</v>
@@ -9301,13 +9301,13 @@
         <v>170</v>
       </c>
       <c r="AV27" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW27" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY27" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AZ27" s="21" t="s">
         <v>533</v>
@@ -9387,10 +9387,10 @@
         <v>69</v>
       </c>
       <c r="Z28" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB28" s="21">
         <v>2</v>
@@ -9420,7 +9420,7 @@
         <v>159</v>
       </c>
       <c r="AP28" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR28" s="21" t="s">
         <v>164</v>
@@ -9432,13 +9432,13 @@
         <v>176</v>
       </c>
       <c r="AV28" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW28" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY28" s="23" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AZ28" s="21" t="s">
         <v>533</v>
@@ -9518,10 +9518,10 @@
         <v>69</v>
       </c>
       <c r="Z29" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB29" s="21">
         <v>2</v>
@@ -9551,7 +9551,7 @@
         <v>159</v>
       </c>
       <c r="AP29" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR29" s="21" t="s">
         <v>164</v>
@@ -9563,13 +9563,13 @@
         <v>175</v>
       </c>
       <c r="AV29" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW29" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY29" s="23" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AZ29" s="21" t="s">
         <v>533</v>
@@ -9649,10 +9649,10 @@
         <v>69</v>
       </c>
       <c r="Z30" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB30" s="21">
         <v>2</v>
@@ -9682,7 +9682,7 @@
         <v>159</v>
       </c>
       <c r="AP30" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR30" s="21" t="s">
         <v>164</v>
@@ -9691,13 +9691,13 @@
         <v>170</v>
       </c>
       <c r="AV30" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW30" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY30" s="31" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AZ30" s="21" t="s">
         <v>533</v>
@@ -9777,10 +9777,10 @@
         <v>69</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA31" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB31" s="21">
         <v>2</v>
@@ -9804,13 +9804,13 @@
         <v>145</v>
       </c>
       <c r="AM31" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AN31" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP31" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR31" s="21" t="s">
         <v>164</v>
@@ -9822,13 +9822,13 @@
         <v>176</v>
       </c>
       <c r="AV31" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW31" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY31" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AZ31" s="21" t="s">
         <v>533</v>
@@ -9908,10 +9908,10 @@
         <v>69</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA32" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB32" s="21">
         <v>2</v>
@@ -9935,13 +9935,13 @@
         <v>145</v>
       </c>
       <c r="AM32" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AN32" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP32" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR32" s="21" t="s">
         <v>164</v>
@@ -9953,13 +9953,13 @@
         <v>175</v>
       </c>
       <c r="AV32" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW32" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY32" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AZ32" s="21" t="s">
         <v>533</v>
@@ -10039,10 +10039,10 @@
         <v>69</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA33" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB33" s="21">
         <v>2</v>
@@ -10066,13 +10066,13 @@
         <v>145</v>
       </c>
       <c r="AM33" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AN33" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP33" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR33" s="21" t="s">
         <v>164</v>
@@ -10081,13 +10081,13 @@
         <v>170</v>
       </c>
       <c r="AV33" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW33" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY33" s="31" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AZ33" s="21" t="s">
         <v>533</v>
@@ -10167,10 +10167,10 @@
         <v>69</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA34" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB34" s="21">
         <v>2</v>
@@ -10194,13 +10194,13 @@
         <v>145</v>
       </c>
       <c r="AM34" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR34" s="21" t="s">
         <v>164</v>
@@ -10212,13 +10212,13 @@
         <v>176</v>
       </c>
       <c r="AV34" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW34" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY34" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AZ34" s="21" t="s">
         <v>533</v>
@@ -10298,10 +10298,10 @@
         <v>69</v>
       </c>
       <c r="Z35" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA35" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB35" s="21">
         <v>2</v>
@@ -10325,13 +10325,13 @@
         <v>145</v>
       </c>
       <c r="AM35" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR35" s="21" t="s">
         <v>164</v>
@@ -10343,13 +10343,13 @@
         <v>175</v>
       </c>
       <c r="AV35" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW35" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY35" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AZ35" s="21" t="s">
         <v>533</v>
@@ -10429,10 +10429,10 @@
         <v>69</v>
       </c>
       <c r="Z36" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB36" s="21">
         <v>2</v>
@@ -10456,13 +10456,13 @@
         <v>145</v>
       </c>
       <c r="AM36" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR36" s="21" t="s">
         <v>164</v>
@@ -10471,13 +10471,13 @@
         <v>170</v>
       </c>
       <c r="AV36" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW36" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY36" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AZ36" s="21" t="s">
         <v>533</v>
@@ -10557,10 +10557,10 @@
         <v>69</v>
       </c>
       <c r="Z37" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB37" s="21">
         <v>2</v>
@@ -10584,13 +10584,13 @@
         <v>145</v>
       </c>
       <c r="AM37" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR37" s="21" t="s">
         <v>164</v>
@@ -10602,13 +10602,13 @@
         <v>175</v>
       </c>
       <c r="AV37" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW37" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY37" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AZ37" s="21" t="s">
         <v>533</v>
@@ -10688,10 +10688,10 @@
         <v>69</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB38" s="21">
         <v>2</v>
@@ -10715,13 +10715,13 @@
         <v>145</v>
       </c>
       <c r="AM38" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR38" s="21" t="s">
         <v>164</v>
@@ -10730,13 +10730,13 @@
         <v>170</v>
       </c>
       <c r="AV38" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW38" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY38" s="31" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AZ38" s="21" t="s">
         <v>533</v>
@@ -10816,10 +10816,10 @@
         <v>69</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB39" s="21">
         <v>2</v>
@@ -10843,13 +10843,13 @@
         <v>145</v>
       </c>
       <c r="AM39" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AN39" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP39" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR39" s="21" t="s">
         <v>164</v>
@@ -10858,13 +10858,13 @@
         <v>170</v>
       </c>
       <c r="AV39" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW39" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY39" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AZ39" s="21" t="s">
         <v>533</v>
@@ -10944,10 +10944,10 @@
         <v>69</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB40" s="21">
         <v>2</v>
@@ -10971,13 +10971,13 @@
         <v>145</v>
       </c>
       <c r="AM40" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AN40" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP40" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AR40" s="21" t="s">
         <v>164</v>
@@ -10989,13 +10989,13 @@
         <v>175</v>
       </c>
       <c r="AV40" s="21" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AW40" s="21" t="s">
         <v>113</v>
       </c>
       <c r="AY40" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AZ40" s="21" t="s">
         <v>533</v>
@@ -11075,7 +11075,7 @@
         <v>216</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AB41" s="21">
         <v>2</v>
@@ -11099,7 +11099,7 @@
         <v>132</v>
       </c>
       <c r="AM41" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AN41" s="21" t="s">
         <v>232</v>
@@ -11108,7 +11108,7 @@
         <v>162</v>
       </c>
       <c r="AP41" s="21" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AR41" s="21" t="s">
         <v>164</v>
@@ -11120,16 +11120,16 @@
         <v>175</v>
       </c>
       <c r="AU41" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AV41" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AW41" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY41" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AZ41" s="21" t="s">
         <v>533</v>
@@ -11194,7 +11194,7 @@
         <v>84</v>
       </c>
       <c r="AF42" s="21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AG42" s="22" t="s">
         <v>263</v>
@@ -11337,10 +11337,10 @@
         <v>69</v>
       </c>
       <c r="Z44" s="35" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AA44" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AB44" s="21">
         <v>2</v>
@@ -11364,13 +11364,13 @@
         <v>150</v>
       </c>
       <c r="AM44" s="21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN44" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP44" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AR44" s="21" t="s">
         <v>164</v>
@@ -11382,7 +11382,7 @@
         <v>181</v>
       </c>
       <c r="AV44" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AW44" s="21" t="s">
         <v>113</v>
@@ -11391,7 +11391,7 @@
         <v>210</v>
       </c>
       <c r="AY44" s="35" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AZ44" s="21" t="s">
         <v>533</v>
@@ -11471,7 +11471,7 @@
         <v>216</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AB45" s="21">
         <v>2</v>
@@ -11495,7 +11495,7 @@
         <v>130</v>
       </c>
       <c r="AM45" s="36" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AN45" s="21" t="s">
         <v>233</v>
@@ -11507,10 +11507,10 @@
         <v>164</v>
       </c>
       <c r="AU45" s="37" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AV45" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AW45" s="21" t="s">
         <v>203</v>
@@ -11519,7 +11519,7 @@
         <v>208</v>
       </c>
       <c r="AY45" s="35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AZ45" s="21" t="s">
         <v>533</v>
@@ -11599,7 +11599,7 @@
         <v>72</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AB46" s="21">
         <v>2</v>
@@ -11623,7 +11623,7 @@
         <v>133</v>
       </c>
       <c r="AM46" s="36" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AN46" s="21" t="s">
         <v>232</v>
@@ -11632,7 +11632,7 @@
         <v>160</v>
       </c>
       <c r="AP46" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AR46" s="21" t="s">
         <v>165</v>
@@ -11641,16 +11641,16 @@
         <v>113</v>
       </c>
       <c r="AU46" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AV46" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AW46" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY46" s="38" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AZ46" s="21" t="s">
         <v>533</v>
@@ -11795,10 +11795,10 @@
         <v>72</v>
       </c>
       <c r="Z48" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AA48" s="35" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AB48" s="21">
         <v>2</v>
@@ -11819,19 +11819,19 @@
         <v>117</v>
       </c>
       <c r="AM48" s="36" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN48" s="21" t="s">
         <v>232</v>
       </c>
       <c r="AP48" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AR48" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AV48" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AW48" s="21" t="s">
         <v>199</v>
@@ -11840,7 +11840,7 @@
         <v>207</v>
       </c>
       <c r="AY48" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AZ48" s="21" t="s">
         <v>533</v>
@@ -11920,10 +11920,10 @@
         <v>216</v>
       </c>
       <c r="Z49" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA49" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB49" s="21">
         <v>2</v>
@@ -11947,13 +11947,13 @@
         <v>136</v>
       </c>
       <c r="AM49" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN49" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP49" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AR49" s="21" t="s">
         <v>164</v>
@@ -11965,7 +11965,7 @@
         <v>551</v>
       </c>
       <c r="AV49" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AW49" s="21" t="s">
         <v>199</v>
@@ -11974,7 +11974,7 @@
         <v>208</v>
       </c>
       <c r="AY49" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AZ49" s="21" t="s">
         <v>533</v>
@@ -12054,10 +12054,10 @@
         <v>216</v>
       </c>
       <c r="Z50" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA50" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB50" s="21">
         <v>2</v>
@@ -12081,13 +12081,13 @@
         <v>136</v>
       </c>
       <c r="AM50" s="36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN50" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP50" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AR50" s="21" t="s">
         <v>164</v>
@@ -12099,7 +12099,7 @@
         <v>551</v>
       </c>
       <c r="AV50" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW50" s="21" t="s">
         <v>205</v>
@@ -12108,7 +12108,7 @@
         <v>208</v>
       </c>
       <c r="AY50" s="38" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AZ50" s="21" t="s">
         <v>533</v>
@@ -12188,10 +12188,10 @@
         <v>216</v>
       </c>
       <c r="Z51" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB51" s="21">
         <v>2</v>
@@ -12215,13 +12215,13 @@
         <v>140</v>
       </c>
       <c r="AM51" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AN51" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP51" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AR51" s="21" t="s">
         <v>164</v>
@@ -12233,7 +12233,7 @@
         <v>551</v>
       </c>
       <c r="AV51" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW51" s="21" t="s">
         <v>205</v>
@@ -12242,7 +12242,7 @@
         <v>210</v>
       </c>
       <c r="AY51" s="38" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AZ51" s="21" t="s">
         <v>533</v>
@@ -12322,10 +12322,10 @@
         <v>69</v>
       </c>
       <c r="Z52" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AA52" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AB52" s="21">
         <v>2</v>
@@ -12349,13 +12349,13 @@
         <v>133</v>
       </c>
       <c r="AM52" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AN52" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP52" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AR52" s="21" t="s">
         <v>165</v>
@@ -12364,10 +12364,10 @@
         <v>113</v>
       </c>
       <c r="AU52" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AV52" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AW52" s="21" t="s">
         <v>199</v>
@@ -12376,7 +12376,7 @@
         <v>208</v>
       </c>
       <c r="AY52" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AZ52" s="21" t="s">
         <v>533</v>
@@ -12456,10 +12456,10 @@
         <v>69</v>
       </c>
       <c r="Z53" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AA53" s="21" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AB53" s="21">
         <v>2</v>
@@ -12483,13 +12483,13 @@
         <v>133</v>
       </c>
       <c r="AM53" s="36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AN53" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP53" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AR53" s="21" t="s">
         <v>165</v>
@@ -12498,10 +12498,10 @@
         <v>113</v>
       </c>
       <c r="AU53" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AV53" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="AV53" s="21" t="s">
-        <v>630</v>
       </c>
       <c r="AW53" s="21" t="s">
         <v>237</v>
@@ -12510,7 +12510,7 @@
         <v>208</v>
       </c>
       <c r="AY53" s="39" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AZ53" s="21" t="s">
         <v>533</v>
@@ -12786,10 +12786,10 @@
         <v>80</v>
       </c>
       <c r="Z57" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AA57" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AB57">
         <v>2</v>
@@ -12810,7 +12810,7 @@
         <v>117</v>
       </c>
       <c r="AM57" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AN57" t="s">
         <v>232</v>
@@ -12819,7 +12819,7 @@
         <v>160</v>
       </c>
       <c r="AP57" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AR57" t="s">
         <v>164</v>
@@ -12828,13 +12828,13 @@
         <v>239</v>
       </c>
       <c r="AV57" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AW57" t="s">
         <v>200</v>
       </c>
       <c r="AY57" s="16" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AZ57" t="s">
         <v>533</v>
@@ -12911,10 +12911,10 @@
         <v>216</v>
       </c>
       <c r="Z58" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AA58" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AB58">
         <v>2</v>
@@ -12944,13 +12944,13 @@
         <v>148</v>
       </c>
       <c r="AM58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AN58" t="s">
         <v>233</v>
       </c>
       <c r="AP58" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
@@ -12959,10 +12959,10 @@
         <v>168</v>
       </c>
       <c r="AU58" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AV58" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AW58" t="s">
         <v>199</v>
@@ -12971,7 +12971,7 @@
         <v>207</v>
       </c>
       <c r="AY58" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AZ58" t="s">
         <v>533</v>
@@ -13051,10 +13051,10 @@
         <v>216</v>
       </c>
       <c r="Z59" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AA59" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AB59">
         <v>2</v>
@@ -13084,13 +13084,13 @@
         <v>148</v>
       </c>
       <c r="AM59" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AN59" t="s">
         <v>233</v>
       </c>
       <c r="AP59" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR59" t="s">
         <v>164</v>
@@ -13099,10 +13099,10 @@
         <v>168</v>
       </c>
       <c r="AU59" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AV59" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AW59" t="s">
         <v>205</v>
@@ -13111,7 +13111,7 @@
         <v>210</v>
       </c>
       <c r="AY59" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AZ59" t="s">
         <v>533</v>
@@ -13191,10 +13191,10 @@
         <v>216</v>
       </c>
       <c r="Z60" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AA60" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AB60">
         <v>2</v>
@@ -13224,13 +13224,13 @@
         <v>148</v>
       </c>
       <c r="AM60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AN60" t="s">
         <v>233</v>
       </c>
       <c r="AP60" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR60" t="s">
         <v>164</v>
@@ -13239,10 +13239,10 @@
         <v>168</v>
       </c>
       <c r="AU60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AV60" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW60" t="s">
         <v>206</v>
@@ -13251,7 +13251,7 @@
         <v>210</v>
       </c>
       <c r="AY60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AZ60" t="s">
         <v>533</v>
@@ -13331,10 +13331,10 @@
         <v>113</v>
       </c>
       <c r="Z61" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA61" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -13361,7 +13361,7 @@
         <v>233</v>
       </c>
       <c r="AP61" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR61" t="s">
         <v>164</v>
@@ -13370,10 +13370,10 @@
         <v>239</v>
       </c>
       <c r="AU61" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV61" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW61" t="s">
         <v>206</v>
@@ -13382,7 +13382,7 @@
         <v>209</v>
       </c>
       <c r="AY61" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AZ61" t="s">
         <v>533</v>
@@ -13462,10 +13462,10 @@
         <v>113</v>
       </c>
       <c r="Z62" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA62" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB62">
         <v>2</v>
@@ -13492,13 +13492,13 @@
         <v>141</v>
       </c>
       <c r="AM62" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AN62" t="s">
         <v>233</v>
       </c>
       <c r="AP62" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR62" t="s">
         <v>164</v>
@@ -13507,10 +13507,10 @@
         <v>239</v>
       </c>
       <c r="AU62" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV62" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW62" t="s">
         <v>206</v>
@@ -13519,7 +13519,7 @@
         <v>208</v>
       </c>
       <c r="AY62" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AZ62" t="s">
         <v>533</v>
@@ -13599,10 +13599,10 @@
         <v>113</v>
       </c>
       <c r="Z63" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA63" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB63">
         <v>2</v>
@@ -13629,13 +13629,13 @@
         <v>141</v>
       </c>
       <c r="AM63" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AN63" t="s">
         <v>233</v>
       </c>
       <c r="AP63" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR63" t="s">
         <v>164</v>
@@ -13644,10 +13644,10 @@
         <v>239</v>
       </c>
       <c r="AU63" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV63" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW63" t="s">
         <v>206</v>
@@ -13656,7 +13656,7 @@
         <v>208</v>
       </c>
       <c r="AY63" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AZ63" t="s">
         <v>533</v>
@@ -13736,10 +13736,10 @@
         <v>113</v>
       </c>
       <c r="Z64" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA64" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB64">
         <v>2</v>
@@ -13769,7 +13769,7 @@
         <v>233</v>
       </c>
       <c r="AP64" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR64" t="s">
         <v>164</v>
@@ -13778,10 +13778,10 @@
         <v>239</v>
       </c>
       <c r="AU64" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV64" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW64" t="s">
         <v>206</v>
@@ -13790,7 +13790,7 @@
         <v>210</v>
       </c>
       <c r="AY64" s="19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AZ64" t="s">
         <v>533</v>
@@ -13870,10 +13870,10 @@
         <v>113</v>
       </c>
       <c r="Z65" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA65" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AB65">
         <v>2</v>
@@ -13903,7 +13903,7 @@
         <v>233</v>
       </c>
       <c r="AP65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR65" t="s">
         <v>164</v>
@@ -13912,10 +13912,10 @@
         <v>239</v>
       </c>
       <c r="AU65" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV65" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW65" t="s">
         <v>206</v>
@@ -13924,7 +13924,7 @@
         <v>210</v>
       </c>
       <c r="AY65" s="19" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AZ65" t="s">
         <v>533</v>
@@ -14001,13 +14001,13 @@
         <v>58</v>
       </c>
       <c r="Y66" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Z66" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AA66" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AB66">
         <v>2</v>
@@ -14031,13 +14031,13 @@
         <v>134</v>
       </c>
       <c r="AM66" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AN66" t="s">
         <v>233</v>
       </c>
       <c r="AP66" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AR66" t="s">
         <v>164</v>
@@ -14046,19 +14046,19 @@
         <v>239</v>
       </c>
       <c r="AU66" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AV66" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AW66" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AX66" t="s">
         <v>208</v>
       </c>
       <c r="AY66" s="20" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AZ66" t="s">
         <v>533</v>
@@ -14138,10 +14138,10 @@
         <v>113</v>
       </c>
       <c r="Z67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AA67" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -14165,7 +14165,7 @@
         <v>132</v>
       </c>
       <c r="AM67" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AN67" t="s">
         <v>232</v>
@@ -14174,7 +14174,7 @@
         <v>162</v>
       </c>
       <c r="AP67" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AR67" t="s">
         <v>164</v>
@@ -14183,7 +14183,7 @@
         <v>239</v>
       </c>
       <c r="AV67" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AW67" t="s">
         <v>199</v>
@@ -14192,7 +14192,7 @@
         <v>208</v>
       </c>
       <c r="AY67" s="14" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AZ67" t="s">
         <v>533</v>
@@ -14272,10 +14272,10 @@
         <v>70</v>
       </c>
       <c r="Z68" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AA68" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AB68">
         <v>2</v>
@@ -14299,7 +14299,7 @@
         <v>138</v>
       </c>
       <c r="AM68" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AN68" t="s">
         <v>232</v>
@@ -14308,7 +14308,7 @@
         <v>160</v>
       </c>
       <c r="AP68" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AR68" t="s">
         <v>164</v>
@@ -14317,7 +14317,7 @@
         <v>170</v>
       </c>
       <c r="AV68" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AW68" t="s">
         <v>237</v>
@@ -14326,7 +14326,7 @@
         <v>207</v>
       </c>
       <c r="AY68" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AZ68" t="s">
         <v>533</v>
@@ -14471,10 +14471,10 @@
         <v>113</v>
       </c>
       <c r="Z70" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AA70" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AB70">
         <v>2</v>
@@ -14498,7 +14498,7 @@
         <v>137</v>
       </c>
       <c r="AM70" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AN70" t="s">
         <v>232</v>
@@ -14507,7 +14507,7 @@
         <v>162</v>
       </c>
       <c r="AP70" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AR70" t="s">
         <v>164</v>
@@ -14516,10 +14516,10 @@
         <v>171</v>
       </c>
       <c r="AU70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AV70" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AW70" t="s">
         <v>199</v>
@@ -14528,7 +14528,7 @@
         <v>207</v>
       </c>
       <c r="AY70" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AZ70" t="s">
         <v>533</v>
@@ -14608,10 +14608,10 @@
         <v>113</v>
       </c>
       <c r="Z71" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AA71" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AB71">
         <v>2</v>
@@ -14635,7 +14635,7 @@
         <v>137</v>
       </c>
       <c r="AM71" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AN71" t="s">
         <v>232</v>
@@ -14644,7 +14644,7 @@
         <v>162</v>
       </c>
       <c r="AP71" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AR71" t="s">
         <v>164</v>
@@ -14653,10 +14653,10 @@
         <v>171</v>
       </c>
       <c r="AU71" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AV71" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AW71" t="s">
         <v>199</v>
@@ -14665,7 +14665,7 @@
         <v>208</v>
       </c>
       <c r="AY71" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AZ71" t="s">
         <v>533</v>
@@ -15783,15 +15783,15 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="18" max="18" width="20.33203125" customWidth="1"/>
-    <col min="19" max="19" width="32.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.36328125" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -15860,7 +15860,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4">
+    <row r="2" spans="1:50" ht="87">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -16859,35 +16859,35 @@
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6328125" customWidth="1"/>
+    <col min="19" max="19" width="17.6328125" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.6328125" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.36328125" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16937,7 +16937,7 @@
       <c r="AF1" s="41"/>
       <c r="AG1" s="41"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2">
+    <row r="2" spans="1:33" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -17773,15 +17773,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17895,30 +17886,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17932,4 +17924,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EDC4F-FF76-43DF-864D-CBECF31EC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E13AE-7E37-4FCB-9369-84860EF145A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="711">
   <si>
     <t>SearchID</t>
   </si>
@@ -5895,10 +5895,10 @@
   <dimension ref="A1:AZ120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV18" sqref="AV18"/>
+      <selection pane="bottomRight" activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -8896,7 +8896,10 @@
         <v>686</v>
       </c>
       <c r="AN24" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO24" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP24" s="21" t="s">
         <v>571</v>
@@ -9027,7 +9030,10 @@
         <v>686</v>
       </c>
       <c r="AN25" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO25" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP25" s="21" t="s">
         <v>571</v>
@@ -9158,7 +9164,10 @@
         <v>686</v>
       </c>
       <c r="AN26" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO26" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP26" s="21" t="s">
         <v>571</v>
@@ -9289,7 +9298,10 @@
         <v>686</v>
       </c>
       <c r="AN27" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO27" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP27" s="21" t="s">
         <v>571</v>
@@ -9417,7 +9429,10 @@
         <v>534</v>
       </c>
       <c r="AN28" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO28" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP28" s="21" t="s">
         <v>571</v>
@@ -9548,7 +9563,10 @@
         <v>534</v>
       </c>
       <c r="AN29" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO29" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP29" s="21" t="s">
         <v>571</v>
@@ -9679,7 +9697,10 @@
         <v>534</v>
       </c>
       <c r="AN30" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO30" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP30" s="21" t="s">
         <v>571</v>
@@ -9807,7 +9828,10 @@
         <v>687</v>
       </c>
       <c r="AN31" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO31" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP31" s="21" t="s">
         <v>571</v>
@@ -9938,7 +9962,10 @@
         <v>687</v>
       </c>
       <c r="AN32" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO32" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP32" s="21" t="s">
         <v>571</v>
@@ -10069,7 +10096,10 @@
         <v>687</v>
       </c>
       <c r="AN33" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO33" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP33" s="21" t="s">
         <v>571</v>
@@ -10197,7 +10227,10 @@
         <v>688</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO34" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP34" s="21" t="s">
         <v>571</v>
@@ -10328,7 +10361,10 @@
         <v>688</v>
       </c>
       <c r="AN35" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO35" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP35" s="21" t="s">
         <v>571</v>
@@ -10459,7 +10495,10 @@
         <v>688</v>
       </c>
       <c r="AN36" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO36" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP36" s="21" t="s">
         <v>571</v>
@@ -10587,7 +10626,10 @@
         <v>689</v>
       </c>
       <c r="AN37" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO37" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP37" s="21" t="s">
         <v>571</v>
@@ -10718,7 +10760,10 @@
         <v>689</v>
       </c>
       <c r="AN38" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO38" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP38" s="21" t="s">
         <v>571</v>
@@ -10846,7 +10891,10 @@
         <v>690</v>
       </c>
       <c r="AN39" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO39" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP39" s="21" t="s">
         <v>571</v>
@@ -10974,7 +11022,10 @@
         <v>690</v>
       </c>
       <c r="AN40" s="21" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AO40" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="AP40" s="21" t="s">
         <v>571</v>
@@ -15669,7 +15720,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT1048576 AO3:AO1048576 AJ3:AK1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT1048576 AJ3:AK1048576 AO3:AO1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AI3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17773,6 +17824,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17886,31 +17946,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17924,12 +17983,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/Taken from github and not from SP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E13AE-7E37-4FCB-9369-84860EF145A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{615E13AE-7E37-4FCB-9369-84860EF145A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E6BE8F-AF63-4CC2-A520-859432A7C174}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCall!$A$2:$AZ$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCall!$A$2:$AZ$72</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="713">
   <si>
     <t>SearchID</t>
   </si>
@@ -5222,6 +5222,12 @@
   </si>
   <si>
     <t>Dominance patterns using W-statistic</t>
+  </si>
+  <si>
+    <t>Posidonia</t>
+  </si>
+  <si>
+    <t>Data from sensors and video cameras documented that purse seines do not exert adverse impacts on critical habitats such as Posidonia meadows</t>
   </si>
 </sst>
 </file>
@@ -5892,28 +5898,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ120"/>
+  <dimension ref="A1:AZ121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ29" sqref="AQ29"/>
+      <selection pane="bottomRight" activeCell="AY45" sqref="AY45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
   <cols>
-    <col min="20" max="20" width="18.36328125" customWidth="1"/>
-    <col min="25" max="26" width="32.6328125" customWidth="1"/>
-    <col min="35" max="36" width="17.6328125" customWidth="1"/>
-    <col min="37" max="37" width="18.6328125" customWidth="1"/>
-    <col min="38" max="38" width="19.36328125" customWidth="1"/>
-    <col min="39" max="39" width="17.6328125" customWidth="1"/>
-    <col min="40" max="40" width="14.36328125" customWidth="1"/>
-    <col min="41" max="42" width="15.6328125" customWidth="1"/>
-    <col min="43" max="43" width="15.453125" customWidth="1"/>
-    <col min="47" max="47" width="15.36328125" customWidth="1"/>
-    <col min="48" max="48" width="18.6328125" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="25" max="26" width="32.5703125" customWidth="1"/>
+    <col min="35" max="36" width="17.5703125" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" customWidth="1"/>
+    <col min="38" max="38" width="19.42578125" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="42" width="15.5703125" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" customWidth="1"/>
+    <col min="48" max="48" width="18.5703125" customWidth="1"/>
     <col min="49" max="49" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5989,7 +5995,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="2" customFormat="1" ht="58">
+    <row r="2" spans="1:52" s="2" customFormat="1" ht="60">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11450,46 +11456,46 @@
     </row>
     <row r="45" spans="1:52" s="21" customFormat="1">
       <c r="A45" s="21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F45" s="22">
         <v>2018</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M45" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N45" s="22" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="O45" s="22" t="s">
         <v>251</v>
@@ -11504,25 +11510,22 @@
         <v>21</v>
       </c>
       <c r="T45" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V45" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="W45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="X45" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="Y45" s="21" t="s">
-        <v>216</v>
+        <v>69</v>
+      </c>
+      <c r="Z45" s="35" t="s">
+        <v>599</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AB45" s="21">
         <v>2</v>
@@ -11534,43 +11537,46 @@
         <v>3</v>
       </c>
       <c r="AG45" s="22" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AH45" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI45" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AJ45" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM45" s="36" t="s">
-        <v>691</v>
+        <v>143</v>
+      </c>
+      <c r="AM45" s="21" t="s">
+        <v>711</v>
       </c>
       <c r="AN45" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP45" s="21" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="AR45" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AU45" s="37" t="s">
-        <v>601</v>
+      <c r="AS45" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT45" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="AV45" s="21" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="AW45" s="21" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AX45" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AY45" s="35" t="s">
-        <v>603</v>
+        <v>712</v>
       </c>
       <c r="AZ45" s="21" t="s">
         <v>533</v>
@@ -11578,46 +11584,46 @@
     </row>
     <row r="46" spans="1:52" s="21" customFormat="1">
       <c r="A46" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C46" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F46" s="22">
         <v>2018</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M46" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N46" s="22" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="O46" s="22" t="s">
         <v>251</v>
@@ -11626,31 +11632,31 @@
         <v>252</v>
       </c>
       <c r="Q46" s="22" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="R46" s="22" t="s">
         <v>21</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="U46" s="21" t="s">
         <v>46</v>
       </c>
       <c r="V46" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="W46" s="21" t="s">
         <v>46</v>
       </c>
       <c r="X46" s="21" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Y46" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z46" s="21" t="s">
-        <v>609</v>
+        <v>216</v>
+      </c>
+      <c r="AA46" s="21" t="s">
+        <v>604</v>
       </c>
       <c r="AB46" s="21">
         <v>2</v>
@@ -11662,46 +11668,43 @@
         <v>3</v>
       </c>
       <c r="AG46" s="22" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH46" s="21" t="s">
         <v>110</v>
       </c>
       <c r="AI46" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ46" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AM46" s="36" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
       <c r="AN46" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO46" s="21" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AP46" s="21" t="s">
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="AR46" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS46" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU46" s="21" t="s">
-        <v>606</v>
+        <v>164</v>
+      </c>
+      <c r="AU46" s="37" t="s">
+        <v>601</v>
       </c>
       <c r="AV46" s="21" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AW46" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY46" s="38" t="s">
-        <v>608</v>
+        <v>203</v>
+      </c>
+      <c r="AX46" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY46" s="35" t="s">
+        <v>603</v>
       </c>
       <c r="AZ46" s="21" t="s">
         <v>533</v>
@@ -11709,46 +11712,46 @@
     </row>
     <row r="47" spans="1:52" s="21" customFormat="1">
       <c r="A47" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F47" s="22">
         <v>2018</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M47" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N47" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O47" s="22" t="s">
         <v>251</v>
@@ -11757,16 +11760,82 @@
         <v>252</v>
       </c>
       <c r="Q47" s="22" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="R47" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S47" s="21" t="s">
-        <v>84</v>
+      <c r="T47" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V47" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="W47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X47" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z47" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB47" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="21">
+        <v>3</v>
       </c>
       <c r="AG47" s="22" t="s">
-        <v>332</v>
+        <v>253</v>
+      </c>
+      <c r="AH47" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI47" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ47" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM47" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN47" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO47" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP47" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="AR47" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS47" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU47" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV47" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="AW47" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY47" s="38" t="s">
+        <v>608</v>
       </c>
       <c r="AZ47" s="21" t="s">
         <v>533</v>
@@ -11774,46 +11843,46 @@
     </row>
     <row r="48" spans="1:52" s="21" customFormat="1">
       <c r="A48" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C48" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F48" s="22">
         <v>2018</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M48" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N48" s="22" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="O48" s="22" t="s">
         <v>251</v>
@@ -11827,71 +11896,11 @@
       <c r="R48" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T48" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V48" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="W48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="X48" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y48" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z48" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA48" s="35" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB48" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC48" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD48" s="21">
-        <v>3</v>
+      <c r="S48" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="AG48" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH48" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI48" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM48" s="36" t="s">
-        <v>613</v>
-      </c>
-      <c r="AN48" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP48" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR48" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV48" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="AW48" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX48" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY48" s="21" t="s">
-        <v>615</v>
+        <v>332</v>
       </c>
       <c r="AZ48" s="21" t="s">
         <v>533</v>
@@ -11899,46 +11908,46 @@
     </row>
     <row r="49" spans="1:52" s="21" customFormat="1">
       <c r="A49" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F49" s="22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="M49" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N49" s="22" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="O49" s="22" t="s">
         <v>251</v>
@@ -11947,7 +11956,7 @@
         <v>252</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="R49" s="22" t="s">
         <v>21</v>
@@ -11956,10 +11965,10 @@
         <v>26</v>
       </c>
       <c r="U49" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V49" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W49" s="21" t="s">
         <v>41</v>
@@ -11968,13 +11977,13 @@
         <v>214</v>
       </c>
       <c r="Y49" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z49" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="AA49" s="21" t="s">
-        <v>623</v>
+        <v>72</v>
+      </c>
+      <c r="Z49" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA49" s="35" t="s">
+        <v>612</v>
       </c>
       <c r="AB49" s="21">
         <v>2</v>
@@ -11986,46 +11995,37 @@
         <v>3</v>
       </c>
       <c r="AG49" s="22" t="s">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="AH49" s="21" t="s">
         <v>110</v>
       </c>
       <c r="AI49" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ49" s="21" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AM49" s="36" t="s">
-        <v>692</v>
+        <v>613</v>
       </c>
       <c r="AN49" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP49" s="21" t="s">
-        <v>697</v>
+        <v>614</v>
       </c>
       <c r="AR49" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS49" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU49" s="21" t="s">
-        <v>551</v>
+        <v>165</v>
       </c>
       <c r="AV49" s="21" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="AW49" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AX49" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY49" s="38" t="s">
-        <v>617</v>
+        <v>207</v>
+      </c>
+      <c r="AY49" s="21" t="s">
+        <v>615</v>
       </c>
       <c r="AZ49" s="21" t="s">
         <v>533</v>
@@ -12150,16 +12150,16 @@
         <v>551</v>
       </c>
       <c r="AV50" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AW50" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AX50" s="21" t="s">
         <v>208</v>
       </c>
       <c r="AY50" s="38" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AZ50" s="21" t="s">
         <v>533</v>
@@ -12260,13 +12260,13 @@
         <v>110</v>
       </c>
       <c r="AI51" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AJ51" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AM51" s="36" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="AN51" s="21" t="s">
         <v>233</v>
@@ -12290,10 +12290,10 @@
         <v>205</v>
       </c>
       <c r="AX51" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY51" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AZ51" s="21" t="s">
         <v>533</v>
@@ -12301,46 +12301,46 @@
     </row>
     <row r="52" spans="1:52" s="21" customFormat="1">
       <c r="A52" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C52" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F52" s="22">
         <v>2017</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M52" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N52" s="22" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="O52" s="22" t="s">
         <v>251</v>
@@ -12349,34 +12349,34 @@
         <v>252</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R52" s="22" t="s">
         <v>21</v>
       </c>
       <c r="T52" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U52" s="21" t="s">
         <v>46</v>
       </c>
       <c r="V52" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W52" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X52" s="21" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="Y52" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z52" s="21" t="s">
-        <v>624</v>
+        <v>216</v>
+      </c>
+      <c r="Z52" s="38" t="s">
+        <v>622</v>
       </c>
       <c r="AA52" s="21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AB52" s="21">
         <v>2</v>
@@ -12388,46 +12388,46 @@
         <v>3</v>
       </c>
       <c r="AG52" s="22" t="s">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="AH52" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI52" s="21" t="s">
         <v>120</v>
       </c>
       <c r="AJ52" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AM52" s="36" t="s">
-        <v>693</v>
+        <v>621</v>
       </c>
       <c r="AN52" s="21" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AP52" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AR52" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS52" s="21" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AU52" s="21" t="s">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="AV52" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AW52" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AX52" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AY52" s="38" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="AZ52" s="21" t="s">
         <v>533</v>
@@ -12552,16 +12552,16 @@
         <v>626</v>
       </c>
       <c r="AV53" s="21" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AW53" s="21" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AX53" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AY53" s="39" t="s">
-        <v>629</v>
+      <c r="AY53" s="38" t="s">
+        <v>627</v>
       </c>
       <c r="AZ53" s="21" t="s">
         <v>533</v>
@@ -12569,46 +12569,46 @@
     </row>
     <row r="54" spans="1:52" s="21" customFormat="1">
       <c r="A54" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F54" s="22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>426</v>
+        <v>246</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M54" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N54" s="22" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="O54" s="22" t="s">
         <v>251</v>
@@ -12622,124 +12622,192 @@
       <c r="R54" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S54" s="21" t="s">
-        <v>84</v>
+      <c r="T54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V54" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W54" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X54" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y54" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z54" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA54" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB54" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD54" s="21">
+        <v>3</v>
       </c>
       <c r="AG54" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
+      </c>
+      <c r="AH54" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI54" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ54" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM54" s="36" t="s">
+        <v>693</v>
+      </c>
+      <c r="AN54" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP54" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="AR54" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS54" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU54" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AV54" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW54" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX54" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY54" s="39" t="s">
+        <v>629</v>
       </c>
       <c r="AZ54" s="21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
-      <c r="A55">
-        <v>10</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C55" s="11" t="s">
+    <row r="55" spans="1:52" s="21" customFormat="1">
+      <c r="A55" s="21">
+        <v>11</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="D55" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" s="22">
         <v>2016</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="M55" s="11" t="s">
+      <c r="G55" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="N55" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="O55" s="11" t="s">
+      <c r="N55" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="O55" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="Q55" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="R55" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AG55" s="11" t="s">
+      <c r="AG55" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="AY55" s="15"/>
-      <c r="AZ55" t="s">
+      <c r="AZ55" s="21" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="56" spans="1:52">
       <c r="A56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F56" s="11">
         <v>2016</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="O56" s="11" t="s">
         <v>251</v>
@@ -12748,7 +12816,7 @@
         <v>252</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R56" s="11" t="s">
         <v>21</v>
@@ -12759,52 +12827,53 @@
       <c r="AG56" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="AY56" s="15"/>
       <c r="AZ56" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:52">
       <c r="A57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F57" s="11">
         <v>2016</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L57" s="11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M57" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O57" s="11" t="s">
         <v>251</v>
@@ -12813,79 +12882,16 @@
         <v>252</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="R57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T57" t="s">
-        <v>24</v>
-      </c>
-      <c r="U57" t="s">
-        <v>46</v>
-      </c>
-      <c r="V57" t="s">
-        <v>59</v>
-      </c>
-      <c r="W57" t="s">
-        <v>46</v>
-      </c>
-      <c r="X57" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB57">
-        <v>2</v>
-      </c>
-      <c r="AC57">
-        <v>2</v>
-      </c>
-      <c r="AD57">
-        <v>3</v>
+      <c r="S57" t="s">
+        <v>84</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>694</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>632</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>633</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY57" s="16" t="s">
-        <v>634</v>
+        <v>263</v>
       </c>
       <c r="AZ57" t="s">
         <v>533</v>
@@ -12893,46 +12899,46 @@
     </row>
     <row r="58" spans="1:52">
       <c r="A58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F58" s="11">
         <v>2016</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M58" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="O58" s="11" t="s">
         <v>251</v>
@@ -12941,31 +12947,34 @@
         <v>252</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="R58" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U58" t="s">
         <v>46</v>
       </c>
+      <c r="V58" t="s">
+        <v>59</v>
+      </c>
       <c r="W58" t="s">
         <v>46</v>
       </c>
       <c r="X58" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="Y58" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AA58" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AB58">
         <v>2</v>
@@ -12977,52 +12986,40 @@
         <v>3</v>
       </c>
       <c r="AG58" s="11" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AM58" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AN58" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>160</v>
       </c>
       <c r="AP58" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
       </c>
       <c r="AS58" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU58" t="s">
-        <v>640</v>
+        <v>239</v>
       </c>
       <c r="AV58" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AW58" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY58" s="18" t="s">
-        <v>645</v>
+        <v>200</v>
+      </c>
+      <c r="AY58" s="16" t="s">
+        <v>634</v>
       </c>
       <c r="AZ58" t="s">
         <v>533</v>
@@ -13084,14 +13081,11 @@
         <v>21</v>
       </c>
       <c r="T59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U59" t="s">
         <v>46</v>
       </c>
-      <c r="V59" t="s">
-        <v>51</v>
-      </c>
       <c r="W59" t="s">
         <v>46</v>
       </c>
@@ -13135,7 +13129,7 @@
         <v>148</v>
       </c>
       <c r="AM59" t="s">
-        <v>639</v>
+        <v>695</v>
       </c>
       <c r="AN59" t="s">
         <v>233</v>
@@ -13153,16 +13147,16 @@
         <v>640</v>
       </c>
       <c r="AV59" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AW59" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AX59" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY59" s="17" t="s">
-        <v>642</v>
+        <v>207</v>
+      </c>
+      <c r="AY59" s="18" t="s">
+        <v>645</v>
       </c>
       <c r="AZ59" t="s">
         <v>533</v>
@@ -13293,16 +13287,16 @@
         <v>640</v>
       </c>
       <c r="AV60" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AW60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX60" t="s">
         <v>210</v>
       </c>
-      <c r="AY60" t="s">
-        <v>643</v>
+      <c r="AY60" s="17" t="s">
+        <v>642</v>
       </c>
       <c r="AZ60" t="s">
         <v>533</v>
@@ -13310,46 +13304,46 @@
     </row>
     <row r="61" spans="1:52">
       <c r="A61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F61" s="11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>477</v>
+        <v>304</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="I61" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>276</v>
+        <v>463</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>268</v>
+        <v>464</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M61" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="O61" s="11" t="s">
         <v>251</v>
@@ -13370,7 +13364,7 @@
         <v>46</v>
       </c>
       <c r="V61" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="W61" t="s">
         <v>46</v>
@@ -13379,13 +13373,13 @@
         <v>214</v>
       </c>
       <c r="Y61" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Z61" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="AA61" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -13406,7 +13400,16 @@
         <v>120</v>
       </c>
       <c r="AJ61" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>639</v>
       </c>
       <c r="AN61" t="s">
         <v>233</v>
@@ -13418,10 +13421,10 @@
         <v>164</v>
       </c>
       <c r="AS61" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AU61" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="AV61" t="s">
         <v>644</v>
@@ -13430,10 +13433,10 @@
         <v>206</v>
       </c>
       <c r="AX61" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY61" s="19" t="s">
-        <v>649</v>
+        <v>210</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>643</v>
       </c>
       <c r="AZ61" t="s">
         <v>533</v>
@@ -13495,7 +13498,7 @@
         <v>21</v>
       </c>
       <c r="T62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U62" t="s">
         <v>46</v>
@@ -13539,12 +13542,6 @@
       <c r="AJ62" t="s">
         <v>133</v>
       </c>
-      <c r="AL62" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>650</v>
-      </c>
       <c r="AN62" t="s">
         <v>233</v>
       </c>
@@ -13567,10 +13564,10 @@
         <v>206</v>
       </c>
       <c r="AX62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY62" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AZ62" t="s">
         <v>533</v>
@@ -13632,7 +13629,7 @@
         <v>21</v>
       </c>
       <c r="T63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U63" t="s">
         <v>46</v>
@@ -13814,7 +13811,10 @@
         <v>133</v>
       </c>
       <c r="AL64" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>650</v>
       </c>
       <c r="AN64" t="s">
         <v>233</v>
@@ -13838,10 +13838,10 @@
         <v>206</v>
       </c>
       <c r="AX64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY64" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AZ64" t="s">
         <v>533</v>
@@ -13948,7 +13948,7 @@
         <v>133</v>
       </c>
       <c r="AL65" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AN65" t="s">
         <v>233</v>
@@ -13975,7 +13975,7 @@
         <v>210</v>
       </c>
       <c r="AY65" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AZ65" t="s">
         <v>533</v>
@@ -13983,46 +13983,46 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F66" s="11">
         <v>2015</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>487</v>
+        <v>276</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M66" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>251</v>
@@ -14031,13 +14031,13 @@
         <v>252</v>
       </c>
       <c r="Q66" s="11" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="R66" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T66" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U66" t="s">
         <v>46</v>
@@ -14046,19 +14046,19 @@
         <v>58</v>
       </c>
       <c r="W66" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X66" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="Y66" t="s">
-        <v>648</v>
+        <v>113</v>
       </c>
       <c r="Z66" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="AA66" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="AB66">
         <v>2</v>
@@ -14076,19 +14076,19 @@
         <v>110</v>
       </c>
       <c r="AI66" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>133</v>
       </c>
       <c r="AL66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>654</v>
+        <v>141</v>
       </c>
       <c r="AN66" t="s">
         <v>233</v>
       </c>
       <c r="AP66" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="AR66" t="s">
         <v>164</v>
@@ -14097,19 +14097,19 @@
         <v>239</v>
       </c>
       <c r="AU66" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="AV66" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="AW66" t="s">
-        <v>648</v>
+        <v>206</v>
       </c>
       <c r="AX66" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY66" s="20" t="s">
-        <v>655</v>
+        <v>210</v>
+      </c>
+      <c r="AY66" s="19" t="s">
+        <v>653</v>
       </c>
       <c r="AZ66" t="s">
         <v>533</v>
@@ -14117,46 +14117,46 @@
     </row>
     <row r="67" spans="1:52">
       <c r="A67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F67" s="11">
         <v>2015</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M67" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O67" s="11" t="s">
         <v>251</v>
@@ -14165,7 +14165,7 @@
         <v>252</v>
       </c>
       <c r="Q67" s="11" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R67" s="11" t="s">
         <v>21</v>
@@ -14177,22 +14177,22 @@
         <v>46</v>
       </c>
       <c r="V67" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W67" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X67" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="Y67" t="s">
-        <v>113</v>
+        <v>648</v>
       </c>
       <c r="Z67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AA67" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AB67">
         <v>2</v>
@@ -14204,28 +14204,25 @@
         <v>3</v>
       </c>
       <c r="AG67" s="11" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="AH67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AI67" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>134</v>
       </c>
       <c r="AM67" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AN67" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AP67" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="AR67" t="s">
         <v>164</v>
@@ -14233,17 +14230,20 @@
       <c r="AS67" t="s">
         <v>239</v>
       </c>
+      <c r="AU67" t="s">
+        <v>657</v>
+      </c>
       <c r="AV67" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="AW67" t="s">
-        <v>199</v>
+        <v>648</v>
       </c>
       <c r="AX67" t="s">
         <v>208</v>
       </c>
-      <c r="AY67" s="14" t="s">
-        <v>665</v>
+      <c r="AY67" s="20" t="s">
+        <v>655</v>
       </c>
       <c r="AZ67" t="s">
         <v>533</v>
@@ -14251,46 +14251,46 @@
     </row>
     <row r="68" spans="1:52">
       <c r="A68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F68" s="11">
         <v>2015</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>495</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M68" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O68" s="11" t="s">
         <v>251</v>
@@ -14299,34 +14299,34 @@
         <v>252</v>
       </c>
       <c r="Q68" s="11" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="R68" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U68" t="s">
         <v>46</v>
       </c>
       <c r="V68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W68" t="s">
         <v>46</v>
       </c>
       <c r="X68" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y68" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Z68" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="AA68" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="AB68">
         <v>2</v>
@@ -14338,46 +14338,46 @@
         <v>3</v>
       </c>
       <c r="AG68" s="11" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="AH68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AI68" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AJ68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AM68" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AN68" t="s">
         <v>232</v>
       </c>
       <c r="AO68" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP68" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AR68" t="s">
         <v>164</v>
       </c>
       <c r="AS68" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AV68" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AW68" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AX68" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY68" s="13" t="s">
-        <v>671</v>
+        <v>208</v>
+      </c>
+      <c r="AY68" s="14" t="s">
+        <v>665</v>
       </c>
       <c r="AZ68" t="s">
         <v>533</v>
@@ -14385,46 +14385,46 @@
     </row>
     <row r="69" spans="1:52">
       <c r="A69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F69" s="11">
         <v>2015</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>248</v>
+        <v>495</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="O69" s="11" t="s">
         <v>251</v>
@@ -14433,63 +14433,132 @@
         <v>252</v>
       </c>
       <c r="Q69" s="11" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="R69" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S69" t="s">
-        <v>84</v>
+      <c r="T69" t="s">
+        <v>32</v>
+      </c>
+      <c r="U69" t="s">
+        <v>46</v>
+      </c>
+      <c r="V69" t="s">
+        <v>57</v>
+      </c>
+      <c r="W69" t="s">
+        <v>46</v>
+      </c>
+      <c r="X69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB69">
+        <v>2</v>
+      </c>
+      <c r="AC69">
+        <v>2</v>
+      </c>
+      <c r="AD69">
+        <v>3</v>
       </c>
       <c r="AG69" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="AH69" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>666</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>669</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>670</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY69" s="13" t="s">
+        <v>671</v>
+      </c>
       <c r="AZ69" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:52">
       <c r="A70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F70" s="11">
         <v>2015</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>246</v>
+        <v>512</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M70" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="O70" s="11" t="s">
         <v>251</v>
@@ -14503,83 +14572,11 @@
       <c r="R70" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T70" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" t="s">
-        <v>46</v>
-      </c>
-      <c r="V70" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W70" t="s">
-        <v>46</v>
-      </c>
-      <c r="X70" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
-      <c r="AC70">
-        <v>2</v>
-      </c>
-      <c r="AD70">
-        <v>3</v>
+      <c r="S70" t="s">
+        <v>84</v>
       </c>
       <c r="AG70" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>696</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>707</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>673</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>672</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX70" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY70" t="s">
-        <v>674</v>
+        <v>263</v>
       </c>
       <c r="AZ70" t="s">
         <v>533</v>
@@ -14695,7 +14692,7 @@
         <v>162</v>
       </c>
       <c r="AP71" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AR71" t="s">
         <v>164</v>
@@ -14704,7 +14701,7 @@
         <v>171</v>
       </c>
       <c r="AU71" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AV71" t="s">
         <v>672</v>
@@ -14713,34 +14710,151 @@
         <v>199</v>
       </c>
       <c r="AX71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY71" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="AZ71" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:52">
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="AG72" s="11"/>
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q72" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="U72" t="s">
+        <v>46</v>
+      </c>
+      <c r="V72" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W72" t="s">
+        <v>46</v>
+      </c>
+      <c r="X72" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <v>2</v>
+      </c>
+      <c r="AD72">
+        <v>3</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>696</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>708</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>677</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>672</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>678</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="73" spans="1:52">
       <c r="B73" s="11"/>
@@ -15701,6 +15815,26 @@
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
       <c r="AG120" s="11"/>
+    </row>
+    <row r="121" spans="2:33">
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="Q121" s="11"/>
+      <c r="R121" s="11"/>
+      <c r="AG121" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15734,19 +15868,19 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S121:S1048576 AG3:AG120</xm:sqref>
+          <xm:sqref>S122:S1048576 AG3:AG121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>W67:W71 U3:U1048576</xm:sqref>
+          <xm:sqref>W68:W72 U3:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>W3:W66 W68:W1048576</xm:sqref>
+          <xm:sqref>W69:W1048576 W3:W67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
@@ -15834,15 +15968,15 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="18" max="18" width="20.36328125" customWidth="1"/>
-    <col min="19" max="19" width="32.36328125" customWidth="1"/>
-    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="26.36328125" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
@@ -15911,7 +16045,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="87">
+    <row r="2" spans="1:50" ht="90">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -16233,7 +16367,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" ht="30">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -16910,35 +17044,35 @@
       <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.54296875" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6328125" customWidth="1"/>
-    <col min="19" max="19" width="17.6328125" customWidth="1"/>
-    <col min="20" max="20" width="19.36328125" customWidth="1"/>
-    <col min="21" max="21" width="17.6328125" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" customWidth="1"/>
-    <col min="26" max="26" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="15.36328125" customWidth="1"/>
-    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6328125" customWidth="1"/>
-    <col min="33" max="33" width="12.54296875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16988,7 +17122,7 @@
       <c r="AF1" s="41"/>
       <c r="AG1" s="41"/>
     </row>
-    <row r="2" spans="1:33" ht="43.5">
+    <row r="2" spans="1:33" ht="60">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -17260,7 +17394,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" ht="30">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -17824,15 +17958,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17946,6 +18071,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
@@ -17962,14 +18096,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17983,4 +18109,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F4012-8A9C-4E63-9B4C-E9854E03DC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84730F49-A92D-435B-836F-E0AF14ECF547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCall!$A$2:$AZ$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCall!$A$2:$AZ$57</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="688">
   <si>
     <t>SearchID</t>
   </si>
@@ -4260,15 +4260,6 @@
   </si>
   <si>
     <t>Mediterranean bottom twin-trawling</t>
-  </si>
-  <si>
-    <t>number of sea turtles</t>
-  </si>
-  <si>
-    <t>No real data on how much turtle escape due to the net adaptations, only that their where 10 catched. Quote from the paper :In particular, the Supershooter successfully operates by expelling sea turtles from the net and reducing the debris.</t>
-  </si>
-  <si>
-    <t>Presence</t>
   </si>
   <si>
     <t>No real impact of fishery, only determination of linkage between fishery activity, primary prodution and fish production (based on catches)</t>
@@ -4945,6 +4936,18 @@
   </si>
   <si>
     <t>Data from sensors and video cameras documented that purse seines do not exert adverse impacts on critical habitats such as Posidonia meadows</t>
+  </si>
+  <si>
+    <t>use of turtle excluding device</t>
+  </si>
+  <si>
+    <t>use of visual deterrents</t>
+  </si>
+  <si>
+    <t>No real data on how much turtle escape due to the net adaptations, only that their where 12 turtles in total were caught, all in control nets. Quote from the paper: In particular, the Supershooter successfully operates by expelling sea turtles from the net and reducing the debris.</t>
+  </si>
+  <si>
+    <t>Presence of turtles in catch</t>
   </si>
 </sst>
 </file>
@@ -5599,13 +5602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ105"/>
+  <dimension ref="A1:AZ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AN25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB70" sqref="BB70"/>
+      <selection pane="bottomRight" activeCell="AV58" sqref="AV58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -5925,7 +5928,7 @@
         <v>526</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AB3" s="21">
         <v>2</v>
@@ -5976,7 +5979,7 @@
         <v>546</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>199</v>
@@ -6062,7 +6065,7 @@
         <v>526</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AB4" s="21">
         <v>2</v>
@@ -6113,7 +6116,7 @@
         <v>546</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AW4" s="21" t="s">
         <v>199</v>
@@ -6300,7 +6303,7 @@
         <v>150</v>
       </c>
       <c r="AM6" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AN6" s="21" t="s">
         <v>233</v>
@@ -6729,7 +6732,7 @@
         <v>150</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AN9" s="21" t="s">
         <v>233</v>
@@ -7319,7 +7322,7 @@
         <v>550</v>
       </c>
       <c r="AV13" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AW13" s="21" t="s">
         <v>199</v>
@@ -7516,7 +7519,7 @@
         <v>550</v>
       </c>
       <c r="AV15" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AW15" s="21" t="s">
         <v>205</v>
@@ -7647,7 +7650,7 @@
         <v>550</v>
       </c>
       <c r="AV16" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AW16" s="21" t="s">
         <v>205</v>
@@ -7909,7 +7912,7 @@
         <v>550</v>
       </c>
       <c r="AV18" s="21" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AW18" s="21" t="s">
         <v>199</v>
@@ -8040,7 +8043,7 @@
         <v>550</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AW19" s="21" t="s">
         <v>206</v>
@@ -8314,10 +8317,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA22" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="AA22" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="AB22" s="21">
         <v>2</v>
@@ -8362,7 +8365,7 @@
         <v>564</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -8472,19 +8475,19 @@
         <v>116</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AW23" s="21" t="s">
         <v>213</v>
@@ -8662,7 +8665,7 @@
         <v>132</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>232</v>
@@ -8671,7 +8674,7 @@
         <v>162</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="AR25" s="21" t="s">
         <v>164</v>
@@ -8686,13 +8689,13 @@
         <v>569</v>
       </c>
       <c r="AV25" s="21" t="s">
-        <v>572</v>
+        <v>687</v>
       </c>
       <c r="AW25" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY25" s="31" t="s">
-        <v>571</v>
+        <v>686</v>
       </c>
       <c r="AZ25" s="21" t="s">
         <v>533</v>
@@ -8700,19 +8703,19 @@
     </row>
     <row r="26" spans="1:52" s="21" customFormat="1">
       <c r="A26" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F26" s="22">
         <v>2019</v>
@@ -8724,7 +8727,7 @@
         <v>306</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>248</v>
@@ -8733,13 +8736,13 @@
         <v>248</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M26" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>251</v>
@@ -8753,14 +8756,80 @@
       <c r="R26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF26" s="21" t="s">
-        <v>573</v>
+      <c r="T26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X26" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y26" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA26" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>3</v>
       </c>
       <c r="AG26" s="22" t="s">
-        <v>263</v>
+        <v>332</v>
+      </c>
+      <c r="AH26" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI26" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ26" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM26" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN26" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO26" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP26" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="AR26" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS26" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT26" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU26" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="AV26" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="AW26" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY26" s="31" t="s">
+        <v>686</v>
       </c>
       <c r="AZ26" s="21" t="s">
         <v>533</v>
@@ -8768,46 +8837,46 @@
     </row>
     <row r="27" spans="1:52" s="21" customFormat="1">
       <c r="A27" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F27" s="22">
         <v>2019</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>277</v>
+        <v>342</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>349</v>
+        <v>248</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O27" s="22" t="s">
         <v>251</v>
@@ -8816,64 +8885,66 @@
         <v>252</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>331</v>
+        <v>262</v>
       </c>
       <c r="R27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="S27" s="21" t="s">
         <v>84</v>
       </c>
+      <c r="AF27" s="21" t="s">
+        <v>570</v>
+      </c>
       <c r="AG27" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY27" s="32"/>
+        <v>263</v>
+      </c>
       <c r="AZ27" s="21" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:52" s="21" customFormat="1">
       <c r="A28" s="21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F28" s="22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M28" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="O28" s="22" t="s">
         <v>251</v>
@@ -8882,80 +8953,18 @@
         <v>252</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="R28" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="W28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y28" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z28" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA28" s="21" t="s">
-        <v>579</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>3</v>
+      <c r="S28" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="AG28" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="AH28" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI28" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ28" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM28" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="AN28" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP28" s="21" t="s">
-        <v>577</v>
-      </c>
-      <c r="AR28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS28" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT28" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV28" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="AW28" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX28" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY28" s="33" t="s">
-        <v>575</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="AY28" s="32"/>
       <c r="AZ28" s="21" t="s">
         <v>533</v>
       </c>
@@ -9028,10 +9037,10 @@
         <v>69</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AB29" s="21">
         <v>2</v>
@@ -9049,19 +9058,19 @@
         <v>109</v>
       </c>
       <c r="AI29" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AJ29" s="21" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AM29" s="21" t="s">
-        <v>685</v>
+        <v>571</v>
       </c>
       <c r="AN29" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP29" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AR29" s="21" t="s">
         <v>164</v>
@@ -9073,7 +9082,7 @@
         <v>181</v>
       </c>
       <c r="AV29" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AW29" s="21" t="s">
         <v>113</v>
@@ -9082,7 +9091,7 @@
         <v>210</v>
       </c>
       <c r="AY29" s="33" t="s">
-        <v>686</v>
+        <v>572</v>
       </c>
       <c r="AZ29" s="21" t="s">
         <v>533</v>
@@ -9090,46 +9099,46 @@
     </row>
     <row r="30" spans="1:52" s="21" customFormat="1">
       <c r="A30" s="21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F30" s="22">
         <v>2018</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M30" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="O30" s="22" t="s">
         <v>251</v>
@@ -9144,25 +9153,22 @@
         <v>21</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V30" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="W30" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="X30" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="Y30" s="21" t="s">
-        <v>216</v>
+        <v>69</v>
+      </c>
+      <c r="Z30" s="33" t="s">
+        <v>575</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AB30" s="21">
         <v>2</v>
@@ -9174,43 +9180,46 @@
         <v>3</v>
       </c>
       <c r="AG30" s="22" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="AH30" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI30" s="21" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AJ30" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM30" s="34" t="s">
-        <v>665</v>
+        <v>143</v>
+      </c>
+      <c r="AM30" s="21" t="s">
+        <v>682</v>
       </c>
       <c r="AN30" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP30" s="21" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="AR30" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AU30" s="35" t="s">
-        <v>580</v>
+      <c r="AS30" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT30" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="AV30" s="21" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AW30" s="21" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="AX30" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AY30" s="33" t="s">
-        <v>582</v>
+        <v>683</v>
       </c>
       <c r="AZ30" s="21" t="s">
         <v>533</v>
@@ -9218,46 +9227,46 @@
     </row>
     <row r="31" spans="1:52" s="21" customFormat="1">
       <c r="A31" s="21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F31" s="22">
         <v>2018</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M31" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N31" s="22" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="O31" s="22" t="s">
         <v>251</v>
@@ -9266,31 +9275,31 @@
         <v>252</v>
       </c>
       <c r="Q31" s="22" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="R31" s="22" t="s">
         <v>21</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="U31" s="21" t="s">
         <v>46</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="W31" s="21" t="s">
         <v>46</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z31" s="21" t="s">
-        <v>588</v>
+        <v>216</v>
+      </c>
+      <c r="AA31" s="21" t="s">
+        <v>580</v>
       </c>
       <c r="AB31" s="21">
         <v>2</v>
@@ -9302,46 +9311,43 @@
         <v>3</v>
       </c>
       <c r="AG31" s="22" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH31" s="21" t="s">
         <v>110</v>
       </c>
       <c r="AI31" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ31" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AM31" s="34" t="s">
-        <v>584</v>
+        <v>662</v>
       </c>
       <c r="AN31" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO31" s="21" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AP31" s="21" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="AR31" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU31" s="21" t="s">
-        <v>585</v>
+        <v>164</v>
+      </c>
+      <c r="AU31" s="35" t="s">
+        <v>577</v>
       </c>
       <c r="AV31" s="21" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="AW31" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY31" s="36" t="s">
-        <v>587</v>
+        <v>203</v>
+      </c>
+      <c r="AX31" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY31" s="33" t="s">
+        <v>579</v>
       </c>
       <c r="AZ31" s="21" t="s">
         <v>533</v>
@@ -9349,46 +9355,46 @@
     </row>
     <row r="32" spans="1:52" s="21" customFormat="1">
       <c r="A32" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F32" s="22">
         <v>2018</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M32" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N32" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O32" s="22" t="s">
         <v>251</v>
@@ -9397,16 +9403,82 @@
         <v>252</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="R32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="21" t="s">
-        <v>84</v>
+      <c r="T32" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="21">
+        <v>3</v>
       </c>
       <c r="AG32" s="22" t="s">
-        <v>332</v>
+        <v>253</v>
+      </c>
+      <c r="AH32" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI32" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ32" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM32" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="AN32" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO32" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP32" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="AR32" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS32" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU32" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV32" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="AW32" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY32" s="36" t="s">
+        <v>584</v>
       </c>
       <c r="AZ32" s="21" t="s">
         <v>533</v>
@@ -9414,46 +9486,46 @@
     </row>
     <row r="33" spans="1:52" s="21" customFormat="1">
       <c r="A33" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F33" s="22">
         <v>2018</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M33" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N33" s="22" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="O33" s="22" t="s">
         <v>251</v>
@@ -9467,71 +9539,11 @@
       <c r="R33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="U33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V33" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="W33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z33" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA33" s="33" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB33" s="21">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="21">
-        <v>2</v>
-      </c>
-      <c r="AD33" s="21">
-        <v>3</v>
+      <c r="S33" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="AG33" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH33" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI33" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM33" s="34" t="s">
-        <v>592</v>
-      </c>
-      <c r="AN33" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP33" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="AR33" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV33" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="AW33" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX33" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY33" s="21" t="s">
-        <v>594</v>
+        <v>332</v>
       </c>
       <c r="AZ33" s="21" t="s">
         <v>533</v>
@@ -9539,46 +9551,46 @@
     </row>
     <row r="34" spans="1:52" s="21" customFormat="1">
       <c r="A34" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F34" s="22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="M34" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N34" s="22" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="O34" s="22" t="s">
         <v>251</v>
@@ -9587,7 +9599,7 @@
         <v>252</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="R34" s="22" t="s">
         <v>21</v>
@@ -9596,10 +9608,10 @@
         <v>26</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>41</v>
@@ -9608,13 +9620,13 @@
         <v>214</v>
       </c>
       <c r="Y34" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z34" s="36" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA34" s="21" t="s">
-        <v>602</v>
+        <v>72</v>
+      </c>
+      <c r="Z34" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA34" s="33" t="s">
+        <v>588</v>
       </c>
       <c r="AB34" s="21">
         <v>2</v>
@@ -9626,46 +9638,37 @@
         <v>3</v>
       </c>
       <c r="AG34" s="22" t="s">
-        <v>414</v>
+        <v>271</v>
       </c>
       <c r="AH34" s="21" t="s">
         <v>110</v>
       </c>
       <c r="AI34" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ34" s="21" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="AM34" s="34" t="s">
-        <v>666</v>
+        <v>589</v>
       </c>
       <c r="AN34" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="AR34" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS34" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU34" s="21" t="s">
-        <v>550</v>
+        <v>165</v>
       </c>
       <c r="AV34" s="21" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="AW34" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AX34" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY34" s="36" t="s">
-        <v>596</v>
+        <v>207</v>
+      </c>
+      <c r="AY34" s="21" t="s">
+        <v>591</v>
       </c>
       <c r="AZ34" s="21" t="s">
         <v>533</v>
@@ -9745,10 +9748,10 @@
         <v>216</v>
       </c>
       <c r="Z35" s="36" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AA35" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AB35" s="21">
         <v>2</v>
@@ -9772,13 +9775,13 @@
         <v>136</v>
       </c>
       <c r="AM35" s="34" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AR35" s="21" t="s">
         <v>164</v>
@@ -9790,16 +9793,16 @@
         <v>550</v>
       </c>
       <c r="AV35" s="21" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AW35" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AX35" s="21" t="s">
         <v>208</v>
       </c>
       <c r="AY35" s="36" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AZ35" s="21" t="s">
         <v>533</v>
@@ -9879,10 +9882,10 @@
         <v>216</v>
       </c>
       <c r="Z36" s="36" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AB36" s="21">
         <v>2</v>
@@ -9900,19 +9903,19 @@
         <v>110</v>
       </c>
       <c r="AI36" s="21" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AM36" s="34" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AR36" s="21" t="s">
         <v>164</v>
@@ -9924,16 +9927,16 @@
         <v>550</v>
       </c>
       <c r="AV36" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AW36" s="21" t="s">
         <v>205</v>
       </c>
       <c r="AX36" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY36" s="36" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AZ36" s="21" t="s">
         <v>533</v>
@@ -9941,46 +9944,46 @@
     </row>
     <row r="37" spans="1:52" s="21" customFormat="1">
       <c r="A37" s="21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F37" s="22">
         <v>2017</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>248</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M37" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N37" s="22" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="O37" s="22" t="s">
         <v>251</v>
@@ -9989,34 +9992,34 @@
         <v>252</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R37" s="22" t="s">
         <v>21</v>
       </c>
       <c r="T37" s="21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U37" s="21" t="s">
         <v>46</v>
       </c>
       <c r="V37" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W37" s="21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z37" s="21" t="s">
-        <v>603</v>
+        <v>216</v>
+      </c>
+      <c r="Z37" s="36" t="s">
+        <v>598</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AB37" s="21">
         <v>2</v>
@@ -10028,46 +10031,46 @@
         <v>3</v>
       </c>
       <c r="AG37" s="22" t="s">
-        <v>253</v>
+        <v>414</v>
       </c>
       <c r="AH37" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI37" s="21" t="s">
         <v>120</v>
       </c>
       <c r="AJ37" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AM37" s="34" t="s">
-        <v>667</v>
+        <v>597</v>
       </c>
       <c r="AN37" s="21" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AR37" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS37" s="21" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AU37" s="21" t="s">
-        <v>605</v>
+        <v>550</v>
       </c>
       <c r="AV37" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AW37" s="21" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AX37" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AY37" s="36" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="AZ37" s="21" t="s">
         <v>533</v>
@@ -10147,10 +10150,10 @@
         <v>69</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AB38" s="21">
         <v>2</v>
@@ -10174,13 +10177,13 @@
         <v>133</v>
       </c>
       <c r="AM38" s="34" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AR38" s="21" t="s">
         <v>165</v>
@@ -10189,19 +10192,19 @@
         <v>113</v>
       </c>
       <c r="AU38" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AV38" s="21" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="AW38" s="21" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AX38" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="AY38" s="37" t="s">
-        <v>608</v>
+      <c r="AY38" s="36" t="s">
+        <v>603</v>
       </c>
       <c r="AZ38" s="21" t="s">
         <v>533</v>
@@ -10209,46 +10212,46 @@
     </row>
     <row r="39" spans="1:52" s="21" customFormat="1">
       <c r="A39" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F39" s="22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>426</v>
+        <v>246</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M39" s="22" t="s">
         <v>248</v>
       </c>
       <c r="N39" s="22" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="O39" s="22" t="s">
         <v>251</v>
@@ -10262,124 +10265,192 @@
       <c r="R39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="21" t="s">
-        <v>84</v>
+      <c r="T39" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y39" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z39" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA39" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="21">
+        <v>3</v>
       </c>
       <c r="AG39" s="22" t="s">
-        <v>263</v>
+        <v>253</v>
+      </c>
+      <c r="AH39" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI39" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ39" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM39" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="AN39" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP39" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="AR39" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS39" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU39" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV39" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="AW39" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX39" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY39" s="37" t="s">
+        <v>605</v>
       </c>
       <c r="AZ39" s="21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C40" s="11" t="s">
+    <row r="40" spans="1:52" s="21" customFormat="1">
+      <c r="A40" s="21">
+        <v>11</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C40" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F40" s="11">
+      <c r="D40" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="F40" s="22">
         <v>2016</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="M40" s="11" t="s">
+      <c r="G40" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="M40" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="O40" s="11" t="s">
+      <c r="N40" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="O40" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="Q40" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="R40" s="11" t="s">
+      <c r="Q40" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="R40" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AG40" s="11" t="s">
+      <c r="AG40" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="AY40" s="15"/>
-      <c r="AZ40" t="s">
+      <c r="AZ40" s="21" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:52">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F41" s="11">
         <v>2016</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="O41" s="11" t="s">
         <v>251</v>
@@ -10388,7 +10459,7 @@
         <v>252</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R41" s="11" t="s">
         <v>21</v>
@@ -10399,52 +10470,53 @@
       <c r="AG41" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="AY41" s="15"/>
       <c r="AZ41" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:52">
       <c r="A42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F42" s="11">
         <v>2016</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="O42" s="11" t="s">
         <v>251</v>
@@ -10453,79 +10525,16 @@
         <v>252</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>413</v>
+        <v>248</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T42" t="s">
-        <v>24</v>
-      </c>
-      <c r="U42" t="s">
-        <v>46</v>
-      </c>
-      <c r="V42" t="s">
-        <v>59</v>
-      </c>
-      <c r="W42" t="s">
-        <v>46</v>
-      </c>
-      <c r="X42" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
-      </c>
-      <c r="AC42">
-        <v>2</v>
-      </c>
-      <c r="AD42">
-        <v>3</v>
+      <c r="S42" t="s">
+        <v>84</v>
       </c>
       <c r="AG42" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>668</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO42" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>611</v>
-      </c>
-      <c r="AR42" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>612</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>200</v>
-      </c>
-      <c r="AY42" s="16" t="s">
-        <v>613</v>
+        <v>263</v>
       </c>
       <c r="AZ42" t="s">
         <v>533</v>
@@ -10533,46 +10542,46 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F43" s="11">
         <v>2016</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>304</v>
+        <v>453</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M43" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="O43" s="11" t="s">
         <v>251</v>
@@ -10581,31 +10590,34 @@
         <v>252</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="R43" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U43" t="s">
         <v>46</v>
       </c>
+      <c r="V43" t="s">
+        <v>59</v>
+      </c>
       <c r="W43" t="s">
         <v>46</v>
       </c>
       <c r="X43" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="Y43" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AA43" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -10617,52 +10629,40 @@
         <v>3</v>
       </c>
       <c r="AG43" s="11" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="AH43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AI43" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AM43" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="AN43" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>160</v>
       </c>
       <c r="AP43" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AR43" t="s">
         <v>164</v>
       </c>
       <c r="AS43" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>619</v>
+        <v>239</v>
       </c>
       <c r="AV43" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="AW43" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY43" s="18" t="s">
-        <v>624</v>
+        <v>200</v>
+      </c>
+      <c r="AY43" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="AZ43" t="s">
         <v>533</v>
@@ -10724,14 +10724,11 @@
         <v>21</v>
       </c>
       <c r="T44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U44" t="s">
         <v>46</v>
       </c>
-      <c r="V44" t="s">
-        <v>51</v>
-      </c>
       <c r="W44" t="s">
         <v>46</v>
       </c>
@@ -10742,10 +10739,10 @@
         <v>216</v>
       </c>
       <c r="Z44" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AA44" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AB44">
         <v>2</v>
@@ -10775,13 +10772,13 @@
         <v>148</v>
       </c>
       <c r="AM44" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="AN44" t="s">
         <v>233</v>
       </c>
       <c r="AP44" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR44" t="s">
         <v>164</v>
@@ -10790,18 +10787,18 @@
         <v>168</v>
       </c>
       <c r="AU44" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AV44" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="AW44" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AX44" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY44" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY44" s="18" t="s">
         <v>621</v>
       </c>
       <c r="AZ44" t="s">
@@ -10882,10 +10879,10 @@
         <v>216</v>
       </c>
       <c r="Z45" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AA45" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AB45">
         <v>2</v>
@@ -10915,13 +10912,13 @@
         <v>148</v>
       </c>
       <c r="AM45" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AN45" t="s">
         <v>233</v>
       </c>
       <c r="AP45" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR45" t="s">
         <v>164</v>
@@ -10930,19 +10927,19 @@
         <v>168</v>
       </c>
       <c r="AU45" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AV45" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AW45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AX45" t="s">
         <v>210</v>
       </c>
-      <c r="AY45" t="s">
-        <v>622</v>
+      <c r="AY45" s="17" t="s">
+        <v>618</v>
       </c>
       <c r="AZ45" t="s">
         <v>533</v>
@@ -10950,46 +10947,46 @@
     </row>
     <row r="46" spans="1:52">
       <c r="A46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F46" s="11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>477</v>
+        <v>304</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>276</v>
+        <v>463</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>268</v>
+        <v>464</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>251</v>
@@ -11010,7 +11007,7 @@
         <v>46</v>
       </c>
       <c r="V46" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="W46" t="s">
         <v>46</v>
@@ -11019,13 +11016,13 @@
         <v>214</v>
       </c>
       <c r="Y46" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="Z46" t="s">
-        <v>659</v>
+        <v>611</v>
       </c>
       <c r="AA46" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="AB46">
         <v>2</v>
@@ -11046,34 +11043,43 @@
         <v>120</v>
       </c>
       <c r="AJ46" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>615</v>
       </c>
       <c r="AN46" t="s">
         <v>233</v>
       </c>
       <c r="AP46" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR46" t="s">
         <v>164</v>
       </c>
       <c r="AS46" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AU46" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="AV46" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AW46" t="s">
         <v>206</v>
       </c>
       <c r="AX46" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY46" s="19" t="s">
-        <v>628</v>
+        <v>210</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>619</v>
       </c>
       <c r="AZ46" t="s">
         <v>533</v>
@@ -11135,7 +11141,7 @@
         <v>21</v>
       </c>
       <c r="T47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U47" t="s">
         <v>46</v>
@@ -11153,10 +11159,10 @@
         <v>113</v>
       </c>
       <c r="Z47" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AA47" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -11179,17 +11185,11 @@
       <c r="AJ47" t="s">
         <v>133</v>
       </c>
-      <c r="AL47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>629</v>
-      </c>
       <c r="AN47" t="s">
         <v>233</v>
       </c>
       <c r="AP47" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR47" t="s">
         <v>164</v>
@@ -11198,19 +11198,19 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV47" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AW47" t="s">
         <v>206</v>
       </c>
       <c r="AX47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AY47" s="19" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AZ47" t="s">
         <v>533</v>
@@ -11272,7 +11272,7 @@
         <v>21</v>
       </c>
       <c r="T48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U48" t="s">
         <v>46</v>
@@ -11290,10 +11290,10 @@
         <v>113</v>
       </c>
       <c r="Z48" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AA48" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB48">
         <v>2</v>
@@ -11320,13 +11320,13 @@
         <v>141</v>
       </c>
       <c r="AM48" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AN48" t="s">
         <v>233</v>
       </c>
       <c r="AP48" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR48" t="s">
         <v>164</v>
@@ -11335,10 +11335,10 @@
         <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV48" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AW48" t="s">
         <v>206</v>
@@ -11347,7 +11347,7 @@
         <v>208</v>
       </c>
       <c r="AY48" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AZ48" t="s">
         <v>533</v>
@@ -11427,10 +11427,10 @@
         <v>113</v>
       </c>
       <c r="Z49" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AA49" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -11454,13 +11454,16 @@
         <v>133</v>
       </c>
       <c r="AL49" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>626</v>
       </c>
       <c r="AN49" t="s">
         <v>233</v>
       </c>
       <c r="AP49" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR49" t="s">
         <v>164</v>
@@ -11469,19 +11472,19 @@
         <v>239</v>
       </c>
       <c r="AU49" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV49" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AW49" t="s">
         <v>206</v>
       </c>
       <c r="AX49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY49" s="19" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AZ49" t="s">
         <v>533</v>
@@ -11561,10 +11564,10 @@
         <v>113</v>
       </c>
       <c r="Z50" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AA50" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB50">
         <v>2</v>
@@ -11588,13 +11591,13 @@
         <v>133</v>
       </c>
       <c r="AL50" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AN50" t="s">
         <v>233</v>
       </c>
       <c r="AP50" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AR50" t="s">
         <v>164</v>
@@ -11603,10 +11606,10 @@
         <v>239</v>
       </c>
       <c r="AU50" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV50" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AW50" t="s">
         <v>206</v>
@@ -11615,7 +11618,7 @@
         <v>210</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AZ50" t="s">
         <v>533</v>
@@ -11623,46 +11626,46 @@
     </row>
     <row r="51" spans="1:52">
       <c r="A51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F51" s="11">
         <v>2015</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>487</v>
+        <v>276</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>488</v>
+        <v>268</v>
       </c>
       <c r="L51" s="11" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="O51" s="11" t="s">
         <v>251</v>
@@ -11671,13 +11674,13 @@
         <v>252</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="U51" t="s">
         <v>46</v>
@@ -11686,19 +11689,19 @@
         <v>58</v>
       </c>
       <c r="W51" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X51" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="Y51" t="s">
-        <v>627</v>
+        <v>113</v>
       </c>
       <c r="Z51" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="AA51" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AB51">
         <v>2</v>
@@ -11716,19 +11719,19 @@
         <v>110</v>
       </c>
       <c r="AI51" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>133</v>
       </c>
       <c r="AL51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>633</v>
+        <v>141</v>
       </c>
       <c r="AN51" t="s">
         <v>233</v>
       </c>
       <c r="AP51" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="AR51" t="s">
         <v>164</v>
@@ -11737,19 +11740,19 @@
         <v>239</v>
       </c>
       <c r="AU51" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="AV51" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="AW51" t="s">
-        <v>627</v>
+        <v>206</v>
       </c>
       <c r="AX51" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY51" s="20" t="s">
-        <v>634</v>
+        <v>210</v>
+      </c>
+      <c r="AY51" s="19" t="s">
+        <v>629</v>
       </c>
       <c r="AZ51" t="s">
         <v>533</v>
@@ -11757,46 +11760,46 @@
     </row>
     <row r="52" spans="1:52">
       <c r="A52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F52" s="11">
         <v>2015</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="O52" s="11" t="s">
         <v>251</v>
@@ -11805,7 +11808,7 @@
         <v>252</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="R52" s="11" t="s">
         <v>21</v>
@@ -11817,22 +11820,22 @@
         <v>46</v>
       </c>
       <c r="V52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="Y52" t="s">
-        <v>113</v>
+        <v>624</v>
       </c>
       <c r="Z52" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AA52" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AB52">
         <v>2</v>
@@ -11844,28 +11847,25 @@
         <v>3</v>
       </c>
       <c r="AG52" s="11" t="s">
-        <v>332</v>
+        <v>253</v>
       </c>
       <c r="AH52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AI52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>134</v>
       </c>
       <c r="AM52" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="AN52" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AP52" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="AR52" t="s">
         <v>164</v>
@@ -11873,17 +11873,20 @@
       <c r="AS52" t="s">
         <v>239</v>
       </c>
+      <c r="AU52" t="s">
+        <v>633</v>
+      </c>
       <c r="AV52" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="AW52" t="s">
-        <v>199</v>
+        <v>624</v>
       </c>
       <c r="AX52" t="s">
         <v>208</v>
       </c>
-      <c r="AY52" s="14" t="s">
-        <v>644</v>
+      <c r="AY52" s="20" t="s">
+        <v>631</v>
       </c>
       <c r="AZ52" t="s">
         <v>533</v>
@@ -11891,46 +11894,46 @@
     </row>
     <row r="53" spans="1:52">
       <c r="A53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="F53" s="11">
         <v>2015</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>504</v>
+        <v>383</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>495</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="L53" s="11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M53" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="O53" s="11" t="s">
         <v>251</v>
@@ -11939,34 +11942,34 @@
         <v>252</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="R53" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U53" t="s">
         <v>46</v>
       </c>
       <c r="V53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W53" t="s">
         <v>46</v>
       </c>
       <c r="X53" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="Y53" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="Z53" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="AA53" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="AB53">
         <v>2</v>
@@ -11978,46 +11981,46 @@
         <v>3</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="AH53" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AI53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AJ53" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AM53" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="AN53" t="s">
         <v>232</v>
       </c>
       <c r="AO53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AP53" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="AR53" t="s">
         <v>164</v>
       </c>
       <c r="AS53" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AV53" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="AW53" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="AX53" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY53" s="13" t="s">
-        <v>650</v>
+        <v>208</v>
+      </c>
+      <c r="AY53" s="14" t="s">
+        <v>641</v>
       </c>
       <c r="AZ53" t="s">
         <v>533</v>
@@ -12025,46 +12028,46 @@
     </row>
     <row r="54" spans="1:52">
       <c r="A54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F54" s="11">
         <v>2015</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>248</v>
+        <v>495</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>251</v>
@@ -12073,63 +12076,132 @@
         <v>252</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="R54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S54" t="s">
-        <v>84</v>
+      <c r="T54" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" t="s">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s">
+        <v>57</v>
+      </c>
+      <c r="W54" t="s">
+        <v>46</v>
+      </c>
+      <c r="X54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>3</v>
       </c>
       <c r="AG54" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="AH54" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>642</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>645</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>646</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>237</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY54" s="13" t="s">
+        <v>647</v>
+      </c>
       <c r="AZ54" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="55" spans="1:52">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>243</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F55" s="11">
         <v>2015</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>246</v>
+        <v>512</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>248</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L55" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>248</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>251</v>
@@ -12143,83 +12215,11 @@
       <c r="R55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" t="s">
-        <v>46</v>
-      </c>
-      <c r="V55" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W55" t="s">
-        <v>46</v>
-      </c>
-      <c r="X55" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>654</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB55">
-        <v>2</v>
-      </c>
-      <c r="AC55">
-        <v>2</v>
-      </c>
-      <c r="AD55">
-        <v>3</v>
+      <c r="S55" t="s">
+        <v>84</v>
       </c>
       <c r="AG55" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>670</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>652</v>
-      </c>
-      <c r="AV55" t="s">
-        <v>651</v>
-      </c>
-      <c r="AW55" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX55" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY55" t="s">
-        <v>653</v>
+        <v>263</v>
       </c>
       <c r="AZ55" t="s">
         <v>533</v>
@@ -12299,10 +12299,10 @@
         <v>113</v>
       </c>
       <c r="Z56" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA56" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AB56">
         <v>2</v>
@@ -12326,7 +12326,7 @@
         <v>137</v>
       </c>
       <c r="AM56" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AN56" t="s">
         <v>232</v>
@@ -12335,7 +12335,7 @@
         <v>162</v>
       </c>
       <c r="AP56" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AR56" t="s">
         <v>164</v>
@@ -12344,43 +12344,160 @@
         <v>171</v>
       </c>
       <c r="AU56" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="AV56" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AW56" t="s">
         <v>199</v>
       </c>
       <c r="AX56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY56" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AZ56" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:52">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="AG57" s="11"/>
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2015</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="P57" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="U57" t="s">
+        <v>46</v>
+      </c>
+      <c r="V57" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W57" t="s">
+        <v>46</v>
+      </c>
+      <c r="X57" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB57">
+        <v>2</v>
+      </c>
+      <c r="AC57">
+        <v>2</v>
+      </c>
+      <c r="AD57">
+        <v>3</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>667</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>199</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>654</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="58" spans="1:52">
       <c r="B58" s="11"/>
@@ -13341,6 +13458,26 @@
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
       <c r="AG105" s="11"/>
+    </row>
+    <row r="106" spans="2:33">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11"/>
+      <c r="R106" s="11"/>
+      <c r="AG106" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13374,19 +13511,19 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S106:S1048576 AG3:AG105</xm:sqref>
+          <xm:sqref>S107:S1048576 AG3:AG106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>W52:W56 U3:U1048576</xm:sqref>
+          <xm:sqref>W53:W57 U3:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>W53:W1048576 W3:W51</xm:sqref>
+          <xm:sqref>W54:W1048576 W3:W52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
@@ -15467,12 +15604,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -15586,6 +15717,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -15595,21 +15732,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{673BF521-F160-4B2D-98D1-C91C6AFE279A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15623,4 +15745,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84730F49-A92D-435B-836F-E0AF14ECF547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB935072-141C-4BC9-84F8-4106E2C53DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="688">
   <si>
     <t>SearchID</t>
   </si>
@@ -4359,13 +4359,7 @@
     <t>total number</t>
   </si>
   <si>
-    <t>Low impact based on % harvested compared to total population: Paper "In 2015, the number of lugworms dug by recreational fishermen represented respectively 3.6 % of the number of lugworms (both species combined) greater than 3 g at Wx, 2.9 % at LT, 0.9 % at FM, and 13.9 % at Au, and respectively 0.8 %.</t>
-  </si>
-  <si>
     <t>Grid whereof in quadrants the amount of faecal casts were counted._Every 3 to 5 sampling points, lugworms were dug using either an Alvey bait pump</t>
-  </si>
-  <si>
-    <t>the number of diggers and estimated average catches</t>
   </si>
   <si>
     <t>Scuba diving_three replicate belt-transects of 25×5m (125m2)</t>
@@ -4948,6 +4942,12 @@
   </si>
   <si>
     <t>Presence of turtles in catch</t>
+  </si>
+  <si>
+    <t>Low impact based on % harvested compared to total population: Paper "In 2015, the number of lugworms dug by recreational fishermen represented respectively 3.6 % of the number of lugworms (both species combined) greater than 3 g at Wx, 2.9 % at LT, 0.9 % at FM, and 13.9 % at Au, and respectively 0.8 %.". "One site (Au) appeared in need for management when linking abundance data with bait collection, where harvest of both species represented ∼14% of the total amount of lugworms and was above the carrying capacity of the beach for A. marina. "</t>
+  </si>
+  <si>
+    <t>number of diggers _ estimated average catches</t>
   </si>
 </sst>
 </file>
@@ -5605,10 +5605,10 @@
   <dimension ref="A1:AZ106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AL32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV58" sqref="AV58"/>
+      <selection pane="bottomRight" activeCell="AP62" sqref="AP62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -5928,7 +5928,7 @@
         <v>526</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AB3" s="21">
         <v>2</v>
@@ -5979,7 +5979,7 @@
         <v>546</v>
       </c>
       <c r="AV3" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AW3" s="21" t="s">
         <v>199</v>
@@ -6065,7 +6065,7 @@
         <v>526</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AB4" s="21">
         <v>2</v>
@@ -6116,7 +6116,7 @@
         <v>546</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AW4" s="21" t="s">
         <v>199</v>
@@ -6303,7 +6303,7 @@
         <v>150</v>
       </c>
       <c r="AM6" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AN6" s="21" t="s">
         <v>233</v>
@@ -6732,7 +6732,7 @@
         <v>150</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AN9" s="21" t="s">
         <v>233</v>
@@ -7322,7 +7322,7 @@
         <v>550</v>
       </c>
       <c r="AV13" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AW13" s="21" t="s">
         <v>199</v>
@@ -7519,7 +7519,7 @@
         <v>550</v>
       </c>
       <c r="AV15" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AW15" s="21" t="s">
         <v>205</v>
@@ -7650,7 +7650,7 @@
         <v>550</v>
       </c>
       <c r="AV16" s="21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AW16" s="21" t="s">
         <v>205</v>
@@ -7912,7 +7912,7 @@
         <v>550</v>
       </c>
       <c r="AV18" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AW18" s="21" t="s">
         <v>199</v>
@@ -8043,7 +8043,7 @@
         <v>550</v>
       </c>
       <c r="AV19" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AW19" s="21" t="s">
         <v>206</v>
@@ -8317,10 +8317,10 @@
         <v>113</v>
       </c>
       <c r="Z22" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AA22" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AB22" s="21">
         <v>2</v>
@@ -8365,7 +8365,7 @@
         <v>564</v>
       </c>
       <c r="AV22" s="21" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AW22" s="21" t="s">
         <v>113</v>
@@ -8475,19 +8475,19 @@
         <v>116</v>
       </c>
       <c r="AM23" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AN23" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP23" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AR23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AV23" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AW23" s="21" t="s">
         <v>213</v>
@@ -8665,7 +8665,7 @@
         <v>132</v>
       </c>
       <c r="AM25" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AN25" s="21" t="s">
         <v>232</v>
@@ -8674,7 +8674,7 @@
         <v>162</v>
       </c>
       <c r="AP25" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AR25" s="21" t="s">
         <v>164</v>
@@ -8689,13 +8689,13 @@
         <v>569</v>
       </c>
       <c r="AV25" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AW25" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY25" s="31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AZ25" s="21" t="s">
         <v>533</v>
@@ -8799,7 +8799,7 @@
         <v>132</v>
       </c>
       <c r="AM26" s="21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AN26" s="21" t="s">
         <v>232</v>
@@ -8808,7 +8808,7 @@
         <v>162</v>
       </c>
       <c r="AP26" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AR26" s="21" t="s">
         <v>164</v>
@@ -8823,13 +8823,13 @@
         <v>569</v>
       </c>
       <c r="AV26" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AW26" s="21" t="s">
         <v>199</v>
       </c>
       <c r="AY26" s="31" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AZ26" s="21" t="s">
         <v>533</v>
@@ -9192,7 +9192,7 @@
         <v>143</v>
       </c>
       <c r="AM30" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AN30" s="21" t="s">
         <v>233</v>
@@ -9219,7 +9219,7 @@
         <v>210</v>
       </c>
       <c r="AY30" s="33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AZ30" s="21" t="s">
         <v>533</v>
@@ -9323,7 +9323,7 @@
         <v>130</v>
       </c>
       <c r="AM31" s="34" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AN31" s="21" t="s">
         <v>233</v>
@@ -9427,7 +9427,7 @@
         <v>72</v>
       </c>
       <c r="Z32" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AB32" s="21">
         <v>2</v>
@@ -9460,7 +9460,7 @@
         <v>160</v>
       </c>
       <c r="AP32" s="21" t="s">
-        <v>586</v>
+        <v>687</v>
       </c>
       <c r="AR32" s="21" t="s">
         <v>165</v>
@@ -9477,8 +9477,11 @@
       <c r="AW32" s="21" t="s">
         <v>199</v>
       </c>
+      <c r="AX32" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="AY32" s="36" t="s">
-        <v>584</v>
+        <v>686</v>
       </c>
       <c r="AZ32" s="21" t="s">
         <v>533</v>
@@ -9623,10 +9626,10 @@
         <v>72</v>
       </c>
       <c r="Z34" s="21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA34" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AB34" s="21">
         <v>2</v>
@@ -9647,19 +9650,19 @@
         <v>117</v>
       </c>
       <c r="AM34" s="34" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AN34" s="21" t="s">
         <v>232</v>
       </c>
       <c r="AP34" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AR34" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AV34" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AW34" s="21" t="s">
         <v>199</v>
@@ -9668,7 +9671,7 @@
         <v>207</v>
       </c>
       <c r="AY34" s="21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AZ34" s="21" t="s">
         <v>533</v>
@@ -9748,10 +9751,10 @@
         <v>216</v>
       </c>
       <c r="Z35" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AA35" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AB35" s="21">
         <v>2</v>
@@ -9775,13 +9778,13 @@
         <v>136</v>
       </c>
       <c r="AM35" s="34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AN35" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP35" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AR35" s="21" t="s">
         <v>164</v>
@@ -9793,7 +9796,7 @@
         <v>550</v>
       </c>
       <c r="AV35" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AW35" s="21" t="s">
         <v>199</v>
@@ -9802,7 +9805,7 @@
         <v>208</v>
       </c>
       <c r="AY35" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AZ35" s="21" t="s">
         <v>533</v>
@@ -9882,10 +9885,10 @@
         <v>216</v>
       </c>
       <c r="Z36" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AA36" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AB36" s="21">
         <v>2</v>
@@ -9909,13 +9912,13 @@
         <v>136</v>
       </c>
       <c r="AM36" s="34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AN36" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP36" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AR36" s="21" t="s">
         <v>164</v>
@@ -9927,7 +9930,7 @@
         <v>550</v>
       </c>
       <c r="AV36" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AW36" s="21" t="s">
         <v>205</v>
@@ -9936,7 +9939,7 @@
         <v>208</v>
       </c>
       <c r="AY36" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AZ36" s="21" t="s">
         <v>533</v>
@@ -10016,10 +10019,10 @@
         <v>216</v>
       </c>
       <c r="Z37" s="36" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AA37" s="21" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AB37" s="21">
         <v>2</v>
@@ -10043,13 +10046,13 @@
         <v>140</v>
       </c>
       <c r="AM37" s="34" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN37" s="21" t="s">
         <v>233</v>
       </c>
       <c r="AP37" s="21" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AR37" s="21" t="s">
         <v>164</v>
@@ -10061,7 +10064,7 @@
         <v>550</v>
       </c>
       <c r="AV37" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AW37" s="21" t="s">
         <v>205</v>
@@ -10070,7 +10073,7 @@
         <v>210</v>
       </c>
       <c r="AY37" s="36" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AZ37" s="21" t="s">
         <v>533</v>
@@ -10150,10 +10153,10 @@
         <v>69</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AB38" s="21">
         <v>2</v>
@@ -10177,13 +10180,13 @@
         <v>133</v>
       </c>
       <c r="AM38" s="34" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AN38" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP38" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AR38" s="21" t="s">
         <v>165</v>
@@ -10192,10 +10195,10 @@
         <v>113</v>
       </c>
       <c r="AU38" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AV38" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AW38" s="21" t="s">
         <v>199</v>
@@ -10204,7 +10207,7 @@
         <v>208</v>
       </c>
       <c r="AY38" s="36" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AZ38" s="21" t="s">
         <v>533</v>
@@ -10284,10 +10287,10 @@
         <v>69</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AB39" s="21">
         <v>2</v>
@@ -10311,13 +10314,13 @@
         <v>133</v>
       </c>
       <c r="AM39" s="34" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AN39" s="21" t="s">
         <v>159</v>
       </c>
       <c r="AP39" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AR39" s="21" t="s">
         <v>165</v>
@@ -10326,10 +10329,10 @@
         <v>113</v>
       </c>
       <c r="AU39" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="AV39" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="AV39" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="AW39" s="21" t="s">
         <v>237</v>
@@ -10338,7 +10341,7 @@
         <v>208</v>
       </c>
       <c r="AY39" s="37" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AZ39" s="21" t="s">
         <v>533</v>
@@ -10614,10 +10617,10 @@
         <v>80</v>
       </c>
       <c r="Z43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AA43" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -10638,7 +10641,7 @@
         <v>117</v>
       </c>
       <c r="AM43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AN43" t="s">
         <v>232</v>
@@ -10647,7 +10650,7 @@
         <v>160</v>
       </c>
       <c r="AP43" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AR43" t="s">
         <v>164</v>
@@ -10656,13 +10659,13 @@
         <v>239</v>
       </c>
       <c r="AV43" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AW43" t="s">
         <v>200</v>
       </c>
       <c r="AY43" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AZ43" t="s">
         <v>533</v>
@@ -10739,10 +10742,10 @@
         <v>216</v>
       </c>
       <c r="Z44" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AA44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AB44">
         <v>2</v>
@@ -10772,13 +10775,13 @@
         <v>148</v>
       </c>
       <c r="AM44" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AN44" t="s">
         <v>233</v>
       </c>
       <c r="AP44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR44" t="s">
         <v>164</v>
@@ -10787,10 +10790,10 @@
         <v>168</v>
       </c>
       <c r="AU44" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AV44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AW44" t="s">
         <v>199</v>
@@ -10799,7 +10802,7 @@
         <v>207</v>
       </c>
       <c r="AY44" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AZ44" t="s">
         <v>533</v>
@@ -10879,10 +10882,10 @@
         <v>216</v>
       </c>
       <c r="Z45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AA45" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AB45">
         <v>2</v>
@@ -10912,13 +10915,13 @@
         <v>148</v>
       </c>
       <c r="AM45" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN45" t="s">
         <v>233</v>
       </c>
       <c r="AP45" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR45" t="s">
         <v>164</v>
@@ -10927,10 +10930,10 @@
         <v>168</v>
       </c>
       <c r="AU45" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AV45" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AW45" t="s">
         <v>205</v>
@@ -10939,7 +10942,7 @@
         <v>210</v>
       </c>
       <c r="AY45" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AZ45" t="s">
         <v>533</v>
@@ -11019,10 +11022,10 @@
         <v>216</v>
       </c>
       <c r="Z46" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AA46" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AB46">
         <v>2</v>
@@ -11052,13 +11055,13 @@
         <v>148</v>
       </c>
       <c r="AM46" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AN46" t="s">
         <v>233</v>
       </c>
       <c r="AP46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR46" t="s">
         <v>164</v>
@@ -11067,10 +11070,10 @@
         <v>168</v>
       </c>
       <c r="AU46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AV46" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW46" t="s">
         <v>206</v>
@@ -11079,7 +11082,7 @@
         <v>210</v>
       </c>
       <c r="AY46" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AZ46" t="s">
         <v>533</v>
@@ -11159,10 +11162,10 @@
         <v>113</v>
       </c>
       <c r="Z47" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA47" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB47">
         <v>2</v>
@@ -11189,7 +11192,7 @@
         <v>233</v>
       </c>
       <c r="AP47" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR47" t="s">
         <v>164</v>
@@ -11198,10 +11201,10 @@
         <v>239</v>
       </c>
       <c r="AU47" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW47" t="s">
         <v>206</v>
@@ -11210,7 +11213,7 @@
         <v>209</v>
       </c>
       <c r="AY47" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AZ47" t="s">
         <v>533</v>
@@ -11290,10 +11293,10 @@
         <v>113</v>
       </c>
       <c r="Z48" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA48" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB48">
         <v>2</v>
@@ -11320,13 +11323,13 @@
         <v>141</v>
       </c>
       <c r="AM48" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AN48" t="s">
         <v>233</v>
       </c>
       <c r="AP48" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR48" t="s">
         <v>164</v>
@@ -11335,10 +11338,10 @@
         <v>239</v>
       </c>
       <c r="AU48" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV48" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW48" t="s">
         <v>206</v>
@@ -11347,7 +11350,7 @@
         <v>208</v>
       </c>
       <c r="AY48" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AZ48" t="s">
         <v>533</v>
@@ -11427,10 +11430,10 @@
         <v>113</v>
       </c>
       <c r="Z49" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA49" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -11457,13 +11460,13 @@
         <v>141</v>
       </c>
       <c r="AM49" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AN49" t="s">
         <v>233</v>
       </c>
       <c r="AP49" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR49" t="s">
         <v>164</v>
@@ -11472,10 +11475,10 @@
         <v>239</v>
       </c>
       <c r="AU49" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV49" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW49" t="s">
         <v>206</v>
@@ -11484,7 +11487,7 @@
         <v>208</v>
       </c>
       <c r="AY49" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AZ49" t="s">
         <v>533</v>
@@ -11564,10 +11567,10 @@
         <v>113</v>
       </c>
       <c r="Z50" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA50" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB50">
         <v>2</v>
@@ -11597,7 +11600,7 @@
         <v>233</v>
       </c>
       <c r="AP50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR50" t="s">
         <v>164</v>
@@ -11606,10 +11609,10 @@
         <v>239</v>
       </c>
       <c r="AU50" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW50" t="s">
         <v>206</v>
@@ -11618,7 +11621,7 @@
         <v>210</v>
       </c>
       <c r="AY50" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AZ50" t="s">
         <v>533</v>
@@ -11698,10 +11701,10 @@
         <v>113</v>
       </c>
       <c r="Z51" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AA51" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AB51">
         <v>2</v>
@@ -11731,7 +11734,7 @@
         <v>233</v>
       </c>
       <c r="AP51" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AR51" t="s">
         <v>164</v>
@@ -11740,10 +11743,10 @@
         <v>239</v>
       </c>
       <c r="AU51" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AV51" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AW51" t="s">
         <v>206</v>
@@ -11752,7 +11755,7 @@
         <v>210</v>
       </c>
       <c r="AY51" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AZ51" t="s">
         <v>533</v>
@@ -11829,13 +11832,13 @@
         <v>58</v>
       </c>
       <c r="Y52" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="Z52" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AA52" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AB52">
         <v>2</v>
@@ -11859,13 +11862,13 @@
         <v>134</v>
       </c>
       <c r="AM52" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AN52" t="s">
         <v>233</v>
       </c>
       <c r="AP52" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AR52" t="s">
         <v>164</v>
@@ -11874,19 +11877,19 @@
         <v>239</v>
       </c>
       <c r="AU52" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AV52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AW52" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AX52" t="s">
         <v>208</v>
       </c>
       <c r="AY52" s="20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AZ52" t="s">
         <v>533</v>
@@ -11966,10 +11969,10 @@
         <v>113</v>
       </c>
       <c r="Z53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AA53" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AB53">
         <v>2</v>
@@ -11993,7 +11996,7 @@
         <v>132</v>
       </c>
       <c r="AM53" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AN53" t="s">
         <v>232</v>
@@ -12002,7 +12005,7 @@
         <v>162</v>
       </c>
       <c r="AP53" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AR53" t="s">
         <v>164</v>
@@ -12011,7 +12014,7 @@
         <v>239</v>
       </c>
       <c r="AV53" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AW53" t="s">
         <v>199</v>
@@ -12020,7 +12023,7 @@
         <v>208</v>
       </c>
       <c r="AY53" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AZ53" t="s">
         <v>533</v>
@@ -12100,10 +12103,10 @@
         <v>70</v>
       </c>
       <c r="Z54" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AA54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AB54">
         <v>2</v>
@@ -12127,7 +12130,7 @@
         <v>138</v>
       </c>
       <c r="AM54" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN54" t="s">
         <v>232</v>
@@ -12136,7 +12139,7 @@
         <v>160</v>
       </c>
       <c r="AP54" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AR54" t="s">
         <v>164</v>
@@ -12145,7 +12148,7 @@
         <v>170</v>
       </c>
       <c r="AV54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AW54" t="s">
         <v>237</v>
@@ -12154,7 +12157,7 @@
         <v>207</v>
       </c>
       <c r="AY54" s="13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AZ54" t="s">
         <v>533</v>
@@ -12299,10 +12302,10 @@
         <v>113</v>
       </c>
       <c r="Z56" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AA56" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AB56">
         <v>2</v>
@@ -12326,7 +12329,7 @@
         <v>137</v>
       </c>
       <c r="AM56" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AN56" t="s">
         <v>232</v>
@@ -12335,7 +12338,7 @@
         <v>162</v>
       </c>
       <c r="AP56" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AR56" t="s">
         <v>164</v>
@@ -12344,10 +12347,10 @@
         <v>171</v>
       </c>
       <c r="AU56" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AV56" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AW56" t="s">
         <v>199</v>
@@ -12356,7 +12359,7 @@
         <v>207</v>
       </c>
       <c r="AY56" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AZ56" t="s">
         <v>533</v>
@@ -12436,10 +12439,10 @@
         <v>113</v>
       </c>
       <c r="Z57" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AA57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AB57">
         <v>2</v>
@@ -12463,7 +12466,7 @@
         <v>137</v>
       </c>
       <c r="AM57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AN57" t="s">
         <v>232</v>
@@ -12472,7 +12475,7 @@
         <v>162</v>
       </c>
       <c r="AP57" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AR57" t="s">
         <v>164</v>
@@ -12481,10 +12484,10 @@
         <v>171</v>
       </c>
       <c r="AU57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AV57" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AW57" t="s">
         <v>199</v>
@@ -12493,7 +12496,7 @@
         <v>208</v>
       </c>
       <c r="AY57" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AZ57" t="s">
         <v>533</v>
@@ -15604,6 +15607,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -15717,12 +15726,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
@@ -15732,6 +15735,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{673BF521-F160-4B2D-98D1-C91C6AFE279A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15745,19 +15763,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_VanHoey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBFE7C9-E5BA-42A2-B6C9-4A51E0A75BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3469F06-86E3-4FE0-A925-D12E1154BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCall" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="689">
   <si>
     <t>SearchID</t>
   </si>
@@ -3972,15 +3972,6 @@
   </si>
   <si>
     <t>statistical test not mentioned</t>
-  </si>
-  <si>
-    <t>Merlangius merlangus euxinus</t>
-  </si>
-  <si>
-    <t>other fish (9) and mollusca (2)</t>
-  </si>
-  <si>
-    <t>catch</t>
   </si>
   <si>
     <t>bycatch</t>
@@ -4441,9 +4432,6 @@
   </si>
   <si>
     <t>The North Sea First Quarter (Q1) International Bottom TrawlSurvey (IBTS)</t>
-  </si>
-  <si>
-    <t>fishing mortality</t>
   </si>
   <si>
     <t>Large fish indicator</t>
@@ -4957,6 +4945,12 @@
   </si>
   <si>
     <t>Functional evenness _ Functional divergence</t>
+  </si>
+  <si>
+    <t>Mollusca</t>
+  </si>
+  <si>
+    <t>reduction in fishing mortality</t>
   </si>
 </sst>
 </file>
@@ -5600,11 +5594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AF48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV66" sqref="AV66"/>
+      <selection pane="bottomRight" activeCell="AX48" sqref="AX48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5"/>
@@ -5625,7 +5619,7 @@
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>11</v>
@@ -5924,7 +5918,7 @@
         <v>526</v>
       </c>
       <c r="AA3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AB3">
         <v>2</v>
@@ -5948,19 +5942,16 @@
         <v>117</v>
       </c>
       <c r="AJ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>528</v>
+        <v>144</v>
       </c>
       <c r="AN3" t="s">
         <v>232</v>
       </c>
       <c r="AO3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AR3" t="s">
         <v>164</v>
@@ -5972,16 +5963,22 @@
         <v>211</v>
       </c>
       <c r="AU3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AV3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="AW3" t="s">
         <v>199</v>
       </c>
+      <c r="AX3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>529</v>
+      </c>
       <c r="AZ3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:52">
@@ -6061,7 +6058,7 @@
         <v>526</v>
       </c>
       <c r="AA4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AB4">
         <v>2</v>
@@ -6082,13 +6079,10 @@
         <v>110</v>
       </c>
       <c r="AI4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="s">
-        <v>529</v>
+        <v>687</v>
       </c>
       <c r="AN4" t="s">
         <v>232</v>
@@ -6097,7 +6091,7 @@
         <v>161</v>
       </c>
       <c r="AP4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AR4" t="s">
         <v>164</v>
@@ -6109,10 +6103,10 @@
         <v>211</v>
       </c>
       <c r="AU4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AV4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="AW4" t="s">
         <v>199</v>
@@ -6121,10 +6115,10 @@
         <v>210</v>
       </c>
       <c r="AY4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AZ4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:52">
@@ -6189,7 +6183,7 @@
         <v>294</v>
       </c>
       <c r="AZ5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -6266,10 +6260,10 @@
         <v>215</v>
       </c>
       <c r="Z6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB6">
         <v>2</v>
@@ -6299,13 +6293,13 @@
         <v>150</v>
       </c>
       <c r="AM6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AN6" t="s">
         <v>233</v>
       </c>
       <c r="AP6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR6" t="s">
         <v>164</v>
@@ -6317,10 +6311,10 @@
         <v>175</v>
       </c>
       <c r="AU6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW6" t="s">
         <v>199</v>
@@ -6329,10 +6323,10 @@
         <v>208</v>
       </c>
       <c r="AY6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:52">
@@ -6409,10 +6403,10 @@
         <v>215</v>
       </c>
       <c r="Z7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB7">
         <v>2</v>
@@ -6442,13 +6436,13 @@
         <v>150</v>
       </c>
       <c r="AM7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AN7" t="s">
         <v>233</v>
       </c>
       <c r="AP7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR7" t="s">
         <v>164</v>
@@ -6460,10 +6454,10 @@
         <v>175</v>
       </c>
       <c r="AU7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW7" t="s">
         <v>199</v>
@@ -6472,10 +6466,10 @@
         <v>207</v>
       </c>
       <c r="AY7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:52">
@@ -6552,10 +6546,10 @@
         <v>215</v>
       </c>
       <c r="Z8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB8">
         <v>2</v>
@@ -6585,13 +6579,13 @@
         <v>150</v>
       </c>
       <c r="AM8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AN8" t="s">
         <v>233</v>
       </c>
       <c r="AP8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR8" t="s">
         <v>164</v>
@@ -6603,10 +6597,10 @@
         <v>175</v>
       </c>
       <c r="AU8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW8" t="s">
         <v>199</v>
@@ -6615,10 +6609,10 @@
         <v>207</v>
       </c>
       <c r="AY8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ8" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:52">
@@ -6695,10 +6689,10 @@
         <v>215</v>
       </c>
       <c r="Z9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB9">
         <v>2</v>
@@ -6728,13 +6722,13 @@
         <v>150</v>
       </c>
       <c r="AM9" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AN9" t="s">
         <v>233</v>
       </c>
       <c r="AP9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR9" t="s">
         <v>164</v>
@@ -6746,10 +6740,10 @@
         <v>175</v>
       </c>
       <c r="AU9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW9" t="s">
         <v>199</v>
@@ -6758,10 +6752,10 @@
         <v>208</v>
       </c>
       <c r="AY9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:52">
@@ -6838,10 +6832,10 @@
         <v>215</v>
       </c>
       <c r="Z10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB10">
         <v>2</v>
@@ -6871,13 +6865,13 @@
         <v>134</v>
       </c>
       <c r="AM10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AN10" t="s">
         <v>233</v>
       </c>
       <c r="AP10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR10" t="s">
         <v>164</v>
@@ -6889,10 +6883,10 @@
         <v>175</v>
       </c>
       <c r="AU10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW10" t="s">
         <v>199</v>
@@ -6901,10 +6895,10 @@
         <v>208</v>
       </c>
       <c r="AY10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:52">
@@ -6981,10 +6975,10 @@
         <v>215</v>
       </c>
       <c r="Z11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB11">
         <v>2</v>
@@ -7014,13 +7008,13 @@
         <v>141</v>
       </c>
       <c r="AM11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AN11" t="s">
         <v>233</v>
       </c>
       <c r="AP11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR11" t="s">
         <v>164</v>
@@ -7032,10 +7026,10 @@
         <v>175</v>
       </c>
       <c r="AU11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW11" t="s">
         <v>199</v>
@@ -7044,10 +7038,10 @@
         <v>208</v>
       </c>
       <c r="AY11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:52">
@@ -7124,10 +7118,10 @@
         <v>215</v>
       </c>
       <c r="Z12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AA12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AB12">
         <v>2</v>
@@ -7139,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="AF12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AG12" s="10" t="s">
         <v>414</v>
@@ -7157,13 +7151,13 @@
         <v>113</v>
       </c>
       <c r="AM12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AN12" t="s">
         <v>233</v>
       </c>
       <c r="AP12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR12" t="s">
         <v>164</v>
@@ -7175,10 +7169,10 @@
         <v>175</v>
       </c>
       <c r="AU12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AV12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AW12" t="s">
         <v>199</v>
@@ -7187,10 +7181,10 @@
         <v>208</v>
       </c>
       <c r="AY12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AZ12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:52">
@@ -7267,7 +7261,7 @@
         <v>69</v>
       </c>
       <c r="AA13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AB13">
         <v>2</v>
@@ -7294,16 +7288,16 @@
         <v>113</v>
       </c>
       <c r="AM13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AN13" t="s">
         <v>233</v>
       </c>
       <c r="AP13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AQ13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AR13" t="s">
         <v>164</v>
@@ -7315,10 +7309,10 @@
         <v>176</v>
       </c>
       <c r="AU13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="AW13" t="s">
         <v>199</v>
@@ -7327,10 +7321,10 @@
         <v>207</v>
       </c>
       <c r="AY13" s="20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AZ13" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:52">
@@ -7396,7 +7390,7 @@
       </c>
       <c r="AY14" s="21"/>
       <c r="AZ14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:52">
@@ -7473,10 +7467,10 @@
         <v>215</v>
       </c>
       <c r="Z15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AB15">
         <v>2</v>
@@ -7497,13 +7491,13 @@
         <v>117</v>
       </c>
       <c r="AM15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN15" t="s">
         <v>233</v>
       </c>
       <c r="AP15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR15" t="s">
         <v>164</v>
@@ -7512,10 +7506,10 @@
         <v>239</v>
       </c>
       <c r="AU15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV15" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AW15" t="s">
         <v>205</v>
@@ -7524,10 +7518,10 @@
         <v>208</v>
       </c>
       <c r="AY15" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AZ15" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:52">
@@ -7604,10 +7598,10 @@
         <v>215</v>
       </c>
       <c r="Z16" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AB16">
         <v>2</v>
@@ -7628,13 +7622,13 @@
         <v>117</v>
       </c>
       <c r="AM16" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN16" t="s">
         <v>233</v>
       </c>
       <c r="AP16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR16" t="s">
         <v>164</v>
@@ -7643,10 +7637,10 @@
         <v>239</v>
       </c>
       <c r="AU16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV16" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AW16" t="s">
         <v>205</v>
@@ -7655,10 +7649,10 @@
         <v>210</v>
       </c>
       <c r="AY16" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AZ16" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:52">
@@ -7735,10 +7729,10 @@
         <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA17" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AB17">
         <v>2</v>
@@ -7759,13 +7753,13 @@
         <v>117</v>
       </c>
       <c r="AM17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN17" t="s">
         <v>233</v>
       </c>
       <c r="AP17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR17" t="s">
         <v>164</v>
@@ -7774,10 +7768,10 @@
         <v>239</v>
       </c>
       <c r="AU17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AW17" t="s">
         <v>200</v>
@@ -7786,10 +7780,10 @@
         <v>208</v>
       </c>
       <c r="AY17" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AZ17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:52">
@@ -7866,10 +7860,10 @@
         <v>215</v>
       </c>
       <c r="Z18" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AB18">
         <v>2</v>
@@ -7890,13 +7884,13 @@
         <v>117</v>
       </c>
       <c r="AM18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN18" t="s">
         <v>233</v>
       </c>
       <c r="AP18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR18" t="s">
         <v>164</v>
@@ -7905,10 +7899,10 @@
         <v>239</v>
       </c>
       <c r="AU18" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV18" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AW18" t="s">
         <v>199</v>
@@ -7917,10 +7911,10 @@
         <v>208</v>
       </c>
       <c r="AY18" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AZ18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:52">
@@ -7997,10 +7991,10 @@
         <v>215</v>
       </c>
       <c r="Z19" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AA19" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AB19">
         <v>2</v>
@@ -8021,13 +8015,13 @@
         <v>117</v>
       </c>
       <c r="AM19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN19" t="s">
         <v>233</v>
       </c>
       <c r="AP19" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR19" t="s">
         <v>164</v>
@@ -8036,10 +8030,10 @@
         <v>239</v>
       </c>
       <c r="AU19" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="AW19" t="s">
         <v>206</v>
@@ -8048,10 +8042,10 @@
         <v>208</v>
       </c>
       <c r="AY19" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AZ19" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:52">
@@ -8122,7 +8116,7 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AB20">
         <v>2</v>
@@ -8149,16 +8143,16 @@
         <v>232</v>
       </c>
       <c r="AP20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR20" t="s">
         <v>164</v>
       </c>
       <c r="AU20" s="23" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AV20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AW20" t="s">
         <v>203</v>
@@ -8167,10 +8161,10 @@
         <v>208</v>
       </c>
       <c r="AY20" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AZ20" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:52">
@@ -8232,14 +8226,14 @@
         <v>84</v>
       </c>
       <c r="AF21" s="22" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG21" s="10" t="s">
         <v>271</v>
       </c>
       <c r="AY21" s="21"/>
       <c r="AZ21" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:52">
@@ -8313,10 +8307,10 @@
         <v>113</v>
       </c>
       <c r="Z22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AA22" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="AB22">
         <v>2</v>
@@ -8340,13 +8334,13 @@
         <v>141</v>
       </c>
       <c r="AM22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN22" t="s">
         <v>233</v>
       </c>
       <c r="AP22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="AR22" t="s">
         <v>164</v>
@@ -8358,10 +8352,10 @@
         <v>176</v>
       </c>
       <c r="AU22" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AV22" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AW22" t="s">
         <v>113</v>
@@ -8370,10 +8364,10 @@
         <v>208</v>
       </c>
       <c r="AY22" s="24" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AZ22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:52">
@@ -8450,7 +8444,7 @@
         <v>218</v>
       </c>
       <c r="Z23" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AB23">
         <v>2</v>
@@ -8471,19 +8465,19 @@
         <v>116</v>
       </c>
       <c r="AM23" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AN23" t="s">
         <v>159</v>
       </c>
       <c r="AP23" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AR23" t="s">
         <v>164</v>
       </c>
       <c r="AV23" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AW23" t="s">
         <v>213</v>
@@ -8492,10 +8486,10 @@
         <v>208</v>
       </c>
       <c r="AY23" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AZ23" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:52">
@@ -8560,7 +8554,7 @@
         <v>332</v>
       </c>
       <c r="AZ24" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:52">
@@ -8637,7 +8631,7 @@
         <v>216</v>
       </c>
       <c r="AA25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AB25">
         <v>2</v>
@@ -8661,7 +8655,7 @@
         <v>132</v>
       </c>
       <c r="AM25" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AN25" t="s">
         <v>232</v>
@@ -8670,7 +8664,7 @@
         <v>162</v>
       </c>
       <c r="AP25" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="AR25" t="s">
         <v>164</v>
@@ -8682,19 +8676,22 @@
         <v>175</v>
       </c>
       <c r="AU25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AV25" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AW25" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>208</v>
       </c>
       <c r="AY25" s="26" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AZ25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:52">
@@ -8771,7 +8768,7 @@
         <v>216</v>
       </c>
       <c r="AA26" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AB26">
         <v>2</v>
@@ -8795,7 +8792,7 @@
         <v>132</v>
       </c>
       <c r="AM26" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AN26" t="s">
         <v>232</v>
@@ -8804,7 +8801,7 @@
         <v>162</v>
       </c>
       <c r="AP26" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="AR26" t="s">
         <v>164</v>
@@ -8816,19 +8813,22 @@
         <v>175</v>
       </c>
       <c r="AU26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AV26" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="AW26" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>208</v>
       </c>
       <c r="AY26" s="26" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AZ26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:52">
@@ -8890,13 +8890,13 @@
         <v>84</v>
       </c>
       <c r="AF27" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG27" s="10" t="s">
         <v>263</v>
       </c>
       <c r="AZ27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:52">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="AY28" s="13"/>
       <c r="AZ28" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:52">
@@ -9033,10 +9033,10 @@
         <v>69</v>
       </c>
       <c r="Z29" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AA29" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AB29">
         <v>2</v>
@@ -9060,13 +9060,13 @@
         <v>150</v>
       </c>
       <c r="AM29" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AN29" t="s">
         <v>233</v>
       </c>
       <c r="AP29" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AR29" t="s">
         <v>164</v>
@@ -9078,7 +9078,7 @@
         <v>181</v>
       </c>
       <c r="AV29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AW29" t="s">
         <v>113</v>
@@ -9087,10 +9087,10 @@
         <v>210</v>
       </c>
       <c r="AY29" s="27" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AZ29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:52">
@@ -9161,10 +9161,10 @@
         <v>69</v>
       </c>
       <c r="Z30" s="27" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AA30" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AB30">
         <v>2</v>
@@ -9188,13 +9188,13 @@
         <v>143</v>
       </c>
       <c r="AM30" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AN30" t="s">
         <v>233</v>
       </c>
       <c r="AP30" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AR30" t="s">
         <v>164</v>
@@ -9206,7 +9206,7 @@
         <v>181</v>
       </c>
       <c r="AV30" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AW30" t="s">
         <v>113</v>
@@ -9215,10 +9215,10 @@
         <v>210</v>
       </c>
       <c r="AY30" s="27" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AZ30" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:52">
@@ -9295,7 +9295,7 @@
         <v>216</v>
       </c>
       <c r="AA31" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AB31">
         <v>2</v>
@@ -9319,22 +9319,22 @@
         <v>130</v>
       </c>
       <c r="AM31" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="AN31" t="s">
         <v>233</v>
       </c>
       <c r="AP31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AR31" t="s">
         <v>164</v>
       </c>
       <c r="AU31" s="28" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AV31" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AW31" t="s">
         <v>203</v>
@@ -9343,10 +9343,10 @@
         <v>208</v>
       </c>
       <c r="AY31" s="27" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AZ31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:52">
@@ -9423,7 +9423,7 @@
         <v>72</v>
       </c>
       <c r="Z32" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AB32">
         <v>2</v>
@@ -9447,7 +9447,7 @@
         <v>133</v>
       </c>
       <c r="AM32" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AN32" t="s">
         <v>232</v>
@@ -9456,7 +9456,7 @@
         <v>160</v>
       </c>
       <c r="AP32" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AR32" t="s">
         <v>165</v>
@@ -9465,10 +9465,10 @@
         <v>113</v>
       </c>
       <c r="AU32" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AV32" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AW32" t="s">
         <v>199</v>
@@ -9477,10 +9477,10 @@
         <v>209</v>
       </c>
       <c r="AY32" s="14" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="AZ32" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:52">
@@ -9545,7 +9545,7 @@
         <v>332</v>
       </c>
       <c r="AZ33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:52">
@@ -9622,10 +9622,10 @@
         <v>72</v>
       </c>
       <c r="Z34" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA34" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB34">
         <v>2</v>
@@ -9646,22 +9646,22 @@
         <v>117</v>
       </c>
       <c r="AM34" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN34" t="s">
         <v>232</v>
       </c>
       <c r="AP34" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ34" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR34" t="s">
         <v>165</v>
       </c>
       <c r="AV34" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AW34" t="s">
         <v>199</v>
@@ -9670,10 +9670,10 @@
         <v>209</v>
       </c>
       <c r="AY34" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ34" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:52">
@@ -9750,10 +9750,10 @@
         <v>72</v>
       </c>
       <c r="Z35" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA35" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB35">
         <v>2</v>
@@ -9774,22 +9774,22 @@
         <v>117</v>
       </c>
       <c r="AM35" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN35" t="s">
         <v>232</v>
       </c>
       <c r="AP35" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ35" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR35" t="s">
         <v>165</v>
       </c>
       <c r="AV35" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AW35" t="s">
         <v>205</v>
@@ -9798,10 +9798,10 @@
         <v>209</v>
       </c>
       <c r="AY35" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ35" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:52">
@@ -9878,10 +9878,10 @@
         <v>72</v>
       </c>
       <c r="Z36" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA36" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB36">
         <v>2</v>
@@ -9902,16 +9902,16 @@
         <v>117</v>
       </c>
       <c r="AM36" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN36" t="s">
         <v>232</v>
       </c>
       <c r="AP36" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ36" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR36" t="s">
         <v>164</v>
@@ -9920,7 +9920,7 @@
         <v>239</v>
       </c>
       <c r="AV36" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AW36" t="s">
         <v>199</v>
@@ -9929,10 +9929,10 @@
         <v>209</v>
       </c>
       <c r="AY36" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ36" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:52">
@@ -10009,10 +10009,10 @@
         <v>72</v>
       </c>
       <c r="Z37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA37" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB37">
         <v>2</v>
@@ -10033,16 +10033,16 @@
         <v>117</v>
       </c>
       <c r="AM37" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN37" t="s">
         <v>232</v>
       </c>
       <c r="AP37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ37" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR37" t="s">
         <v>164</v>
@@ -10051,7 +10051,7 @@
         <v>239</v>
       </c>
       <c r="AV37" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AW37" t="s">
         <v>205</v>
@@ -10060,10 +10060,10 @@
         <v>209</v>
       </c>
       <c r="AY37" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ37" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:52">
@@ -10140,10 +10140,10 @@
         <v>72</v>
       </c>
       <c r="Z38" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA38" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB38">
         <v>2</v>
@@ -10164,16 +10164,16 @@
         <v>117</v>
       </c>
       <c r="AM38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN38" t="s">
         <v>232</v>
       </c>
       <c r="AP38" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ38" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR38" t="s">
         <v>164</v>
@@ -10185,7 +10185,7 @@
         <v>181</v>
       </c>
       <c r="AV38" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="AW38" t="s">
         <v>199</v>
@@ -10194,10 +10194,10 @@
         <v>209</v>
       </c>
       <c r="AY38" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ38" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:52">
@@ -10274,10 +10274,10 @@
         <v>72</v>
       </c>
       <c r="Z39" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AA39" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AB39">
         <v>2</v>
@@ -10298,16 +10298,16 @@
         <v>117</v>
       </c>
       <c r="AM39" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AN39" t="s">
         <v>232</v>
       </c>
       <c r="AP39" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AQ39" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="AR39" t="s">
         <v>164</v>
@@ -10319,7 +10319,7 @@
         <v>181</v>
       </c>
       <c r="AV39" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="AW39" t="s">
         <v>205</v>
@@ -10328,10 +10328,10 @@
         <v>209</v>
       </c>
       <c r="AY39" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="AZ39" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:52">
@@ -10408,10 +10408,10 @@
         <v>216</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA40" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AB40">
         <v>2</v>
@@ -10435,13 +10435,13 @@
         <v>136</v>
       </c>
       <c r="AM40" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="AN40" t="s">
         <v>233</v>
       </c>
       <c r="AP40" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AR40" t="s">
         <v>164</v>
@@ -10450,10 +10450,10 @@
         <v>239</v>
       </c>
       <c r="AU40" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV40" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AW40" t="s">
         <v>199</v>
@@ -10462,10 +10462,10 @@
         <v>208</v>
       </c>
       <c r="AY40" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AZ40" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:52">
@@ -10542,10 +10542,10 @@
         <v>216</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA41" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AB41">
         <v>2</v>
@@ -10569,13 +10569,13 @@
         <v>136</v>
       </c>
       <c r="AM41" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="AN41" t="s">
         <v>233</v>
       </c>
       <c r="AP41" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AR41" t="s">
         <v>164</v>
@@ -10584,10 +10584,10 @@
         <v>239</v>
       </c>
       <c r="AU41" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV41" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AW41" t="s">
         <v>205</v>
@@ -10596,10 +10596,10 @@
         <v>208</v>
       </c>
       <c r="AY41" s="14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AZ41" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:52">
@@ -10676,10 +10676,10 @@
         <v>216</v>
       </c>
       <c r="Z42" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AA42" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AB42">
         <v>2</v>
@@ -10703,13 +10703,13 @@
         <v>140</v>
       </c>
       <c r="AM42" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AN42" t="s">
         <v>233</v>
       </c>
       <c r="AP42" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AR42" t="s">
         <v>164</v>
@@ -10718,10 +10718,10 @@
         <v>239</v>
       </c>
       <c r="AU42" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AV42" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AW42" t="s">
         <v>205</v>
@@ -10730,10 +10730,10 @@
         <v>210</v>
       </c>
       <c r="AY42" s="14" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AZ42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:52">
@@ -10810,10 +10810,10 @@
         <v>69</v>
       </c>
       <c r="Z43" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AA43" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AB43">
         <v>2</v>
@@ -10837,13 +10837,13 @@
         <v>133</v>
       </c>
       <c r="AM43" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AN43" t="s">
         <v>159</v>
       </c>
       <c r="AP43" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AR43" t="s">
         <v>165</v>
@@ -10852,10 +10852,10 @@
         <v>113</v>
       </c>
       <c r="AU43" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AV43" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AW43" t="s">
         <v>199</v>
@@ -10864,10 +10864,10 @@
         <v>208</v>
       </c>
       <c r="AY43" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="AZ43" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:52">
@@ -10944,10 +10944,10 @@
         <v>69</v>
       </c>
       <c r="Z44" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AA44" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AB44">
         <v>2</v>
@@ -10971,13 +10971,13 @@
         <v>133</v>
       </c>
       <c r="AM44" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AN44" t="s">
         <v>159</v>
       </c>
       <c r="AP44" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AR44" t="s">
         <v>165</v>
@@ -10986,10 +10986,10 @@
         <v>113</v>
       </c>
       <c r="AU44" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AV44" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AW44" t="s">
         <v>237</v>
@@ -10998,10 +10998,10 @@
         <v>208</v>
       </c>
       <c r="AY44" s="15" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AZ44" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:52">
@@ -11066,7 +11066,7 @@
         <v>263</v>
       </c>
       <c r="AZ45" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:52">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="AY46" s="14"/>
       <c r="AZ46" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:52">
@@ -11197,7 +11197,7 @@
         <v>263</v>
       </c>
       <c r="AZ47" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:52">
@@ -11274,10 +11274,10 @@
         <v>80</v>
       </c>
       <c r="Z48" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AA48" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AB48">
         <v>2</v>
@@ -11298,7 +11298,7 @@
         <v>117</v>
       </c>
       <c r="AM48" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AN48" t="s">
         <v>232</v>
@@ -11307,7 +11307,7 @@
         <v>160</v>
       </c>
       <c r="AP48" t="s">
-        <v>605</v>
+        <v>688</v>
       </c>
       <c r="AR48" t="s">
         <v>164</v>
@@ -11316,16 +11316,19 @@
         <v>239</v>
       </c>
       <c r="AV48" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AW48" t="s">
         <v>200</v>
       </c>
+      <c r="AX48" t="s">
+        <v>207</v>
+      </c>
       <c r="AY48" s="15" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AZ48" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:52">
@@ -11399,10 +11402,10 @@
         <v>216</v>
       </c>
       <c r="Z49" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AA49" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AB49">
         <v>2</v>
@@ -11432,13 +11435,13 @@
         <v>148</v>
       </c>
       <c r="AM49" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="AN49" t="s">
         <v>233</v>
       </c>
       <c r="AP49" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR49" t="s">
         <v>164</v>
@@ -11447,10 +11450,10 @@
         <v>168</v>
       </c>
       <c r="AU49" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AV49" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AW49" t="s">
         <v>199</v>
@@ -11459,10 +11462,10 @@
         <v>207</v>
       </c>
       <c r="AY49" s="17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AZ49" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:52">
@@ -11539,10 +11542,10 @@
         <v>216</v>
       </c>
       <c r="Z50" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AA50" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AB50">
         <v>2</v>
@@ -11572,13 +11575,13 @@
         <v>148</v>
       </c>
       <c r="AM50" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AN50" t="s">
         <v>233</v>
       </c>
       <c r="AP50" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR50" t="s">
         <v>164</v>
@@ -11587,10 +11590,10 @@
         <v>168</v>
       </c>
       <c r="AU50" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AV50" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AW50" t="s">
         <v>205</v>
@@ -11599,10 +11602,10 @@
         <v>210</v>
       </c>
       <c r="AY50" s="16" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AZ50" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:52">
@@ -11679,10 +11682,10 @@
         <v>216</v>
       </c>
       <c r="Z51" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AA51" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AB51">
         <v>2</v>
@@ -11712,13 +11715,13 @@
         <v>148</v>
       </c>
       <c r="AM51" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AN51" t="s">
         <v>233</v>
       </c>
       <c r="AP51" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR51" t="s">
         <v>164</v>
@@ -11727,10 +11730,10 @@
         <v>168</v>
       </c>
       <c r="AU51" t="s">
+        <v>609</v>
+      </c>
+      <c r="AV51" t="s">
         <v>613</v>
-      </c>
-      <c r="AV51" t="s">
-        <v>617</v>
       </c>
       <c r="AW51" t="s">
         <v>206</v>
@@ -11739,10 +11742,10 @@
         <v>210</v>
       </c>
       <c r="AY51" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AZ51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:52">
@@ -11819,10 +11822,10 @@
         <v>113</v>
       </c>
       <c r="Z52" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AA52" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AB52">
         <v>2</v>
@@ -11849,7 +11852,7 @@
         <v>233</v>
       </c>
       <c r="AP52" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR52" t="s">
         <v>164</v>
@@ -11858,10 +11861,10 @@
         <v>239</v>
       </c>
       <c r="AU52" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AV52" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AW52" t="s">
         <v>206</v>
@@ -11870,10 +11873,10 @@
         <v>209</v>
       </c>
       <c r="AY52" s="18" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AZ52" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:52">
@@ -11950,10 +11953,10 @@
         <v>113</v>
       </c>
       <c r="Z53" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AA53" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AB53">
         <v>2</v>
@@ -11980,13 +11983,13 @@
         <v>141</v>
       </c>
       <c r="AM53" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AN53" t="s">
         <v>233</v>
       </c>
       <c r="AP53" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR53" t="s">
         <v>164</v>
@@ -11995,10 +11998,10 @@
         <v>239</v>
       </c>
       <c r="AU53" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AV53" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AW53" t="s">
         <v>206</v>
@@ -12007,10 +12010,10 @@
         <v>208</v>
       </c>
       <c r="AY53" s="18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AZ53" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:52">
@@ -12087,10 +12090,10 @@
         <v>113</v>
       </c>
       <c r="Z54" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AA54" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AB54">
         <v>2</v>
@@ -12117,13 +12120,13 @@
         <v>141</v>
       </c>
       <c r="AM54" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AN54" t="s">
         <v>233</v>
       </c>
       <c r="AP54" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR54" t="s">
         <v>164</v>
@@ -12132,10 +12135,10 @@
         <v>239</v>
       </c>
       <c r="AU54" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AV54" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AW54" t="s">
         <v>206</v>
@@ -12144,10 +12147,10 @@
         <v>208</v>
       </c>
       <c r="AY54" s="18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AZ54" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="1:52">
@@ -12224,10 +12227,10 @@
         <v>113</v>
       </c>
       <c r="Z55" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AA55" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AB55">
         <v>2</v>
@@ -12257,7 +12260,7 @@
         <v>233</v>
       </c>
       <c r="AP55" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR55" t="s">
         <v>164</v>
@@ -12266,10 +12269,10 @@
         <v>239</v>
       </c>
       <c r="AU55" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AV55" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AW55" t="s">
         <v>206</v>
@@ -12278,10 +12281,10 @@
         <v>210</v>
       </c>
       <c r="AY55" s="18" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AZ55" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:52">
@@ -12358,10 +12361,10 @@
         <v>113</v>
       </c>
       <c r="Z56" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AA56" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AB56">
         <v>2</v>
@@ -12391,7 +12394,7 @@
         <v>233</v>
       </c>
       <c r="AP56" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AR56" t="s">
         <v>164</v>
@@ -12400,10 +12403,10 @@
         <v>239</v>
       </c>
       <c r="AU56" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AV56" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AW56" t="s">
         <v>206</v>
@@ -12412,10 +12415,10 @@
         <v>210</v>
       </c>
       <c r="AY56" s="18" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AZ56" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" spans="1:52">
@@ -12489,13 +12492,13 @@
         <v>58</v>
       </c>
       <c r="Y57" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="Z57" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AA57" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="AB57">
         <v>2</v>
@@ -12519,13 +12522,13 @@
         <v>134</v>
       </c>
       <c r="AM57" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AN57" t="s">
         <v>233</v>
       </c>
       <c r="AP57" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="AR57" t="s">
         <v>164</v>
@@ -12534,22 +12537,22 @@
         <v>239</v>
       </c>
       <c r="AU57" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AV57" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AW57" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AX57" t="s">
         <v>208</v>
       </c>
       <c r="AY57" s="19" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AZ57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:52">
@@ -12626,10 +12629,10 @@
         <v>113</v>
       </c>
       <c r="Z58" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AA58" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AB58">
         <v>2</v>
@@ -12653,7 +12656,7 @@
         <v>132</v>
       </c>
       <c r="AM58" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="AN58" t="s">
         <v>232</v>
@@ -12662,7 +12665,7 @@
         <v>162</v>
       </c>
       <c r="AP58" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AR58" t="s">
         <v>164</v>
@@ -12671,7 +12674,7 @@
         <v>239</v>
       </c>
       <c r="AV58" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="AW58" t="s">
         <v>199</v>
@@ -12680,10 +12683,10 @@
         <v>208</v>
       </c>
       <c r="AY58" s="13" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AZ58" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:52">
@@ -12760,10 +12763,10 @@
         <v>70</v>
       </c>
       <c r="Z59" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AA59" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AB59">
         <v>2</v>
@@ -12787,7 +12790,7 @@
         <v>138</v>
       </c>
       <c r="AM59" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AN59" t="s">
         <v>232</v>
@@ -12796,7 +12799,7 @@
         <v>160</v>
       </c>
       <c r="AP59" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AR59" t="s">
         <v>164</v>
@@ -12805,7 +12808,7 @@
         <v>170</v>
       </c>
       <c r="AV59" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AW59" t="s">
         <v>237</v>
@@ -12814,10 +12817,10 @@
         <v>207</v>
       </c>
       <c r="AY59" s="12" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AZ59" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60" spans="1:52">
@@ -12882,7 +12885,7 @@
         <v>263</v>
       </c>
       <c r="AZ60" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="61" spans="1:52">
@@ -12959,10 +12962,10 @@
         <v>113</v>
       </c>
       <c r="Z61" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AA61" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AB61">
         <v>2</v>
@@ -12986,7 +12989,7 @@
         <v>137</v>
       </c>
       <c r="AM61" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AN61" t="s">
         <v>232</v>
@@ -12995,7 +12998,7 @@
         <v>162</v>
       </c>
       <c r="AP61" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="AR61" t="s">
         <v>164</v>
@@ -13004,10 +13007,10 @@
         <v>171</v>
       </c>
       <c r="AU61" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AV61" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AW61" t="s">
         <v>199</v>
@@ -13016,10 +13019,10 @@
         <v>207</v>
       </c>
       <c r="AY61" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AZ61" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:52">
@@ -13096,10 +13099,10 @@
         <v>113</v>
       </c>
       <c r="Z62" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AA62" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AB62">
         <v>2</v>
@@ -13123,7 +13126,7 @@
         <v>137</v>
       </c>
       <c r="AM62" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AN62" t="s">
         <v>232</v>
@@ -13132,7 +13135,7 @@
         <v>162</v>
       </c>
       <c r="AP62" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AR62" t="s">
         <v>164</v>
@@ -13141,10 +13144,10 @@
         <v>171</v>
       </c>
       <c r="AU62" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AV62" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AW62" t="s">
         <v>199</v>
@@ -13153,10 +13156,10 @@
         <v>208</v>
       </c>
       <c r="AY62" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AZ62" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:52">
@@ -14150,14 +14153,14 @@
     <mergeCell ref="AN1:AQ1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q12 R13:R19 Q20:Q1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="R13:R19 Q20:Q1048576 Q3:Q12" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI1048576" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR1048576" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO1048576 AJ3:AK1048576 AS3:AT1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AT1048576 AO3:AO1048576 AJ3:AK1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AI3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -16136,7 +16139,7 @@
         <v>134</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AB23" t="s">
         <v>193</v>
@@ -16409,12 +16412,12 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
